--- a/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -2107,9 +2107,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2125,6 +2122,9 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,9 +2143,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2240,6 +2237,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2472,15 +2472,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2736,58 +2736,6 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5123" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5123"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
           <xdr:row>16</xdr:row>
@@ -2888,6 +2836,58 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5127" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2954,16 +2954,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3005,16 +3005,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3056,16 +3056,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4086,9 +4086,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>438150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4419,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5096,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,19 +5180,19 @@
         <v>68</v>
       </c>
       <c r="E5" s="41" t="str">
-        <f>COMPLEX(62,38)</f>
-        <v>62+38i</v>
+        <f>COMPLEX(62,32.8)</f>
+        <v>62+32.8i</v>
       </c>
       <c r="F5" s="41">
         <f>IMABS(E5)</f>
-        <v>72.718635850791372</v>
+        <v>70.141571125830936</v>
       </c>
       <c r="G5" s="41">
         <v>110</v>
       </c>
       <c r="H5" s="51">
         <f>(F5/SQRT(3)/G5)*1000</f>
-        <v>381.67385439597064</v>
+        <v>368.14777246256159</v>
       </c>
       <c r="I5" s="41" t="s">
         <v>126</v>
@@ -5211,19 +5211,19 @@
         <v>139</v>
       </c>
       <c r="E6" s="41" t="str">
-        <f>COMPLEX(27,19)</f>
-        <v>27+19i</v>
+        <f>COMPLEX(35,19)</f>
+        <v>35+19i</v>
       </c>
       <c r="F6" s="41">
         <f>IMABS(E6)</f>
-        <v>33.015148038438355</v>
+        <v>39.824615503479755</v>
       </c>
       <c r="G6" s="41">
         <v>110</v>
       </c>
       <c r="H6" s="41">
         <f>(F6/SQRT(3)/G6)*1000</f>
-        <v>173.28458733934301</v>
+        <v>209.02502255733981</v>
       </c>
       <c r="I6" s="41" t="s">
         <v>109</v>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="E8" s="41" t="str">
         <f>E5</f>
-        <v>62+38i</v>
+        <v>62+32.8i</v>
       </c>
       <c r="F8" s="41">
         <f>IMABS(E8)</f>
-        <v>72.718635850791372</v>
+        <v>70.141571125830936</v>
       </c>
       <c r="G8" s="41">
         <v>110</v>
       </c>
       <c r="H8" s="51">
         <f>(F8/SQRT(3)/G8)*1000</f>
-        <v>381.67385439597064</v>
+        <v>368.14777246256159</v>
       </c>
       <c r="I8" s="41" t="s">
         <v>125</v>
@@ -5403,19 +5403,19 @@
         <v>80</v>
       </c>
       <c r="E13" s="41" t="str">
-        <f>COMPLEX(62,32.5)</f>
-        <v>62+32.5i</v>
+        <f>COMPLEX(67,32.5)</f>
+        <v>67+32.5i</v>
       </c>
       <c r="F13" s="41">
         <f>IMABS(E13)</f>
-        <v>70.001785691509326</v>
+        <v>74.46643539206103</v>
       </c>
       <c r="G13" s="41">
         <v>110</v>
       </c>
       <c r="H13" s="51">
         <f>(F13/SQRT(3)/G13)*1000</f>
-        <v>367.41408920679464</v>
+        <v>390.84742290180287</v>
       </c>
       <c r="I13" s="41" t="s">
         <v>125</v>
@@ -5434,19 +5434,19 @@
         <v>81</v>
       </c>
       <c r="E14" s="41" t="str">
-        <f>COMPLEX(27,15.5)</f>
-        <v>27+15.5i</v>
+        <f>COMPLEX(32,15.5)</f>
+        <v>32+15.5i</v>
       </c>
       <c r="F14" s="41">
         <f>IMABS(E14)</f>
-        <v>31.132780152116194</v>
+        <v>35.556293395122054</v>
       </c>
       <c r="G14" s="41">
         <v>110</v>
       </c>
       <c r="H14" s="41">
         <f>(F14/SQRT(3)/G14)*1000</f>
-        <v>163.40471819496113</v>
+        <v>186.62214148235481</v>
       </c>
       <c r="I14" s="41" t="s">
         <v>109</v>
@@ -5480,18 +5480,18 @@
       </c>
       <c r="E16" s="41" t="str">
         <f>E13</f>
-        <v>62+32.5i</v>
+        <v>67+32.5i</v>
       </c>
       <c r="F16" s="41">
         <f>IMABS(E16)</f>
-        <v>70.001785691509326</v>
+        <v>74.46643539206103</v>
       </c>
       <c r="G16" s="41">
         <v>110</v>
       </c>
       <c r="H16" s="51">
         <f>(F16/SQRT(3)/G16)*1000</f>
-        <v>367.41408920679464</v>
+        <v>390.84742290180287</v>
       </c>
       <c r="I16" s="41" t="s">
         <v>126</v>
@@ -5669,7 +5669,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="103"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
@@ -5802,9 +5802,9 @@
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>438150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5822,8 +5822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5859,16 +5859,16 @@
       <c r="I3" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="56" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5925,31 +5925,31 @@
         <f>нагрів!I5</f>
         <v>АС-300/67</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="57">
         <f>'Таблиця 1-4'!E4</f>
         <v>7.8</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="60">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="60">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="59">
         <f>H6*G6</f>
         <v>0.26519999999999999</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="59">
         <f>I6*G6</f>
         <v>3.1590000000000003</v>
       </c>
       <c r="L6" s="55" t="str">
         <f>нагрів!E5</f>
-        <v>62+38i</v>
-      </c>
-      <c r="M6" s="60">
+        <v>62+32.8i</v>
+      </c>
+      <c r="M6" s="59">
         <f>(IMREAL(L6)*J6+IMAGINARY(L6)*K6)/$N$6</f>
-        <v>1.2407672727272729</v>
+        <v>1.0914327272727273</v>
       </c>
       <c r="N6" s="54">
         <v>110</v>
@@ -5966,31 +5966,31 @@
         <f>нагрів!I6</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="58">
         <f>'Таблиця 1-4'!E5</f>
         <v>5.6</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="60">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="59">
         <v>0.42</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="59">
         <f>H7*G7</f>
         <v>1.1088</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="59">
         <f>I7*G7</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="L7" s="55" t="str">
+      <c r="L7" s="61" t="str">
         <f>нагрів!E6</f>
-        <v>27+19i</v>
-      </c>
-      <c r="M7" s="60">
+        <v>35+19i</v>
+      </c>
+      <c r="M7" s="59">
         <f>(IMREAL(L7)*J7+IMAGINARY(L7)*K7)/$N$6</f>
-        <v>0.67841454545454538</v>
+        <v>0.75905454545454543</v>
       </c>
       <c r="N7" s="54"/>
     </row>
@@ -6007,9 +6007,9 @@
       <c r="J8" s="129"/>
       <c r="K8" s="129"/>
       <c r="L8" s="130"/>
-      <c r="M8" s="60">
+      <c r="M8" s="59">
         <f>M6+M7</f>
-        <v>1.9191818181818183</v>
+        <v>1.8504872727272728</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -6043,17 +6043,17 @@
         <f>'Таблиця 1-4'!E3</f>
         <v>11.8</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="60">
         <v>0.12</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="60">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="59">
         <f>H10*G10</f>
         <v>1.4159999999999999</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="59">
         <f>I10*G10</f>
         <v>4.7790000000000008</v>
       </c>
@@ -6061,7 +6061,7 @@
         <f>нагрів!E10</f>
         <v>35+19i</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="59">
         <f>(IMREAL(L10)*J10+IMAGINARY(L10)*K10)/$N$6</f>
         <v>1.2760090909090911</v>
       </c>
@@ -6081,25 +6081,25 @@
         <f>G7</f>
         <v>5.6</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="60">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="59">
         <v>0.42</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="59">
         <f>H11*G11</f>
         <v>1.1088</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="59">
         <f>I11*G11</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="L11" s="55" t="str">
+      <c r="L11" s="61" t="str">
         <f>нагрів!E11</f>
         <v>62+32.8i</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="59">
         <f>(IMREAL(L11)*J11+IMAGINARY(L11)*K11)/$N$6</f>
         <v>1.3262836363636361</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="J12" s="129"/>
       <c r="K12" s="129"/>
       <c r="L12" s="130"/>
-      <c r="M12" s="60">
+      <c r="M12" s="59">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
       </c>
@@ -6139,11 +6139,11 @@
         <f>Потокорозподіл!D8</f>
         <v>5.6</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="60">
         <f>H11</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="59">
         <f>I11</f>
         <v>0.42</v>
       </c>
@@ -6159,7 +6159,7 @@
         <f>нагрів!E10</f>
         <v>35+19i</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="59">
         <f>(IMREAL(L13)*J13+IMAGINARY(L13)*K13)/$N$6</f>
         <v>0.75905454545454543</v>
       </c>
@@ -6179,11 +6179,11 @@
         <f>Потокорозподіл!D9</f>
         <v>7.8</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="60">
         <f>H10</f>
         <v>0.12</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="60">
         <f>I10</f>
         <v>0.40500000000000003</v>
       </c>
@@ -6199,7 +6199,7 @@
         <f>нагрів!E11</f>
         <v>62+32.8i</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="59">
         <f>(IMREAL(L14)*J14+IMAGINARY(L14)*K14)/$N$6</f>
         <v>1.4695199999999999</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="J15" s="129"/>
       <c r="K15" s="129"/>
       <c r="L15" s="130"/>
-      <c r="M15" s="60">
+      <c r="M15" s="59">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
@@ -6255,11 +6255,11 @@
       <c r="G17" s="55">
         <v>7.8</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="60">
         <f>H10</f>
         <v>0.12</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="60">
         <f>I10</f>
         <v>0.40500000000000003</v>
       </c>
@@ -6273,11 +6273,11 @@
       </c>
       <c r="L17" s="55" t="str">
         <f>нагрів!E13</f>
-        <v>62+32.5i</v>
-      </c>
-      <c r="M17" s="60">
+        <v>67+32.5i</v>
+      </c>
+      <c r="M17" s="59">
         <f>(IMREAL(L17)*J17+IMAGINARY(L14)*K17)/$N$6</f>
-        <v>1.4695199999999999</v>
+        <v>1.5120654545454546</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -6294,11 +6294,11 @@
       <c r="G18" s="55">
         <v>5.6</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="60">
         <f>H11</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="59">
         <f>I11</f>
         <v>0.42</v>
       </c>
@@ -6312,11 +6312,11 @@
       </c>
       <c r="L18" s="55" t="str">
         <f>нагрів!E14</f>
-        <v>27+15.5i</v>
-      </c>
-      <c r="M18" s="60">
+        <v>32+15.5i</v>
+      </c>
+      <c r="M18" s="59">
         <f>(IMREAL(L18)*J18+IMAGINARY(L15)*K18)/$N$6</f>
-        <v>0.27216000000000001</v>
+        <v>0.32256000000000001</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -6332,9 +6332,9 @@
       <c r="J19" s="129"/>
       <c r="K19" s="129"/>
       <c r="L19" s="130"/>
-      <c r="M19" s="60">
+      <c r="M19" s="59">
         <f>M17+M18</f>
-        <v>1.7416799999999999</v>
+        <v>1.8346254545454546</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6373,21 +6373,21 @@
       <c r="I21" s="55">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="58">
         <f>H21*G21</f>
         <v>0.40120000000000006</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="58">
         <f>G21*I21</f>
         <v>4.7790000000000008</v>
       </c>
       <c r="L21" s="55" t="str">
         <f>нагрів!E16</f>
-        <v>62+32.5i</v>
-      </c>
-      <c r="M21" s="60">
+        <v>67+32.5i</v>
+      </c>
+      <c r="M21" s="59">
         <f>(IMREAL(L21)*J21+IMAGINARY(L21)*K21)/$N$6</f>
-        <v>1.6381081818181822</v>
+        <v>1.6563445454545458</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -6410,11 +6410,11 @@
       <c r="I22" s="55">
         <v>0.42</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="58">
         <f>H22*G22</f>
         <v>1.1088</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="58">
         <f>G22*I22</f>
         <v>2.3519999999999999</v>
       </c>
@@ -6422,7 +6422,7 @@
         <f>нагрів!E17</f>
         <v>35+17i</v>
       </c>
-      <c r="M22" s="60">
+      <c r="M22" s="59">
         <f>(IMREAL(L22)*J22+IMAGINARY(L22)*K22)/$N$6</f>
         <v>0.71629090909090909</v>
       </c>
@@ -6440,9 +6440,9 @@
       <c r="J23" s="129"/>
       <c r="K23" s="129"/>
       <c r="L23" s="130"/>
-      <c r="M23" s="60">
+      <c r="M23" s="59">
         <f>M21+M22</f>
-        <v>2.3543990909090913</v>
+        <v>2.3726354545454549</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -6482,7 +6482,7 @@
         <f>нагрів!E18</f>
         <v>67+32.5i</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="59">
         <f>(IMREAL(L24)*J24+IMAGINARY(L24)*K24)/$N$6</f>
         <v>0.75798818181818195</v>
       </c>
@@ -6521,7 +6521,7 @@
         <f>нагрів!E19</f>
         <v>32+15.5i</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="59">
         <f t="shared" ref="M25:M26" si="0">(IMREAL(L25)*J25+IMAGINARY(L25)*K25)/$N$6</f>
         <v>0.9547527272727272</v>
       </c>
@@ -6541,11 +6541,11 @@
         <f>'Таблиця 1-4'!E13</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="60">
         <f>H18</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="59">
         <f>I18</f>
         <v>0.42</v>
       </c>
@@ -6561,7 +6561,7 @@
         <f>нагрів!E20</f>
         <v>35+17i</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="59">
         <f t="shared" si="0"/>
         <v>1.0616454545454546</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="J27" s="129"/>
       <c r="K27" s="129"/>
       <c r="L27" s="130"/>
-      <c r="M27" s="60">
+      <c r="M27" s="59">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
@@ -6597,7 +6597,7 @@
       <c r="J28" s="129"/>
       <c r="K28" s="129"/>
       <c r="L28" s="130"/>
-      <c r="M28" s="60">
+      <c r="M28" s="59">
         <f>M24+M25</f>
         <v>1.7127409090909091</v>
       </c>
@@ -6623,11 +6623,11 @@
       <c r="I29" s="55">
         <v>0.42</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="59">
         <f>H29*G29</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="59">
         <f>I29*G29</f>
         <v>6.2160000000000002</v>
       </c>
@@ -6635,7 +6635,7 @@
         <f>нагрів!E21</f>
         <v>166.15+116.7i</v>
       </c>
-      <c r="M29" s="55">
+      <c r="M29" s="59">
         <f>(IMREAL(L29)*J29+IMAGINARY(L29)*K29)/$N$29</f>
         <v>4.1356077272727276</v>
       </c>
@@ -6664,11 +6664,11 @@
         <f>0.429</f>
         <v>0.42899999999999999</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="59">
         <f t="shared" ref="J30:J31" si="1">H30*G30</f>
         <v>0.76840000000000008</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="59">
         <f t="shared" ref="K30:K31" si="2">I30*G30</f>
         <v>9.6954000000000011</v>
       </c>
@@ -6676,7 +6676,7 @@
         <f>нагрів!E22</f>
         <v>146.15+103.7i</v>
       </c>
-      <c r="M30" s="55">
+      <c r="M30" s="59">
         <f>(IMREAL(L30)*J30+IMAGINARY(L30)*K30)/$N$29</f>
         <v>5.0805210909090919</v>
       </c>
@@ -6694,18 +6694,18 @@
       <c r="G31" s="55">
         <v>10.8</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="60">
         <v>2.4E-2</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="60">
         <f>0.429</f>
         <v>0.42899999999999999</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="59">
         <f t="shared" si="1"/>
         <v>0.25920000000000004</v>
       </c>
-      <c r="K31" s="60">
+      <c r="K31" s="59">
         <f t="shared" si="2"/>
         <v>4.6332000000000004</v>
       </c>
@@ -6713,7 +6713,7 @@
         <f>нагрів!E23</f>
         <v>20+13i</v>
       </c>
-      <c r="M31" s="55">
+      <c r="M31" s="59">
         <f t="shared" ref="M31" si="3">(IMREAL(L31)*J31+IMAGINARY(L31)*K31)/$N$29</f>
         <v>0.29734363636363642</v>
       </c>
@@ -6731,7 +6731,7 @@
       <c r="J32" s="123"/>
       <c r="K32" s="123"/>
       <c r="L32" s="123"/>
-      <c r="M32" s="55">
+      <c r="M32" s="59">
         <f>M29+M30</f>
         <v>9.2161288181818186</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="J33" s="123"/>
       <c r="K33" s="123"/>
       <c r="L33" s="123"/>
-      <c r="M33" s="56">
+      <c r="M33" s="59">
         <f>M29+M31</f>
         <v>4.4329513636363638</v>
       </c>
@@ -6762,19 +6762,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E23:L23"/>
     <mergeCell ref="E27:L27"/>
     <mergeCell ref="E28:L28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C16:C28"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E23:L23"/>
     <mergeCell ref="C33:L33"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
@@ -6789,6 +6787,8 @@
     <mergeCell ref="E19:L19"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="E15:L15"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6799,8 +6799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7225,15 +7225,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7301,8 +7301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,6 +7500,11 @@
         <v>232</v>
       </c>
     </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
@@ -7550,16 +7555,16 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F23" t="str">
-        <f t="shared" ref="F23:H25" si="4">F5</f>
+        <f>F5</f>
         <v>ВП-Г</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
-        <v>9.8000000000000007</v>
+        <f>ROUND(1.1*H23/10*2,1)</f>
+        <v>8</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
-        <v>44.721359549995796</v>
+        <f>36.5</f>
+        <v>36.5</v>
       </c>
       <c r="O23" t="str">
         <f>F6</f>
@@ -7611,15 +7616,15 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
+        <f>F7</f>
         <v>Е-Г</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G25" si="4">G7</f>
         <v>14.5</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f>H7</f>
         <v>65.76473218982953</v>
       </c>
       <c r="O25" t="s">
@@ -7662,10 +7667,10 @@
       <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="J32" t="s">
+      <c r="I32" t="s">
         <v>13</v>
       </c>
-      <c r="R32" t="s">
+      <c r="Q32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7727,33 +7732,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="5123" r:id="rId8">
+        <oleObject progId="Visio.Drawing.15" shapeId="5125" r:id="rId8">
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="5123" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="5125" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -7772,13 +7752,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="5125" r:id="rId10"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="5125" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="5126" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+        <oleObject progId="Visio.Drawing.15" shapeId="5126" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>17</xdr:col>
@@ -7797,7 +7777,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="5126" r:id="rId12"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="5126" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5127" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5127" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -8037,8 +8042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8148,16 +8153,16 @@
         <v>34.480000000000004</v>
       </c>
       <c r="F6" s="8">
-        <f>'Вар1. Длинна'!P18*2+'Вар1. Длинна'!P20*2+'Вар1. Длинна'!P19*1.6</f>
-        <v>27.919999999999998</v>
+        <f>'Вар1. Длинна'!P18*2+'Вар1. Длинна'!P20*2+'Вар1. Длинна'!P19*2</f>
+        <v>29.799999999999997</v>
       </c>
       <c r="G6" s="8">
-        <f>'Вар1. Длинна'!V5*2+'Вар1. Длинна'!V7*2+'Вар1. Длинна'!V6*1.6</f>
-        <v>26.160000000000004</v>
+        <f>'Вар1. Длинна'!V5*2+'Вар1. Длинна'!V7*2+'Вар1. Длинна'!V6*2</f>
+        <v>28.400000000000002</v>
       </c>
       <c r="H6" s="8">
-        <f>'Вар1. Длинна'!H30*2+'Вар1. Длинна'!H29*1.6</f>
-        <v>24.56</v>
+        <f>'Вар1. Длинна'!H30*2+'Вар1. Длинна'!H29*2</f>
+        <v>26.799999999999997</v>
       </c>
       <c r="I6" s="8">
         <f>'Вар2. Длинна'!G5+'Вар2. Длинна'!G6+'Вар2. Длинна'!G7</f>
@@ -8168,16 +8173,16 @@
         <v>39.480000000000004</v>
       </c>
       <c r="K6" s="8">
-        <f>'Вар2. Длинна'!P25*2+'Вар2. Длинна'!P24*1.6+'Вар2. Длинна'!P26*2</f>
-        <v>39.480000000000004</v>
+        <f>'Вар2. Длинна'!P25*2+'Вар2. Длинна'!P24*2+'Вар2. Длинна'!P26*2</f>
+        <v>43.400000000000006</v>
       </c>
       <c r="L6" s="8">
-        <f>'Вар2. Длинна'!Y23*2+'Вар2. Длинна'!Y25*2+'Вар2. Длинна'!Y24*1.6</f>
-        <v>38.92</v>
+        <f>'Вар2. Длинна'!Y23*2+'Вар2. Длинна'!Y25*2+'Вар2. Длинна'!Y24*2</f>
+        <v>41.800000000000004</v>
       </c>
       <c r="M6" s="8">
         <f>'Вар2. Длинна'!G23*2+'Вар2. Длинна'!G25*2</f>
-        <v>48.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8194,15 +8199,15 @@
       </c>
       <c r="F7" s="8">
         <f>F6+F5*3</f>
-        <v>33.92</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G7" s="8">
         <f>G6+G5*3</f>
-        <v>32.160000000000004</v>
+        <v>34.400000000000006</v>
       </c>
       <c r="H7" s="18">
         <f>H6+H5*3</f>
-        <v>30.56</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" ref="I7:M7" si="0">I6+I5*3</f>
@@ -8214,15 +8219,15 @@
       </c>
       <c r="K7" s="8">
         <f>K6+K5*3</f>
-        <v>45.480000000000004</v>
+        <v>49.400000000000006</v>
       </c>
       <c r="L7" s="38">
         <f>L6+L5*3</f>
-        <v>44.92</v>
+        <v>47.800000000000004</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="0"/>
-        <v>54.6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8308,16 +8313,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>571500</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8333,16 +8338,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8358,16 +8363,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8385,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8958,7 +8963,7 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,10 +9002,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="78" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -9022,13 +9027,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="74">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -9048,11 +9053,11 @@
         <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="73"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="81"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -9072,11 +9077,11 @@
         <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
         <v>50.3</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="70"/>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="81" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -9098,13 +9103,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="71">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -9124,13 +9129,13 @@
         <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -9152,13 +9157,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="83">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -9178,11 +9183,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="85"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -9202,11 +9207,11 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="86"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="81" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -9228,13 +9233,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="83">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="70"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -9254,11 +9259,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="85"/>
+      <c r="I12" s="84"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -9278,13 +9283,13 @@
         <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="86"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -9304,13 +9309,13 @@
         <f t="shared" si="1"/>
         <v>159.1</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="83">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="70"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -9330,11 +9335,11 @@
         <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="I15" s="85"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -9354,7 +9359,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="86"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -9511,8 +9516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9526,13 +9531,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -9544,19 +9549,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="91" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="86" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -9567,9 +9572,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="89"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -9579,30 +9584,30 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="93"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="15">
         <f>Потокорозподіл!E5</f>
         <v>26.968</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -9641,22 +9646,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="15">
         <f>Потокорозподіл!E6</f>
         <v>35.031999999999996</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="99"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
       </c>
       <c r="F5" s="45" t="str">
-        <f>COMPLEX(A5,B5)</f>
+        <f t="shared" ref="F5:F17" si="0">COMPLEX(A5,B5)</f>
         <v>35.032+18.425i</v>
       </c>
       <c r="G5" s="45">
@@ -9687,26 +9692,26 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="15">
         <f>Потокорозподіл!E7</f>
         <v>-8.032</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
       </c>
       <c r="F6" s="45" t="str">
-        <f>COMPLEX(A6,B6)</f>
+        <f t="shared" si="0"/>
         <v>-8.032-4.625i</v>
       </c>
       <c r="G6" s="45">
-        <f t="shared" ref="G6:G17" si="0">ROUND(1*IMABS(F6),2)</f>
+        <f t="shared" ref="G6:G17" si="1">ROUND(1*IMABS(F6),2)</f>
         <v>9.27</v>
       </c>
       <c r="H6" s="45">
@@ -9718,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="45">
-        <f t="shared" ref="J6:J7" si="1">ROUND(G6/SQRT(3)/H6/I6*10^3,2)</f>
+        <f t="shared" ref="J6:J7" si="2">ROUND(G6/SQRT(3)/H6/I6*10^3,2)</f>
         <v>48.65</v>
       </c>
       <c r="K6" s="46">
@@ -9733,16 +9738,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="15">
         <f>Потокорозподіл!E8</f>
         <v>35</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="87" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -9750,11 +9755,11 @@
         <v>В-Д</v>
       </c>
       <c r="F7" s="45" t="str">
-        <f t="shared" ref="F7:F17" si="2">COMPLEX(A7,B7)</f>
+        <f t="shared" si="0"/>
         <v>35+19i</v>
       </c>
       <c r="G7" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.82</v>
       </c>
       <c r="H7" s="45">
@@ -9766,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104.5</v>
       </c>
       <c r="K7" s="46">
@@ -9781,26 +9786,26 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="15">
         <f>Потокорозподіл!E9</f>
         <v>62</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
       <c r="F8" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>62+32.8i</v>
       </c>
       <c r="G8" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.14</v>
       </c>
       <c r="H8" s="45">
@@ -9827,18 +9832,18 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="15">
         <f>Потокорозподіл!E11</f>
         <v>34.843000000000004</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15">
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="86" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -9846,11 +9851,11 @@
         <v>ВП-Г</v>
       </c>
       <c r="F9" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>34.843+16.892i</v>
       </c>
       <c r="G9" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.72</v>
       </c>
       <c r="H9" s="45">
@@ -9877,26 +9882,26 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="15">
         <f>Потокорозподіл!E12</f>
         <v>32.156999999999996</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
       </c>
       <c r="F10" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>32.157+15.608i</v>
       </c>
       <c r="G10" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.74</v>
       </c>
       <c r="H10" s="45">
@@ -9923,26 +9928,26 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="15">
         <f>Потокорозподіл!E13</f>
         <v>2.8430000000000035</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15">
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
       </c>
       <c r="F11" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.843+1.392i</v>
       </c>
       <c r="G11" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.17</v>
       </c>
       <c r="H11" s="45">
@@ -9969,16 +9974,16 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="15">
         <f>Потокорозподіл!E14</f>
         <v>67</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15">
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="87" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -9986,11 +9991,11 @@
         <v>ВП-2</v>
       </c>
       <c r="F12" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>67+32.5i</v>
       </c>
       <c r="G12" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.47</v>
       </c>
       <c r="H12" s="45">
@@ -10017,26 +10022,26 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="15">
         <f>'Таблиця 1-4'!F12</f>
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="15">
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
       </c>
       <c r="F13" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>32+15.5i</v>
       </c>
       <c r="G13" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.56</v>
       </c>
       <c r="H13" s="45">
@@ -10063,26 +10068,26 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="15">
         <f>'Таблиця 1-4'!F13</f>
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15">
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
       </c>
       <c r="F14" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35+17i</v>
       </c>
       <c r="G14" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.909999999999997</v>
       </c>
       <c r="H14" s="45">
@@ -10109,26 +10114,26 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="15">
         <f>Потокорозподіл!F25</f>
         <v>166.15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="15">
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
       <c r="F15" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>166.15+116.7i</v>
       </c>
       <c r="G15" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>203.04</v>
       </c>
       <c r="H15" s="33">
@@ -10155,26 +10160,26 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="15">
         <f>Потокорозподіл!F26</f>
         <v>146.15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15">
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
       <c r="F16" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>146.15+103.7i</v>
       </c>
       <c r="G16" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>179.2</v>
       </c>
       <c r="H16" s="33">
@@ -10201,26 +10206,26 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="15">
         <f>Потокорозподіл!F27</f>
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15">
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
       <c r="F17" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20+13i</v>
       </c>
       <c r="G17" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.85</v>
       </c>
       <c r="H17" s="33">
@@ -10285,20 +10290,20 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="68"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="40" t="s">
         <v>113</v>
       </c>

--- a/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,20 @@
     <sheet name="Вар2. Длинна" sheetId="5" r:id="rId3"/>
     <sheet name="мережа зовнішньго електр." sheetId="7" r:id="rId4"/>
     <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId6"/>
-    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
-    <sheet name="Fрозр" sheetId="8" r:id="rId8"/>
-    <sheet name="мех міцн" sheetId="9" r:id="rId9"/>
-    <sheet name="нагрів" sheetId="10" r:id="rId10"/>
-    <sheet name="падіння напруги" sheetId="11" r:id="rId11"/>
+    <sheet name="трансформ + компенс" sheetId="12" r:id="rId6"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId7"/>
+    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId8"/>
+    <sheet name="Fрозр" sheetId="8" r:id="rId9"/>
+    <sheet name="мех міцн" sheetId="9" r:id="rId10"/>
+    <sheet name="нагрів" sheetId="10" r:id="rId11"/>
+    <sheet name="падіння напруги" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="226">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -1170,6 +1171,479 @@
       <t>кВ</t>
     </r>
   </si>
+  <si>
+    <t>Назва вузла</t>
+  </si>
+  <si>
+    <t>Uном мережі,</t>
+  </si>
+  <si>
+    <t>Pм+jQм, МВ×А</t>
+  </si>
+  <si>
+    <t>Sм, МВ×А</t>
+  </si>
+  <si>
+    <t>Sнеоб, МВ×А</t>
+  </si>
+  <si>
+    <t>Sном.т, МВ×А</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>т</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>з</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>зав</t>
+    </r>
+  </si>
+  <si>
+    <t>ТРДН</t>
+  </si>
+  <si>
+    <t>атдцтн</t>
+  </si>
+  <si>
+    <t>табл 1.9</t>
+  </si>
+  <si>
+    <t>табл 1.20</t>
+  </si>
+  <si>
+    <t>Назва ПС</t>
+  </si>
+  <si>
+    <t>Тип трансформаторів</t>
+  </si>
+  <si>
+    <t>Кількість, тип і потужність КП</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <r>
+      <t>tg φ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2ном</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, кВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кпном</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, Мвар</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кп</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, Мвар</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, Мвар</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, МВт</t>
+    </r>
+  </si>
+  <si>
+    <t>АТДЦТН-125000/220/110/35</t>
+  </si>
+  <si>
+    <t>ТРДН-40000/110/35</t>
+  </si>
+  <si>
+    <t>ТРДН-25000/110/35</t>
+  </si>
+  <si>
+    <t>4xУК-10-2700</t>
+  </si>
+  <si>
+    <t>4xУК-6-1800</t>
+  </si>
+  <si>
+    <t>4xУК-6-900 4xУК-6-1125</t>
+  </si>
+  <si>
+    <t>4xУК-10-900 4xУК-10-1125</t>
+  </si>
+  <si>
+    <t>4xУК-10-1800</t>
+  </si>
+  <si>
+    <t>ТДТН</t>
+  </si>
+  <si>
+    <t>ТДТН-25000/220/35/10</t>
+  </si>
+  <si>
+    <t>табл. 1.21</t>
+  </si>
+  <si>
+    <t>Назва</t>
+  </si>
+  <si>
+    <t>вузла</t>
+  </si>
+  <si>
+    <t>Qкп ном, МВ×А</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, МВ×А</t>
+    </r>
+  </si>
+  <si>
+    <t>Тип трансформатора</t>
+  </si>
+  <si>
+    <t>Sном.т , МВ×А</t>
+  </si>
+  <si>
+    <t>табл. 1.22</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ном т</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, МВ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>т</t>
+    </r>
+  </si>
+  <si>
+    <t>Коефіцієнт завантаження після заміни</t>
+  </si>
+  <si>
+    <t>до</t>
+  </si>
+  <si>
+    <t>після заміни</t>
+  </si>
+  <si>
+    <t>Тип трансфор-матора</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+ j Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, МВ×А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, МВ×А</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">заміна на ТДН - 16000/110/35 допустима </t>
+  </si>
+  <si>
+    <t xml:space="preserve">трансформатор перенавантажений </t>
+  </si>
+  <si>
+    <t xml:space="preserve">заміна на - ТРДН -25000/110/35 допустима </t>
+  </si>
 </sst>
 </file>
 
@@ -1179,7 +1653,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1821,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1356,7 +1837,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1950,11 +2431,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2125,6 +2643,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,6 +2682,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2197,15 +2760,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,9 +2784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2343,6 +2897,39 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2954,125 +3541,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3078" name="Object 6" hidden="1">
+            <xdr:cNvPr id="16417" name="Object 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3078"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3077"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3076" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3076"/>
+                  <a14:compatExt spid="_x0000_s16417"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4438,7 +4923,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4456,14 +4941,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="69" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4479,7 +4964,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -4686,7 +5171,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4716,7 +5201,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -5093,6 +5578,167 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="112"/>
+    </row>
+    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="112"/>
+      <c r="D4" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="40">
+        <v>114</v>
+      </c>
+      <c r="E5" s="40">
+        <v>26.6</v>
+      </c>
+      <c r="F5" s="42">
+        <f>D5/E5</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="40">
+        <v>147</v>
+      </c>
+      <c r="E6" s="40">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F6" s="42">
+        <f t="shared" ref="F6:F9" si="0">D6/E6</f>
+        <v>4.2857142857142865</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="40">
+        <v>185</v>
+      </c>
+      <c r="E7" s="40">
+        <v>43.1</v>
+      </c>
+      <c r="F7" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2923433874709973</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="40">
+        <v>241</v>
+      </c>
+      <c r="E8" s="40">
+        <v>56.3</v>
+      </c>
+      <c r="F8" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2806394316163416</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="40">
+        <v>288.5</v>
+      </c>
+      <c r="E9" s="40">
+        <v>67.3</v>
+      </c>
+      <c r="F9" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2867756315007428</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="40">
+        <v>394</v>
+      </c>
+      <c r="E10" s="40">
+        <v>51.1</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" ref="F10" si="1">D10/E10</f>
+        <v>7.7103718199608604</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
@@ -5112,70 +5758,70 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="131" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="111"/>
-      <c r="C5" s="113"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="125"/>
       <c r="D5" s="41" t="s">
         <v>68</v>
       </c>
@@ -5205,8 +5851,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
@@ -5236,22 +5882,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="108" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="41" t="s">
         <v>73</v>
       </c>
@@ -5281,8 +5927,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
@@ -5313,8 +5959,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="126"/>
+      <c r="C10" s="123" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="53" t="str">
@@ -5347,8 +5993,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
-      <c r="C11" s="112"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="53" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -5379,26 +6025,26 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="122"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="111"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="41" t="s">
         <v>80</v>
       </c>
@@ -5428,8 +6074,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="111"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="41" t="s">
         <v>81</v>
       </c>
@@ -5459,22 +6105,22 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="108" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="122"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
-      <c r="C16" s="113"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="41" t="s">
         <v>79</v>
       </c>
@@ -5504,8 +6150,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
-      <c r="C17" s="113"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="41" t="s">
         <v>142</v>
       </c>
@@ -5535,8 +6181,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
-      <c r="C18" s="111" t="s">
+      <c r="B18" s="126"/>
+      <c r="C18" s="123" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="52" t="str">
@@ -5569,8 +6215,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="52" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
@@ -5601,8 +6247,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="52" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
@@ -5634,10 +6280,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="101"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -5669,8 +6315,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -5702,8 +6348,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="102"/>
-      <c r="C23" s="104"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -5818,11 +6464,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:M33"/>
     </sheetView>
   </sheetViews>
@@ -5838,25 +6484,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="138" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="138" t="s">
         <v>168</v>
       </c>
       <c r="J3" s="56" t="s">
@@ -5873,15 +6519,15 @@
       </c>
     </row>
     <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="126"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
       <c r="J4" s="55" t="s">
         <v>147</v>
       </c>
@@ -5896,27 +6542,27 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="131"/>
-      <c r="D6" s="127"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="55" t="str">
         <f>нагрів!D5</f>
         <v>ВП-Д</v>
@@ -5956,8 +6602,8 @@
       </c>
     </row>
     <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="131"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="55" t="str">
         <f>нагрів!D6</f>
         <v>Д-В</v>
@@ -5995,42 +6641,42 @@
       <c r="N7" s="54"/>
     </row>
     <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="131"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128" t="s">
+      <c r="C8" s="143"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="130"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="59">
         <f>M6+M7</f>
         <v>1.8504872727272728</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="131"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128" t="str">
+      <c r="C9" s="143"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140" t="str">
         <f>нагрів!D7</f>
         <v>відключення ВП-Д</v>
       </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="130"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="142"/>
     </row>
     <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="131"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="55" t="str">
         <f>нагрів!D8</f>
         <v>ВП-В</v>
@@ -6067,8 +6713,8 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="131"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="55" t="str">
         <f>нагрів!D9</f>
         <v>В-Д</v>
@@ -6105,26 +6751,26 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="131"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128" t="s">
+      <c r="C12" s="143"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="142"/>
       <c r="M12" s="59">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="131"/>
-      <c r="D13" s="124" t="s">
+      <c r="C13" s="143"/>
+      <c r="D13" s="136" t="s">
         <v>155</v>
       </c>
       <c r="E13" s="55" t="str">
@@ -6165,8 +6811,8 @@
       </c>
     </row>
     <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="55" t="str">
         <f>Fрозр!E8</f>
         <v>ВП-Д</v>
@@ -6205,45 +6851,45 @@
       </c>
     </row>
     <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="128" t="s">
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="130"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="142"/>
       <c r="M15" s="59">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="126" t="s">
+      <c r="D16" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="128" t="s">
+      <c r="E16" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="130"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="142"/>
     </row>
     <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="55" t="str">
         <f>нагрів!D13</f>
         <v>ВП-Е</v>
@@ -6281,8 +6927,8 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="55" t="str">
         <f>нагрів!D14</f>
         <v>Е-Г</v>
@@ -6320,41 +6966,41 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128" t="s">
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="130"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="142"/>
       <c r="M19" s="59">
         <f>M17+M18</f>
         <v>1.8346254545454546</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128" t="s">
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="142"/>
     </row>
     <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="55" t="str">
         <f>нагрів!D16</f>
         <v>ВП-Г</v>
@@ -6391,8 +7037,8 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="55" t="str">
         <f>нагрів!D17</f>
         <v>Г-Е</v>
@@ -6428,26 +7074,26 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128" t="s">
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="130"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="142"/>
       <c r="M23" s="59">
         <f>M21+M22</f>
         <v>2.3726354545454549</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="126"/>
-      <c r="D24" s="126" t="s">
+      <c r="C24" s="138"/>
+      <c r="D24" s="138" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="55" t="str">
@@ -6488,8 +7134,8 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="55" t="str">
         <f>нагрів!D19</f>
         <v>Г-2</v>
@@ -6527,8 +7173,8 @@
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="55" t="str">
         <f>нагрів!D20</f>
         <v>Е-2</v>
@@ -6567,46 +7213,46 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="128" t="s">
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="142"/>
       <c r="M27" s="59">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="128" t="s">
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="142"/>
       <c r="M28" s="59">
         <f>M24+M25</f>
         <v>1.7127409090909091</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="126" t="s">
+      <c r="C29" s="138" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="136"/>
       <c r="E29" s="55" t="s">
         <v>151</v>
       </c>
@@ -6644,8 +7290,8 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="126"/>
-      <c r="D30" s="133"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="55" t="s">
         <v>152</v>
       </c>
@@ -6682,8 +7328,8 @@
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="126"/>
-      <c r="D31" s="134"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="146"/>
       <c r="E31" s="55" t="s">
         <v>153</v>
       </c>
@@ -6719,36 +7365,36 @@
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
       <c r="M32" s="59">
         <f>M29+M30</f>
         <v>9.2161288181818186</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
       <c r="M33" s="59">
         <f>M29+M31</f>
         <v>4.4329513636363638</v>
@@ -8039,11 +8685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8053,26 +8699,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="65" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="64"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -8304,93 +8950,1272 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="76"/>
+      <c r="D4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>Потокорозподіл!F26</f>
+        <v>146.15</v>
+      </c>
+      <c r="B5">
+        <f>Потокорозподіл!G26</f>
+        <v>103.7</v>
+      </c>
+      <c r="C5" s="62" t="str">
+        <f>'Табл1-1  1-2'!A4</f>
+        <v>А</v>
+      </c>
+      <c r="D5" s="33">
+        <v>220</v>
+      </c>
+      <c r="E5" s="66" t="str">
+        <f>COMPLEX(A5,B5)</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="F5" s="68">
+        <f>IMABS(E5)</f>
+        <v>179.20243441426791</v>
+      </c>
+      <c r="G5" s="68">
+        <f>0.7*F5</f>
+        <v>125.44170408998752</v>
+      </c>
+      <c r="H5" s="66">
+        <v>125</v>
+      </c>
+      <c r="I5" s="66">
+        <v>2</v>
+      </c>
+      <c r="J5" s="67">
+        <f>F5/I5/H5</f>
+        <v>0.71680973765707168</v>
+      </c>
+      <c r="K5" s="67">
+        <f>F5/H5</f>
+        <v>1.4336194753141434</v>
+      </c>
+      <c r="L5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+      <c r="C6" s="62" t="str">
+        <f>'Табл1-1  1-2'!A5</f>
+        <v>Б</v>
+      </c>
+      <c r="D6" s="33">
+        <v>220</v>
+      </c>
+      <c r="E6" s="66" t="str">
+        <f t="shared" ref="E6:E10" si="0">COMPLEX(A6,B6)</f>
+        <v>20+13i</v>
+      </c>
+      <c r="F6" s="68">
+        <f t="shared" ref="F6:F10" si="1">IMABS(E6)</f>
+        <v>23.853720883753127</v>
+      </c>
+      <c r="G6" s="68">
+        <f t="shared" ref="G6:G9" si="2">0.7*F6</f>
+        <v>16.697604618627189</v>
+      </c>
+      <c r="H6" s="150">
+        <v>25</v>
+      </c>
+      <c r="I6" s="66">
+        <v>2</v>
+      </c>
+      <c r="J6" s="67">
+        <f>F6/I6/H6</f>
+        <v>0.47707441767506253</v>
+      </c>
+      <c r="K6" s="67">
+        <f>F6/H6</f>
+        <v>0.95414883535012507</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'Табл1-1  1-2'!B6</f>
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>'Табл1-1  1-2'!C6</f>
+        <v>19</v>
+      </c>
+      <c r="C7" s="62" t="str">
+        <f>'Табл1-1  1-2'!A6</f>
+        <v>В</v>
+      </c>
+      <c r="D7" s="33">
+        <v>110</v>
+      </c>
+      <c r="E7" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>35+19i</v>
+      </c>
+      <c r="F7" s="68">
+        <f t="shared" si="1"/>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G7" s="68">
+        <f>0.7*F7</f>
+        <v>27.877230852435826</v>
+      </c>
+      <c r="H7" s="66">
+        <v>40</v>
+      </c>
+      <c r="I7" s="66">
+        <v>2</v>
+      </c>
+      <c r="J7" s="67">
+        <f>F7/I7/H7</f>
+        <v>0.49780769379349693</v>
+      </c>
+      <c r="K7" s="67">
+        <f>F7/H7</f>
+        <v>0.99561538758699386</v>
+      </c>
+      <c r="L7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'Табл1-1  1-2'!B7</f>
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <f>'Табл1-1  1-2'!C7</f>
+        <v>15.5</v>
+      </c>
+      <c r="C8" s="62" t="str">
+        <f>'Табл1-1  1-2'!A7</f>
+        <v>Г</v>
+      </c>
+      <c r="D8" s="33">
+        <v>110</v>
+      </c>
+      <c r="E8" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>32+15.5i</v>
+      </c>
+      <c r="F8" s="68">
+        <f t="shared" si="1"/>
+        <v>35.556293395122054</v>
+      </c>
+      <c r="G8" s="68">
+        <f t="shared" si="2"/>
+        <v>24.889405376585437</v>
+      </c>
+      <c r="H8" s="66">
+        <v>25</v>
+      </c>
+      <c r="I8" s="66">
+        <v>2</v>
+      </c>
+      <c r="J8" s="67">
+        <f t="shared" ref="J8:J10" si="3">F8/I8/H8</f>
+        <v>0.71112586790244103</v>
+      </c>
+      <c r="K8" s="67">
+        <f t="shared" ref="K8:K10" si="4">F8/H8</f>
+        <v>1.4222517358048821</v>
+      </c>
+      <c r="L8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'Табл1-1  1-2'!B8</f>
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <f>'Табл1-1  1-2'!C8</f>
+        <v>13.8</v>
+      </c>
+      <c r="C9" s="62" t="str">
+        <f>'Табл1-1  1-2'!A8</f>
+        <v>Д</v>
+      </c>
+      <c r="D9" s="33">
+        <v>110</v>
+      </c>
+      <c r="E9" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>27+13.8i</v>
+      </c>
+      <c r="F9" s="68">
+        <f t="shared" si="1"/>
+        <v>30.322269044383869</v>
+      </c>
+      <c r="G9" s="68">
+        <f t="shared" si="2"/>
+        <v>21.225588331068707</v>
+      </c>
+      <c r="H9" s="66">
+        <v>25</v>
+      </c>
+      <c r="I9" s="66">
+        <v>2</v>
+      </c>
+      <c r="J9" s="67">
+        <f t="shared" si="3"/>
+        <v>0.60644538088767741</v>
+      </c>
+      <c r="K9" s="67">
+        <f t="shared" si="4"/>
+        <v>1.2128907617753548</v>
+      </c>
+      <c r="L9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'Табл1-1  1-2'!B9</f>
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <f>'Табл1-1  1-2'!C9</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="62" t="str">
+        <f>'Табл1-1  1-2'!A9</f>
+        <v>Е</v>
+      </c>
+      <c r="D10" s="33">
+        <v>110</v>
+      </c>
+      <c r="E10" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>35+17i</v>
+      </c>
+      <c r="F10" s="68">
+        <f t="shared" si="1"/>
+        <v>38.910152916687437</v>
+      </c>
+      <c r="G10" s="68">
+        <f>0.7*F10</f>
+        <v>27.237107041681206</v>
+      </c>
+      <c r="H10" s="66">
+        <v>40</v>
+      </c>
+      <c r="I10" s="66">
+        <v>2</v>
+      </c>
+      <c r="J10" s="67">
+        <f t="shared" si="3"/>
+        <v>0.48637691145859296</v>
+      </c>
+      <c r="K10" s="67">
+        <f t="shared" si="4"/>
+        <v>0.97275382291718593</v>
+      </c>
+      <c r="L10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="76"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'Табл1-1  1-2'!B4</f>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>'Табл1-1  1-2'!C4</f>
+        <v>12</v>
+      </c>
+      <c r="C17" s="64" t="str">
+        <f>C5</f>
+        <v>А</v>
+      </c>
+      <c r="D17" s="33">
+        <f>A17</f>
+        <v>16</v>
+      </c>
+      <c r="E17" s="33">
+        <f>B17</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="33">
+        <f>E17/D17</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="33">
+        <f>D17*(F17-0.25)</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="33">
+        <f>'Табл1-1  1-2'!F4</f>
+        <v>6</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="33">
+        <f>4*0.9+4*1.125</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="64" t="str">
+        <f t="shared" ref="C18:C22" si="5">C6</f>
+        <v>Б</v>
+      </c>
+      <c r="D18" s="33">
+        <f t="shared" ref="D18:D22" si="6">A18</f>
+        <v>20</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" ref="E18:E22" si="7">B18</f>
+        <v>13</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" ref="F18:F22" si="8">E18/D18</f>
+        <v>0.65</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" ref="G18:G22" si="9">D18*(F18-0.25)</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="33">
+        <f>'Табл1-1  1-2'!F5</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="33">
+        <f>4*0.9+4*1.125</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>'Табл1-1  1-2'!B6</f>
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <f>'Табл1-1  1-2'!C6</f>
+        <v>19</v>
+      </c>
+      <c r="C19" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>В</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="8"/>
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="9"/>
+        <v>10.249999999999998</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="33">
+        <f>'Табл1-1  1-2'!F6</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="33">
+        <f>4*2.7</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>'Табл1-1  1-2'!B7</f>
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <f>'Табл1-1  1-2'!C7</f>
+        <v>15.5</v>
+      </c>
+      <c r="C20" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>Г</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="8"/>
+        <v>0.484375</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="33">
+        <f>'Табл1-1  1-2'!F7</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="33">
+        <f>4*1.8</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>'Табл1-1  1-2'!B8</f>
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <f>'Табл1-1  1-2'!C8</f>
+        <v>13.8</v>
+      </c>
+      <c r="C21" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>Д</v>
+      </c>
+      <c r="D21" s="33">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="7"/>
+        <v>13.8</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="8"/>
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="G21" s="33">
+        <f t="shared" si="9"/>
+        <v>7.0500000000000016</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="33">
+        <f>'Табл1-1  1-2'!F8</f>
+        <v>6</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="33">
+        <f>4*1.8</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>'Табл1-1  1-2'!B9</f>
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <f>'Табл1-1  1-2'!C9</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>Е</v>
+      </c>
+      <c r="D22" s="33">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="8"/>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="9"/>
+        <v>8.25</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="33">
+        <f>'Табл1-1  1-2'!F9</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="33" t="str">
+        <f>J17</f>
+        <v>4xУК-6-900 4xУК-6-1125</v>
+      </c>
+      <c r="K22" s="33">
+        <f>3*2.7</f>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="149">
+        <f>SUM(G17:G22)</f>
+        <v>49.050000000000004</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="149">
+        <f>SUM(K17:K22)</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="L23">
+        <f>(G23-K23)/G23*100</f>
+        <v>-0.91743119266055628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="77" t="str">
+        <f>I3</f>
+        <v>nт</v>
+      </c>
+      <c r="J28" s="77" t="str">
+        <f>J3</f>
+        <v>Kз</v>
+      </c>
+      <c r="K28" s="77" t="str">
+        <f>K3</f>
+        <v>Kзав</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+    </row>
+    <row r="30" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>A5</f>
+        <v>146.15</v>
+      </c>
+      <c r="B30">
+        <f>B5</f>
+        <v>103.7</v>
+      </c>
+      <c r="C30" s="64" t="str">
+        <f>C17</f>
+        <v>А</v>
+      </c>
+      <c r="D30" s="66" t="str">
+        <f>E5</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="E30" s="66">
+        <f>K17+K19+K20+K21+K22</f>
+        <v>41.4</v>
+      </c>
+      <c r="F30" s="66" t="str">
+        <f>COMPLEX(A30,B30-E30)</f>
+        <v>146.15+62.3i</v>
+      </c>
+      <c r="G30" s="66" t="str">
+        <f>H17</f>
+        <v>АТДЦТН-125000/220/110/35</v>
+      </c>
+      <c r="H30" s="66">
+        <f>H5</f>
+        <v>125</v>
+      </c>
+      <c r="I30" s="66">
+        <v>2</v>
+      </c>
+      <c r="J30" s="67">
+        <f>IMABS(F30)/I30/H30</f>
+        <v>0.63549807238102607</v>
+      </c>
+      <c r="K30" s="67">
+        <f>IMABS(D30)/I30/H30</f>
+        <v>0.71680973765707168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" ref="A31:B35" si="10">A6</f>
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="64" t="str">
+        <f t="shared" ref="C31:C35" si="11">C18</f>
+        <v>Б</v>
+      </c>
+      <c r="D31" s="66" t="str">
+        <f t="shared" ref="D31:D35" si="12">E6</f>
+        <v>20+13i</v>
+      </c>
+      <c r="E31" s="66">
+        <f>K18</f>
+        <v>8.1</v>
+      </c>
+      <c r="F31" s="66" t="str">
+        <f t="shared" ref="F31:F35" si="13">COMPLEX(A31,B31-E31)</f>
+        <v>20+4.9i</v>
+      </c>
+      <c r="G31" s="66" t="str">
+        <f t="shared" ref="G31:G35" si="14">H18</f>
+        <v>ТДТН-25000/220/35/10</v>
+      </c>
+      <c r="H31" s="66">
+        <f t="shared" ref="H31:H35" si="15">H6</f>
+        <v>25</v>
+      </c>
+      <c r="I31" s="66">
+        <v>2</v>
+      </c>
+      <c r="J31" s="67">
+        <f t="shared" ref="J31:J35" si="16">IMABS(F31)/I31/H31</f>
+        <v>0.41183006204015754</v>
+      </c>
+      <c r="K31" s="67">
+        <f t="shared" ref="K31:K35" si="17">IMABS(D31)/I31/H31</f>
+        <v>0.47707441767506253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="C32" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>В</v>
+      </c>
+      <c r="D32" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>35+19i</v>
+      </c>
+      <c r="E32" s="66">
+        <f t="shared" ref="E32:E35" si="18">K19</f>
+        <v>10.8</v>
+      </c>
+      <c r="F32" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>35+8.2i</v>
+      </c>
+      <c r="G32" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-40000/110/35</v>
+      </c>
+      <c r="H32" s="66">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I32" s="66">
+        <v>2</v>
+      </c>
+      <c r="J32" s="67">
+        <f t="shared" si="16"/>
+        <v>0.44934674806879371</v>
+      </c>
+      <c r="K32" s="67">
+        <f t="shared" si="17"/>
+        <v>0.49780769379349693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="10"/>
+        <v>15.5</v>
+      </c>
+      <c r="C33" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Г</v>
+      </c>
+      <c r="D33" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>32+15.5i</v>
+      </c>
+      <c r="E33" s="66">
+        <f t="shared" si="18"/>
+        <v>7.2</v>
+      </c>
+      <c r="F33" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>32+8.3i</v>
+      </c>
+      <c r="G33" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-25000/110/35</v>
+      </c>
+      <c r="H33" s="66">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="I33" s="66">
+        <v>2</v>
+      </c>
+      <c r="J33" s="67">
+        <f t="shared" si="16"/>
+        <v>0.66117773707226424</v>
+      </c>
+      <c r="K33" s="67">
+        <f t="shared" si="17"/>
+        <v>0.71112586790244103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="C34" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Д</v>
+      </c>
+      <c r="D34" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>27+13.8i</v>
+      </c>
+      <c r="E34" s="66">
+        <f t="shared" si="18"/>
+        <v>7.2</v>
+      </c>
+      <c r="F34" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>27+6.6i</v>
+      </c>
+      <c r="G34" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-25000/110/35</v>
+      </c>
+      <c r="H34" s="66">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="I34" s="66">
+        <v>2</v>
+      </c>
+      <c r="J34" s="67">
+        <f t="shared" si="16"/>
+        <v>0.55589927145122253</v>
+      </c>
+      <c r="K34" s="67">
+        <f t="shared" si="17"/>
+        <v>0.60644538088767741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="C35" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Е</v>
+      </c>
+      <c r="D35" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>35+17i</v>
+      </c>
+      <c r="E35" s="66">
+        <f t="shared" si="18"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="F35" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>35+8.9i</v>
+      </c>
+      <c r="G35" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-40000/110/35</v>
+      </c>
+      <c r="H35" s="66">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I35" s="66">
+        <v>2</v>
+      </c>
+      <c r="J35" s="67">
+        <f t="shared" si="16"/>
+        <v>0.45142309699438288</v>
+      </c>
+      <c r="K35" s="67">
+        <f t="shared" si="17"/>
+        <v>0.48637691145859296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="154"/>
+      <c r="H40" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="J40" s="80"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="152"/>
+    </row>
+    <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="103"/>
+      <c r="I41" s="77" t="str">
+        <f>J28</f>
+        <v>Kз</v>
+      </c>
+      <c r="J41" s="77" t="str">
+        <f>K28</f>
+        <v>Kзав</v>
+      </c>
+      <c r="K41" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="L41" s="151"/>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="108"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="151"/>
+    </row>
+    <row r="43" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="82"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="152"/>
+    </row>
+    <row r="44" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="66" t="str">
+        <f>F31</f>
+        <v>20+4.9i</v>
+      </c>
+      <c r="E44" s="66">
+        <f>IMABS(D44)</f>
+        <v>20.591503102007877</v>
+      </c>
+      <c r="F44" s="66">
+        <f>H31</f>
+        <v>25</v>
+      </c>
+      <c r="G44" s="66">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="H44" s="66">
+        <v>2</v>
+      </c>
+      <c r="I44" s="66">
+        <f>E44/H44/F44</f>
+        <v>0.41183006204015754</v>
+      </c>
+      <c r="J44" s="66">
+        <f>E44/G44</f>
+        <v>1.2869689438754923</v>
+      </c>
+      <c r="K44" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="L44" s="152"/>
+    </row>
+    <row r="45" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="66" t="str">
+        <f>F32</f>
+        <v>35+8.2i</v>
+      </c>
+      <c r="E45" s="66">
+        <f>IMABS(D45)</f>
+        <v>35.947739845503499</v>
+      </c>
+      <c r="F45" s="66">
+        <f>H32</f>
+        <v>40</v>
+      </c>
+      <c r="G45" s="66">
+        <v>25</v>
+      </c>
+      <c r="H45" s="66">
+        <v>2</v>
+      </c>
+      <c r="I45" s="66">
+        <f t="shared" ref="I45:I46" si="19">E45/H45/F45</f>
+        <v>0.44934674806879371</v>
+      </c>
+      <c r="J45" s="66">
+        <f t="shared" ref="J45:J46" si="20">E45/G45</f>
+        <v>1.4379095938201401</v>
+      </c>
+      <c r="K45" s="157" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="66" t="str">
+        <f>F33</f>
+        <v>32+8.3i</v>
+      </c>
+      <c r="E46" s="66">
+        <f>IMABS(D46)</f>
+        <v>33.05888685361321</v>
+      </c>
+      <c r="F46" s="66">
+        <f>H33</f>
+        <v>25</v>
+      </c>
+      <c r="G46" s="66">
+        <v>16</v>
+      </c>
+      <c r="H46" s="66">
+        <v>2</v>
+      </c>
+      <c r="I46" s="66">
+        <f t="shared" si="19"/>
+        <v>0.66117773707226424</v>
+      </c>
+      <c r="J46" s="66">
+        <f t="shared" si="20"/>
+        <v>2.0661804283508256</v>
+      </c>
+      <c r="K46" s="148" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="3078" r:id="rId4">
+        <oleObject progId="Equation.3" shapeId="16417" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>571500</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="3078" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="3077" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="3077" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="3076" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="3076" r:id="rId8"/>
+        <oleObject progId="Equation.3" shapeId="16417" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -8958,7 +10783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
@@ -9002,10 +10827,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="93" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -9027,13 +10852,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="89">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="79"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -9053,11 +10878,11 @@
         <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="72"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="80"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -9077,11 +10902,11 @@
         <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
         <v>50.3</v>
       </c>
-      <c r="I5" s="75"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="81" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="96" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -9103,13 +10928,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="86">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -9129,13 +10954,13 @@
         <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="75"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="96" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -9157,13 +10982,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="98">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -9183,11 +11008,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="84"/>
+      <c r="I9" s="99"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="69"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -9207,11 +11032,11 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="85"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="96" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -9233,13 +11058,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="98">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="69"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -9259,11 +11084,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="84"/>
+      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -9283,13 +11108,13 @@
         <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="85"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -9309,13 +11134,13 @@
         <f t="shared" si="1"/>
         <v>159.1</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="98">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -9335,11 +11160,11 @@
         <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="70"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -9359,7 +11184,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="85"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -9512,7 +11337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -9531,13 +11356,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="75" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -9549,19 +11374,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="104" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="75" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -9572,9 +11397,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="88"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -9584,13 +11409,13 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="92"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
@@ -9604,10 +11429,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="109" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -9654,8 +11479,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -9700,8 +11525,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -9746,8 +11571,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="101" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -9794,8 +11619,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -9840,10 +11665,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="75" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -9890,8 +11715,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -9936,8 +11761,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -9982,8 +11807,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="86" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="75" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -10030,8 +11855,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -10076,8 +11901,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -10122,8 +11947,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -10168,8 +11993,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -10214,8 +12039,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -10272,165 +12097,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="100"/>
-    </row>
-    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="100"/>
-      <c r="D4" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="40">
-        <v>114</v>
-      </c>
-      <c r="E5" s="40">
-        <v>26.6</v>
-      </c>
-      <c r="F5" s="42">
-        <f>D5/E5</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="40">
-        <v>147</v>
-      </c>
-      <c r="E6" s="40">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="F6" s="42">
-        <f t="shared" ref="F6:F9" si="0">D6/E6</f>
-        <v>4.2857142857142865</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="40">
-        <v>185</v>
-      </c>
-      <c r="E7" s="40">
-        <v>43.1</v>
-      </c>
-      <c r="F7" s="42">
-        <f t="shared" si="0"/>
-        <v>4.2923433874709973</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="40">
-        <v>241</v>
-      </c>
-      <c r="E8" s="40">
-        <v>56.3</v>
-      </c>
-      <c r="F8" s="42">
-        <f t="shared" si="0"/>
-        <v>4.2806394316163416</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="40">
-        <v>288.5</v>
-      </c>
-      <c r="E9" s="40">
-        <v>67.3</v>
-      </c>
-      <c r="F9" s="42">
-        <f t="shared" si="0"/>
-        <v>4.2867756315007428</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="40">
-        <v>394</v>
-      </c>
-      <c r="E10" s="40">
-        <v>51.1</v>
-      </c>
-      <c r="F10" s="42">
-        <f t="shared" ref="F10" si="1">D10/E10</f>
-        <v>7.7103718199608604</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
@@ -2664,6 +2664,24 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2682,30 +2700,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2760,13 +2805,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2775,27 +2826,48 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2817,119 +2889,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4923,7 +4923,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4941,14 +4941,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="75" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -5171,7 +5171,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5201,7 +5201,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -5593,20 +5593,20 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112" t="s">
+      <c r="E3" s="123"/>
+      <c r="F3" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="112"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="112"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="40" t="s">
         <v>113</v>
       </c>
@@ -5758,70 +5758,70 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="131" t="s">
+      <c r="K2" s="133" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="128"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="132"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="143"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="123"/>
-      <c r="C5" s="125"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="41" t="s">
         <v>68</v>
       </c>
@@ -5851,8 +5851,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="123"/>
-      <c r="C6" s="125"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
@@ -5882,22 +5882,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="126"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="120" t="s">
+      <c r="B7" s="132"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="126"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="41" t="s">
         <v>73</v>
       </c>
@@ -5927,8 +5927,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="126"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
@@ -5959,8 +5959,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="126"/>
-      <c r="C10" s="123" t="s">
+      <c r="B10" s="132"/>
+      <c r="C10" s="131" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="53" t="str">
@@ -5993,8 +5993,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="126"/>
-      <c r="C11" s="124"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="53" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -6025,26 +6025,26 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="122"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="C13" s="125"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="41" t="s">
         <v>80</v>
       </c>
@@ -6074,8 +6074,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="123"/>
-      <c r="C14" s="125"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="41" t="s">
         <v>81</v>
       </c>
@@ -6105,22 +6105,22 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="126"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="120" t="s">
+      <c r="B15" s="132"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="122"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="130"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="126"/>
-      <c r="C16" s="125"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="41" t="s">
         <v>79</v>
       </c>
@@ -6150,8 +6150,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="126"/>
-      <c r="C17" s="125"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="41" t="s">
         <v>142</v>
       </c>
@@ -6181,8 +6181,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="126"/>
-      <c r="C18" s="123" t="s">
+      <c r="B18" s="132"/>
+      <c r="C18" s="131" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="52" t="str">
@@ -6215,8 +6215,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="126"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="52" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
@@ -6247,8 +6247,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="126"/>
-      <c r="C20" s="124"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="52" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
@@ -6280,10 +6280,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="113"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -6315,8 +6315,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="87"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -6348,8 +6348,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="116"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -6382,6 +6382,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
@@ -6394,16 +6404,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6484,25 +6484,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="152" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="138" t="s">
+      <c r="I3" s="152" t="s">
         <v>168</v>
       </c>
       <c r="J3" s="56" t="s">
@@ -6519,15 +6519,15 @@
       </c>
     </row>
     <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="138"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="55" t="s">
         <v>147</v>
       </c>
@@ -6542,27 +6542,27 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="152" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="143"/>
-      <c r="D6" s="139"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="55" t="str">
         <f>нагрів!D5</f>
         <v>ВП-Д</v>
@@ -6602,8 +6602,8 @@
       </c>
     </row>
     <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="143"/>
-      <c r="D7" s="139"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="55" t="str">
         <f>нагрів!D6</f>
         <v>Д-В</v>
@@ -6641,42 +6641,42 @@
       <c r="N7" s="54"/>
     </row>
     <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="143"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140" t="s">
+      <c r="C8" s="154"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="142"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
       <c r="M8" s="59">
         <f>M6+M7</f>
         <v>1.8504872727272728</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="143"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140" t="str">
+      <c r="C9" s="154"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="146" t="str">
         <f>нагрів!D7</f>
         <v>відключення ВП-Д</v>
       </c>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="142"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="148"/>
     </row>
     <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="143"/>
-      <c r="D10" s="139"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="55" t="str">
         <f>нагрів!D8</f>
         <v>ВП-В</v>
@@ -6713,8 +6713,8 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="143"/>
-      <c r="D11" s="139"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="55" t="str">
         <f>нагрів!D9</f>
         <v>В-Д</v>
@@ -6751,26 +6751,26 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="143"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140" t="s">
+      <c r="C12" s="154"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="142"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148"/>
       <c r="M12" s="59">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="143"/>
-      <c r="D13" s="136" t="s">
+      <c r="C13" s="154"/>
+      <c r="D13" s="149" t="s">
         <v>155</v>
       </c>
       <c r="E13" s="55" t="str">
@@ -6811,8 +6811,8 @@
       </c>
     </row>
     <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="55" t="str">
         <f>Fрозр!E8</f>
         <v>ВП-Д</v>
@@ -6851,45 +6851,45 @@
       </c>
     </row>
     <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="140" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="142"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
       <c r="M15" s="59">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="152" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="142"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="148"/>
     </row>
     <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="55" t="str">
         <f>нагрів!D13</f>
         <v>ВП-Е</v>
@@ -6927,8 +6927,8 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="55" t="str">
         <f>нагрів!D14</f>
         <v>Е-Г</v>
@@ -6966,41 +6966,41 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140" t="s">
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="142"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
       <c r="M19" s="59">
         <f>M17+M18</f>
         <v>1.8346254545454546</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140" t="s">
+      <c r="C20" s="152"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="142"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="148"/>
     </row>
     <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="55" t="str">
         <f>нагрів!D16</f>
         <v>ВП-Г</v>
@@ -7037,8 +7037,8 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="55" t="str">
         <f>нагрів!D17</f>
         <v>Г-Е</v>
@@ -7074,26 +7074,26 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140" t="s">
+      <c r="C23" s="152"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
       <c r="M23" s="59">
         <f>M21+M22</f>
         <v>2.3726354545454549</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="138"/>
-      <c r="D24" s="138" t="s">
+      <c r="C24" s="152"/>
+      <c r="D24" s="152" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="55" t="str">
@@ -7134,8 +7134,8 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
       <c r="E25" s="55" t="str">
         <f>нагрів!D19</f>
         <v>Г-2</v>
@@ -7173,8 +7173,8 @@
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="55" t="str">
         <f>нагрів!D20</f>
         <v>Е-2</v>
@@ -7213,46 +7213,46 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140" t="s">
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="142"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
       <c r="M27" s="59">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="140" t="s">
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="142"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
       <c r="M28" s="59">
         <f>M24+M25</f>
         <v>1.7127409090909091</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="152" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="136"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="55" t="s">
         <v>151</v>
       </c>
@@ -7290,8 +7290,8 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="138"/>
-      <c r="D30" s="145"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="55" t="s">
         <v>152</v>
       </c>
@@ -7328,8 +7328,8 @@
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="138"/>
-      <c r="D31" s="146"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="55" t="s">
         <v>153</v>
       </c>
@@ -7365,36 +7365,36 @@
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
       <c r="M32" s="59">
         <f>M29+M30</f>
         <v>9.2161288181818186</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="156" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
       <c r="M33" s="59">
         <f>M29+M31</f>
         <v>4.4329513636363638</v>
@@ -7408,17 +7408,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E23:L23"/>
     <mergeCell ref="C33:L33"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
@@ -7435,6 +7424,17 @@
     <mergeCell ref="E15:L15"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8699,26 +8699,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="72" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="71"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -8957,8 +8957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8979,46 +8979,46 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="88" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="84" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="76"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -9094,7 +9094,7 @@
         <f t="shared" ref="G6:G9" si="2">0.7*F6</f>
         <v>16.697604618627189</v>
       </c>
-      <c r="H6" s="150">
+      <c r="H6" s="71">
         <v>25</v>
       </c>
       <c r="I6" s="66">
@@ -9302,44 +9302,44 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="K15" s="75" t="s">
+      <c r="K15" s="88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="76"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="82"/>
+    <row r="16" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="97"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -9607,13 +9607,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="149">
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="70">
         <f>SUM(G17:G22)</f>
         <v>49.050000000000004</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="J23" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="K23" s="149">
+      <c r="K23" s="70">
         <f>SUM(K17:K22)</f>
         <v>49.500000000000007</v>
       </c>
@@ -9644,30 +9644,30 @@
       <c r="C28" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="H28" s="75" t="s">
+      <c r="H28" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="I28" s="77" t="str">
+      <c r="I28" s="84" t="str">
         <f>I3</f>
         <v>nт</v>
       </c>
-      <c r="J28" s="77" t="str">
+      <c r="J28" s="84" t="str">
         <f>J3</f>
         <v>Kз</v>
       </c>
-      <c r="K28" s="77" t="str">
+      <c r="K28" s="84" t="str">
         <f>K3</f>
         <v>Kзав</v>
       </c>
@@ -9676,14 +9676,14 @@
       <c r="C29" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
     </row>
     <row r="30" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -9962,76 +9962,76 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="102" t="s">
+      <c r="E40" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="F40" s="153" t="s">
+      <c r="F40" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="G40" s="154"/>
-      <c r="H40" s="102" t="s">
+      <c r="G40" s="92"/>
+      <c r="H40" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="I40" s="79" t="s">
+      <c r="I40" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J40" s="80"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="152"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="73"/>
     </row>
     <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="75" t="s">
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="75" t="s">
+      <c r="G41" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="H41" s="103"/>
-      <c r="I41" s="77" t="str">
+      <c r="H41" s="82"/>
+      <c r="I41" s="84" t="str">
         <f>J28</f>
         <v>Kз</v>
       </c>
-      <c r="J41" s="77" t="str">
+      <c r="J41" s="84" t="str">
         <f>K28</f>
         <v>Kзав</v>
       </c>
-      <c r="K41" s="75" t="s">
+      <c r="K41" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="L41" s="151"/>
+      <c r="L41" s="72"/>
     </row>
     <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="108"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="151"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="72"/>
     </row>
     <row r="43" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="82"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="152"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="73"/>
     </row>
     <row r="44" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="64" t="s">
@@ -10067,7 +10067,7 @@
       <c r="K44" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="L44" s="152"/>
+      <c r="L44" s="73"/>
     </row>
     <row r="45" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="64" t="s">
@@ -10099,7 +10099,7 @@
         <f t="shared" ref="J45:J46" si="20">E45/G45</f>
         <v>1.4379095938201401</v>
       </c>
-      <c r="K45" s="157" t="s">
+      <c r="K45" s="74" t="s">
         <v>225</v>
       </c>
     </row>
@@ -10133,33 +10133,20 @@
         <f t="shared" si="20"/>
         <v>2.0661804283508256</v>
       </c>
-      <c r="K46" s="148" t="s">
+      <c r="K46" s="69" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -10168,14 +10155,27 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10827,10 +10827,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="108" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -10852,13 +10852,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="89">
+      <c r="I3" s="104">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -10878,11 +10878,11 @@
         <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="87"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -10902,11 +10902,11 @@
         <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
         <v>50.3</v>
       </c>
-      <c r="I5" s="90"/>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
-      <c r="C6" s="96" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="111" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -10928,13 +10928,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="101">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="92"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -10954,13 +10954,13 @@
         <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="111" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -10982,13 +10982,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="113">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -11008,11 +11008,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="99"/>
+      <c r="I9" s="114"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="84"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -11032,11 +11032,11 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="100"/>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="84"/>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -11058,13 +11058,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="113">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -11084,11 +11084,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="99"/>
+      <c r="I12" s="114"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
-      <c r="C13" s="95"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -11108,13 +11108,13 @@
         <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -11134,13 +11134,13 @@
         <f t="shared" si="1"/>
         <v>159.1</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="113">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -11160,11 +11160,11 @@
         <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="I15" s="99"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="85"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -11184,7 +11184,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="100"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11356,13 +11356,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="88" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -11374,19 +11374,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="121" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="88" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -11397,9 +11397,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="76"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -11409,13 +11409,13 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
@@ -11429,10 +11429,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="118" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -11479,8 +11479,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -11525,8 +11525,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -11571,8 +11571,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="101" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="89" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -11619,8 +11619,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -11665,10 +11665,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="88" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -11715,8 +11715,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -11761,8 +11761,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -11807,8 +11807,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="88" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -11855,8 +11855,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -11901,8 +11901,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -11947,8 +11947,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -11993,8 +11993,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -12039,8 +12039,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -12078,6 +12078,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -12086,13 +12093,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,21 @@
     <sheet name="Вар2. Длинна" sheetId="5" r:id="rId3"/>
     <sheet name="мережа зовнішньго електр." sheetId="7" r:id="rId4"/>
     <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
-    <sheet name="трансформ + компенс" sheetId="12" r:id="rId6"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId7"/>
-    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId8"/>
-    <sheet name="Fрозр" sheetId="8" r:id="rId9"/>
-    <sheet name="мех міцн" sheetId="9" r:id="rId10"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId6"/>
+    <sheet name="Fрозр" sheetId="8" r:id="rId7"/>
+    <sheet name="мех міцн" sheetId="9" r:id="rId8"/>
+    <sheet name="падіння напруги" sheetId="11" r:id="rId9"/>
+    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId10"/>
     <sheet name="нагрів" sheetId="10" r:id="rId11"/>
-    <sheet name="падіння напруги" sheetId="11" r:id="rId12"/>
+    <sheet name="трансформ + компенс" sheetId="12" r:id="rId12"/>
+    <sheet name="капитал" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="237">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -1643,6 +1644,117 @@
   </si>
   <si>
     <t xml:space="preserve">заміна на - ТРДН -25000/110/35 допустима </t>
+  </si>
+  <si>
+    <t>Назва ділянки</t>
+  </si>
+  <si>
+    <t>Тип опор</t>
+  </si>
+  <si>
+    <t>тис. у.о.</t>
+  </si>
+  <si>
+    <t>тис. грн.</t>
+  </si>
+  <si>
+    <t>Всього за варіантом</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">НОМ , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>л</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>л діл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>л0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,  тис.у.о. км</t>
+    </r>
+  </si>
+  <si>
+    <t>1 з/б одноланцюг.</t>
+  </si>
+  <si>
+    <t>2 з/б одноланцюг.</t>
   </si>
 </sst>
 </file>
@@ -2472,7 +2584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2682,6 +2794,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2700,57 +2818,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2805,6 +2923,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2820,15 +2944,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2841,21 +3001,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2868,31 +3013,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2904,7 +3037,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2913,22 +3049,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3536,62 +3663,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16417" name="Object 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s16417"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4246,7 +4317,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4506,7 +4577,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4605,6 +4676,62 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16417" name="Object 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16417"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4923,7 +5050,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4941,14 +5068,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="77" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4964,7 +5091,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -5171,7 +5298,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5201,7 +5328,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -5578,163 +5705,556 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="123"/>
-    </row>
-    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="123"/>
-      <c r="D4" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="40" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>Потокорозподіл!C5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="E3" s="26">
+        <f>Потокорозподіл!D5</f>
+        <v>11.8</v>
+      </c>
+      <c r="F3" s="28">
+        <f>Потокорозподіл!E5</f>
+        <v>26.968</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
+        <v>91.4</v>
+      </c>
+      <c r="I3" s="106">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="40">
-        <v>114</v>
-      </c>
-      <c r="E5" s="40">
-        <v>26.6</v>
-      </c>
-      <c r="F5" s="42">
-        <f>D5/E5</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="40">
-        <v>147</v>
-      </c>
-      <c r="E6" s="40">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="F6" s="42">
-        <f t="shared" ref="F6:F9" si="0">D6/E6</f>
-        <v>4.2857142857142865</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="40">
-        <v>185</v>
-      </c>
-      <c r="E7" s="40">
-        <v>43.1</v>
-      </c>
-      <c r="F7" s="42">
+    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="101"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="26" t="str">
+        <f>Потокорозподіл!C6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E4" s="26">
+        <f>Потокорозподіл!D6</f>
+        <v>7.8</v>
+      </c>
+      <c r="F4" s="28">
+        <f>Потокорозподіл!E6</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
+        <v>103.5</v>
+      </c>
+      <c r="I4" s="104"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="101"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="26" t="str">
+        <f>Потокорозподіл!C7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E5" s="26">
+        <f>Потокорозподіл!D7</f>
+        <v>5.6</v>
+      </c>
+      <c r="F5" s="28">
+        <f>-Потокорозподіл!E7</f>
+        <v>8.032</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
+        <v>50.3</v>
+      </c>
+      <c r="I5" s="107"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="101"/>
+      <c r="C6" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>Потокорозподіл!C8</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E6" s="26">
+        <f>Потокорозподіл!D8</f>
+        <v>5.6</v>
+      </c>
+      <c r="F6" s="28">
+        <f>Потокорозподіл!E8</f>
+        <v>35</v>
+      </c>
+      <c r="G6" s="27">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
         <f t="shared" si="0"/>
-        <v>4.2923433874709973</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="40">
-        <v>241</v>
-      </c>
-      <c r="E8" s="40">
-        <v>56.3</v>
-      </c>
-      <c r="F8" s="42">
+        <v>73.3</v>
+      </c>
+      <c r="I6" s="103">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="109"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="26" t="str">
+        <f>Потокорозподіл!C9</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E7" s="26">
+        <f>Потокорозподіл!D9</f>
+        <v>7.8</v>
+      </c>
+      <c r="F7" s="28">
+        <f>Потокорозподіл!E9</f>
+        <v>62</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
-        <v>4.2806394316163416</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="40">
-        <v>288.5</v>
-      </c>
-      <c r="E9" s="40">
-        <v>67.3</v>
-      </c>
-      <c r="F9" s="42">
+        <v>97.4</v>
+      </c>
+      <c r="I7" s="107"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="29" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="E8" s="29">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F8" s="28">
+        <f>Потокорозподіл!E11</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
-        <v>4.2867756315007428</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="40">
-        <v>394</v>
-      </c>
-      <c r="E10" s="40">
-        <v>51.1</v>
-      </c>
-      <c r="F10" s="42">
-        <f t="shared" ref="F10" si="1">D10/E10</f>
-        <v>7.7103718199608604</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
+        <v>103.4</v>
+      </c>
+      <c r="I8" s="115">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="29" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="E9" s="29">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="F9" s="28">
+        <f>Потокорозподіл!E12</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="0"/>
+        <v>99.6</v>
+      </c>
+      <c r="I9" s="116"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="101"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="29" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="E10" s="29">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="F10" s="28">
+        <f>Потокорозподіл!E13</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="101"/>
+      <c r="C11" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="E11" s="29">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="F11" s="28">
+        <f>Потокорозподіл!E14</f>
+        <v>67</v>
+      </c>
+      <c r="G11" s="29">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I11" s="115">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="101"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="29" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="E12" s="29">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="F12" s="28">
+        <f>Потокорозподіл!E15</f>
+        <v>32</v>
+      </c>
+      <c r="G12" s="29">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I12" s="116"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="109"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="29" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="E13" s="29">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F13" s="28">
+        <f>Потокорозподіл!E16</f>
+        <v>35</v>
+      </c>
+      <c r="G13" s="29">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
+        <v>73.7</v>
+      </c>
+      <c r="I13" s="117"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="30" t="str">
+        <f>'мережа зовнішньго електр.'!G4</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E14" s="30">
+        <f>'мережа зовнішньго електр.'!H4</f>
+        <v>14.8</v>
+      </c>
+      <c r="F14" s="28">
+        <f>Потокорозподіл!F25</f>
+        <v>166.15</v>
+      </c>
+      <c r="G14" s="30">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="I14" s="115">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="101"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="30" t="str">
+        <f>'мережа зовнішньго електр.'!G5</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E15" s="30">
+        <f>'мережа зовнішньго електр.'!H5</f>
+        <v>22.6</v>
+      </c>
+      <c r="F15" s="28">
+        <f>Потокорозподіл!F26</f>
+        <v>146.15</v>
+      </c>
+      <c r="G15" s="31">
+        <v>2</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="1"/>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="I15" s="116"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="102"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="30" t="str">
+        <f>'мережа зовнішньго електр.'!G6</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E16" s="30">
+        <f>'мережа зовнішньго електр.'!H6</f>
+        <v>10.8</v>
+      </c>
+      <c r="F16" s="28">
+        <f>Потокорозподіл!F27</f>
+        <v>20</v>
+      </c>
+      <c r="G16" s="32">
+        <v>2</v>
+      </c>
+      <c r="H16" s="32">
+        <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
+        <v>56.7</v>
+      </c>
+      <c r="I16" s="117"/>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="13">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -5742,7 +6262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -5758,70 +6278,70 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="135" t="s">
+      <c r="G2" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="135" t="s">
+      <c r="J2" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="133" t="s">
+      <c r="K2" s="144" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="125"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="134"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="145"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="143"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="131"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="41" t="s">
         <v>68</v>
       </c>
@@ -5851,8 +6371,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="131"/>
-      <c r="C6" s="145"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
@@ -5882,22 +6402,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="132"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="128" t="s">
+      <c r="B7" s="139"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="133" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="135"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="132"/>
-      <c r="C8" s="145"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="41" t="s">
         <v>73</v>
       </c>
@@ -5927,8 +6447,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="132"/>
-      <c r="C9" s="145"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
@@ -5959,8 +6479,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="132"/>
-      <c r="C10" s="131" t="s">
+      <c r="B10" s="139"/>
+      <c r="C10" s="136" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="53" t="str">
@@ -5993,8 +6513,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="132"/>
-      <c r="C11" s="144"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="53" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -6025,26 +6545,26 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="145"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="41" t="s">
         <v>80</v>
       </c>
@@ -6074,8 +6594,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
-      <c r="C14" s="145"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="41" t="s">
         <v>81</v>
       </c>
@@ -6105,22 +6625,22 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="132"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="128" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="130"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="135"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="132"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="41" t="s">
         <v>79</v>
       </c>
@@ -6150,8 +6670,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="132"/>
-      <c r="C17" s="145"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="41" t="s">
         <v>142</v>
       </c>
@@ -6181,8 +6701,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="132"/>
-      <c r="C18" s="131" t="s">
+      <c r="B18" s="139"/>
+      <c r="C18" s="136" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="52" t="str">
@@ -6215,8 +6735,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="132"/>
-      <c r="C19" s="144"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="52" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
@@ -6247,8 +6767,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="132"/>
-      <c r="C20" s="144"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="137"/>
       <c r="D20" s="52" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
@@ -6280,10 +6800,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -6315,8 +6835,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="102"/>
-      <c r="C22" s="139"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -6348,8 +6868,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="138"/>
-      <c r="C23" s="140"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -6382,16 +6902,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
@@ -6404,6 +6914,16 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6465,976 +6985,1778 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="152" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="152" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="152" t="s">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="84"/>
+      <c r="D4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>Потокорозподіл!F26</f>
+        <v>146.15</v>
+      </c>
+      <c r="B5">
+        <f>Потокорозподіл!G26</f>
+        <v>103.7</v>
+      </c>
+      <c r="C5" s="62" t="str">
+        <f>'Табл1-1  1-2'!A4</f>
+        <v>А</v>
+      </c>
+      <c r="D5" s="33">
+        <v>220</v>
+      </c>
+      <c r="E5" s="66" t="str">
+        <f>COMPLEX(A5,B5)</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="F5" s="68">
+        <f>IMABS(E5)</f>
+        <v>179.20243441426791</v>
+      </c>
+      <c r="G5" s="68">
+        <f>0.7*F5</f>
+        <v>125.44170408998752</v>
+      </c>
+      <c r="H5" s="66">
+        <v>125</v>
+      </c>
+      <c r="I5" s="66">
+        <v>2</v>
+      </c>
+      <c r="J5" s="67">
+        <f>F5/I5/H5</f>
+        <v>0.71680973765707168</v>
+      </c>
+      <c r="K5" s="67">
+        <f>F5/H5</f>
+        <v>1.4336194753141434</v>
+      </c>
+      <c r="L5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+      <c r="C6" s="62" t="str">
+        <f>'Табл1-1  1-2'!A5</f>
+        <v>Б</v>
+      </c>
+      <c r="D6" s="33">
+        <v>220</v>
+      </c>
+      <c r="E6" s="66" t="str">
+        <f t="shared" ref="E6:E10" si="0">COMPLEX(A6,B6)</f>
+        <v>20+13i</v>
+      </c>
+      <c r="F6" s="68">
+        <f t="shared" ref="F6:F10" si="1">IMABS(E6)</f>
+        <v>23.853720883753127</v>
+      </c>
+      <c r="G6" s="68">
+        <f t="shared" ref="G6:G9" si="2">0.7*F6</f>
+        <v>16.697604618627189</v>
+      </c>
+      <c r="H6" s="71">
+        <v>25</v>
+      </c>
+      <c r="I6" s="66">
+        <v>2</v>
+      </c>
+      <c r="J6" s="67">
+        <f>F6/I6/H6</f>
+        <v>0.47707441767506253</v>
+      </c>
+      <c r="K6" s="67">
+        <f>F6/H6</f>
+        <v>0.95414883535012507</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'Табл1-1  1-2'!B6</f>
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>'Табл1-1  1-2'!C6</f>
+        <v>19</v>
+      </c>
+      <c r="C7" s="62" t="str">
+        <f>'Табл1-1  1-2'!A6</f>
+        <v>В</v>
+      </c>
+      <c r="D7" s="33">
+        <v>110</v>
+      </c>
+      <c r="E7" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>35+19i</v>
+      </c>
+      <c r="F7" s="68">
+        <f t="shared" si="1"/>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G7" s="68">
+        <f>0.7*F7</f>
+        <v>27.877230852435826</v>
+      </c>
+      <c r="H7" s="66">
+        <v>40</v>
+      </c>
+      <c r="I7" s="66">
+        <v>2</v>
+      </c>
+      <c r="J7" s="67">
+        <f>F7/I7/H7</f>
+        <v>0.49780769379349693</v>
+      </c>
+      <c r="K7" s="67">
+        <f>F7/H7</f>
+        <v>0.99561538758699386</v>
+      </c>
+      <c r="L7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'Табл1-1  1-2'!B7</f>
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <f>'Табл1-1  1-2'!C7</f>
+        <v>15.5</v>
+      </c>
+      <c r="C8" s="62" t="str">
+        <f>'Табл1-1  1-2'!A7</f>
+        <v>Г</v>
+      </c>
+      <c r="D8" s="33">
+        <v>110</v>
+      </c>
+      <c r="E8" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>32+15.5i</v>
+      </c>
+      <c r="F8" s="68">
+        <f t="shared" si="1"/>
+        <v>35.556293395122054</v>
+      </c>
+      <c r="G8" s="68">
+        <f t="shared" si="2"/>
+        <v>24.889405376585437</v>
+      </c>
+      <c r="H8" s="66">
+        <v>25</v>
+      </c>
+      <c r="I8" s="66">
+        <v>2</v>
+      </c>
+      <c r="J8" s="67">
+        <f t="shared" ref="J8:J10" si="3">F8/I8/H8</f>
+        <v>0.71112586790244103</v>
+      </c>
+      <c r="K8" s="67">
+        <f t="shared" ref="K8:K10" si="4">F8/H8</f>
+        <v>1.4222517358048821</v>
+      </c>
+      <c r="L8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'Табл1-1  1-2'!B8</f>
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <f>'Табл1-1  1-2'!C8</f>
+        <v>13.8</v>
+      </c>
+      <c r="C9" s="62" t="str">
+        <f>'Табл1-1  1-2'!A8</f>
+        <v>Д</v>
+      </c>
+      <c r="D9" s="33">
+        <v>110</v>
+      </c>
+      <c r="E9" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>27+13.8i</v>
+      </c>
+      <c r="F9" s="68">
+        <f t="shared" si="1"/>
+        <v>30.322269044383869</v>
+      </c>
+      <c r="G9" s="68">
+        <f t="shared" si="2"/>
+        <v>21.225588331068707</v>
+      </c>
+      <c r="H9" s="66">
+        <v>25</v>
+      </c>
+      <c r="I9" s="66">
+        <v>2</v>
+      </c>
+      <c r="J9" s="67">
+        <f t="shared" si="3"/>
+        <v>0.60644538088767741</v>
+      </c>
+      <c r="K9" s="67">
+        <f t="shared" si="4"/>
+        <v>1.2128907617753548</v>
+      </c>
+      <c r="L9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'Табл1-1  1-2'!B9</f>
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <f>'Табл1-1  1-2'!C9</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="62" t="str">
+        <f>'Табл1-1  1-2'!A9</f>
+        <v>Е</v>
+      </c>
+      <c r="D10" s="33">
+        <v>110</v>
+      </c>
+      <c r="E10" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>35+17i</v>
+      </c>
+      <c r="F10" s="68">
+        <f t="shared" si="1"/>
+        <v>38.910152916687437</v>
+      </c>
+      <c r="G10" s="68">
+        <f>0.7*F10</f>
+        <v>27.237107041681206</v>
+      </c>
+      <c r="H10" s="66">
+        <v>40</v>
+      </c>
+      <c r="I10" s="66">
+        <v>2</v>
+      </c>
+      <c r="J10" s="67">
+        <f t="shared" si="3"/>
+        <v>0.48637691145859296</v>
+      </c>
+      <c r="K10" s="67">
+        <f t="shared" si="4"/>
+        <v>0.97275382291718593</v>
+      </c>
+      <c r="L10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="84"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="88"/>
+    </row>
+    <row r="17" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'Табл1-1  1-2'!B4</f>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>'Табл1-1  1-2'!C4</f>
+        <v>12</v>
+      </c>
+      <c r="C17" s="64" t="str">
+        <f>C5</f>
+        <v>А</v>
+      </c>
+      <c r="D17" s="33">
+        <f>A17</f>
+        <v>16</v>
+      </c>
+      <c r="E17" s="33">
+        <f>B17</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="33">
+        <f>E17/D17</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="33">
+        <f>D17*(F17-0.25)</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="33">
+        <f>'Табл1-1  1-2'!F4</f>
+        <v>6</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="33">
+        <f>4*0.9+4*1.125</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="64" t="str">
+        <f t="shared" ref="C18:C22" si="5">C6</f>
+        <v>Б</v>
+      </c>
+      <c r="D18" s="33">
+        <f t="shared" ref="D18:D22" si="6">A18</f>
+        <v>20</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" ref="E18:E22" si="7">B18</f>
+        <v>13</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" ref="F18:F22" si="8">E18/D18</f>
+        <v>0.65</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" ref="G18:G22" si="9">D18*(F18-0.25)</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="33">
+        <f>'Табл1-1  1-2'!F5</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="33">
+        <f>4*0.9+4*1.125</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>'Табл1-1  1-2'!B6</f>
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <f>'Табл1-1  1-2'!C6</f>
+        <v>19</v>
+      </c>
+      <c r="C19" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>В</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="8"/>
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="9"/>
+        <v>10.249999999999998</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="33">
+        <f>'Табл1-1  1-2'!F6</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="33">
+        <f>4*2.7</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>'Табл1-1  1-2'!B7</f>
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <f>'Табл1-1  1-2'!C7</f>
+        <v>15.5</v>
+      </c>
+      <c r="C20" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>Г</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="8"/>
+        <v>0.484375</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="33">
+        <f>'Табл1-1  1-2'!F7</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="33">
+        <f>4*1.8</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>'Табл1-1  1-2'!B8</f>
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <f>'Табл1-1  1-2'!C8</f>
+        <v>13.8</v>
+      </c>
+      <c r="C21" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>Д</v>
+      </c>
+      <c r="D21" s="33">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="7"/>
+        <v>13.8</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="8"/>
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="G21" s="33">
+        <f t="shared" si="9"/>
+        <v>7.0500000000000016</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="33">
+        <f>'Табл1-1  1-2'!F8</f>
+        <v>6</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="33">
+        <f>4*1.8</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>'Табл1-1  1-2'!B9</f>
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <f>'Табл1-1  1-2'!C9</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>Е</v>
+      </c>
+      <c r="D22" s="33">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="8"/>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="9"/>
+        <v>8.25</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="33">
+        <f>'Табл1-1  1-2'!F9</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="33" t="str">
+        <f>J17</f>
+        <v>4xУК-6-900 4xУК-6-1125</v>
+      </c>
+      <c r="K22" s="33">
+        <f>3*2.7</f>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="70">
+        <f>SUM(G17:G22)</f>
+        <v>49.050000000000004</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="70">
+        <f>SUM(K17:K22)</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="L23">
+        <f>(G23-K23)/G23*100</f>
+        <v>-0.91743119266055628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="89" t="str">
+        <f>I3</f>
+        <v>nт</v>
+      </c>
+      <c r="J28" s="89" t="str">
+        <f>J3</f>
+        <v>Kз</v>
+      </c>
+      <c r="K28" s="89" t="str">
+        <f>K3</f>
+        <v>Kзав</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+    </row>
+    <row r="30" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>A5</f>
+        <v>146.15</v>
+      </c>
+      <c r="B30">
+        <f>B5</f>
+        <v>103.7</v>
+      </c>
+      <c r="C30" s="64" t="str">
+        <f>C17</f>
+        <v>А</v>
+      </c>
+      <c r="D30" s="66" t="str">
+        <f>E5</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="E30" s="66">
+        <f>K17+K19+K20+K21+K22</f>
+        <v>41.4</v>
+      </c>
+      <c r="F30" s="66" t="str">
+        <f>COMPLEX(A30,B30-E30)</f>
+        <v>146.15+62.3i</v>
+      </c>
+      <c r="G30" s="66" t="str">
+        <f>H17</f>
+        <v>АТДЦТН-125000/220/110/35</v>
+      </c>
+      <c r="H30" s="66">
+        <f>H5</f>
+        <v>125</v>
+      </c>
+      <c r="I30" s="66">
+        <v>2</v>
+      </c>
+      <c r="J30" s="67">
+        <f>IMABS(F30)/I30/H30</f>
+        <v>0.63549807238102607</v>
+      </c>
+      <c r="K30" s="67">
+        <f>IMABS(D30)/I30/H30</f>
+        <v>0.71680973765707168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" ref="A31:B35" si="10">A6</f>
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="64" t="str">
+        <f t="shared" ref="C31:C35" si="11">C18</f>
+        <v>Б</v>
+      </c>
+      <c r="D31" s="66" t="str">
+        <f t="shared" ref="D31:D35" si="12">E6</f>
+        <v>20+13i</v>
+      </c>
+      <c r="E31" s="66">
+        <f>K18</f>
+        <v>8.1</v>
+      </c>
+      <c r="F31" s="66" t="str">
+        <f t="shared" ref="F31:F35" si="13">COMPLEX(A31,B31-E31)</f>
+        <v>20+4.9i</v>
+      </c>
+      <c r="G31" s="66" t="str">
+        <f t="shared" ref="G31:G35" si="14">H18</f>
+        <v>ТДТН-25000/220/35/10</v>
+      </c>
+      <c r="H31" s="66">
+        <f t="shared" ref="H31:H35" si="15">H6</f>
+        <v>25</v>
+      </c>
+      <c r="I31" s="66">
+        <v>2</v>
+      </c>
+      <c r="J31" s="67">
+        <f t="shared" ref="J31:J35" si="16">IMABS(F31)/I31/H31</f>
+        <v>0.41183006204015754</v>
+      </c>
+      <c r="K31" s="67">
+        <f t="shared" ref="K31:K35" si="17">IMABS(D31)/I31/H31</f>
+        <v>0.47707441767506253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="C32" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>В</v>
+      </c>
+      <c r="D32" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>35+19i</v>
+      </c>
+      <c r="E32" s="66">
+        <f t="shared" ref="E32:E35" si="18">K19</f>
+        <v>10.8</v>
+      </c>
+      <c r="F32" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>35+8.2i</v>
+      </c>
+      <c r="G32" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-40000/110/35</v>
+      </c>
+      <c r="H32" s="66">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I32" s="66">
+        <v>2</v>
+      </c>
+      <c r="J32" s="67">
+        <f t="shared" si="16"/>
+        <v>0.44934674806879371</v>
+      </c>
+      <c r="K32" s="67">
+        <f t="shared" si="17"/>
+        <v>0.49780769379349693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="10"/>
+        <v>15.5</v>
+      </c>
+      <c r="C33" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Г</v>
+      </c>
+      <c r="D33" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>32+15.5i</v>
+      </c>
+      <c r="E33" s="66">
+        <f t="shared" si="18"/>
+        <v>7.2</v>
+      </c>
+      <c r="F33" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>32+8.3i</v>
+      </c>
+      <c r="G33" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-25000/110/35</v>
+      </c>
+      <c r="H33" s="66">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="I33" s="66">
+        <v>2</v>
+      </c>
+      <c r="J33" s="67">
+        <f t="shared" si="16"/>
+        <v>0.66117773707226424</v>
+      </c>
+      <c r="K33" s="67">
+        <f t="shared" si="17"/>
+        <v>0.71112586790244103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="C34" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Д</v>
+      </c>
+      <c r="D34" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>27+13.8i</v>
+      </c>
+      <c r="E34" s="66">
+        <f t="shared" si="18"/>
+        <v>7.2</v>
+      </c>
+      <c r="F34" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>27+6.6i</v>
+      </c>
+      <c r="G34" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-25000/110/35</v>
+      </c>
+      <c r="H34" s="66">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="I34" s="66">
+        <v>2</v>
+      </c>
+      <c r="J34" s="67">
+        <f t="shared" si="16"/>
+        <v>0.55589927145122253</v>
+      </c>
+      <c r="K34" s="67">
+        <f t="shared" si="17"/>
+        <v>0.60644538088767741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="C35" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>Е</v>
+      </c>
+      <c r="D35" s="66" t="str">
+        <f t="shared" si="12"/>
+        <v>35+17i</v>
+      </c>
+      <c r="E35" s="66">
+        <f t="shared" si="18"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="F35" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>35+8.9i</v>
+      </c>
+      <c r="G35" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v>ТРДН-40000/110/35</v>
+      </c>
+      <c r="H35" s="66">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I35" s="66">
+        <v>2</v>
+      </c>
+      <c r="J35" s="67">
+        <f t="shared" si="16"/>
+        <v>0.45142309699438288</v>
+      </c>
+      <c r="K35" s="67">
+        <f t="shared" si="17"/>
+        <v>0.48637691145859296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="93"/>
+      <c r="H40" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="J40" s="86"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="73"/>
+    </row>
+    <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="98"/>
+      <c r="I41" s="89" t="str">
+        <f>J28</f>
+        <v>Kз</v>
+      </c>
+      <c r="J41" s="89" t="str">
+        <f>K28</f>
+        <v>Kзав</v>
+      </c>
+      <c r="K41" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="L41" s="72"/>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="91"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="72"/>
+    </row>
+    <row r="43" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="88"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="73"/>
+    </row>
+    <row r="44" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="66" t="str">
+        <f>F31</f>
+        <v>20+4.9i</v>
+      </c>
+      <c r="E44" s="66">
+        <f>IMABS(D44)</f>
+        <v>20.591503102007877</v>
+      </c>
+      <c r="F44" s="66">
+        <f>H31</f>
+        <v>25</v>
+      </c>
+      <c r="G44" s="66">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="H44" s="66">
+        <v>2</v>
+      </c>
+      <c r="I44" s="66">
+        <f>E44/H44/F44</f>
+        <v>0.41183006204015754</v>
+      </c>
+      <c r="J44" s="66">
+        <f>E44/G44</f>
+        <v>1.2869689438754923</v>
+      </c>
+      <c r="K44" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="L44" s="73"/>
+    </row>
+    <row r="45" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="66" t="str">
+        <f>F32</f>
+        <v>35+8.2i</v>
+      </c>
+      <c r="E45" s="66">
+        <f>IMABS(D45)</f>
+        <v>35.947739845503499</v>
+      </c>
+      <c r="F45" s="66">
+        <f>H32</f>
+        <v>40</v>
+      </c>
+      <c r="G45" s="66">
+        <v>25</v>
+      </c>
+      <c r="H45" s="66">
+        <v>2</v>
+      </c>
+      <c r="I45" s="66">
+        <f t="shared" ref="I45:I46" si="19">E45/H45/F45</f>
+        <v>0.44934674806879371</v>
+      </c>
+      <c r="J45" s="66">
+        <f t="shared" ref="J45:J46" si="20">E45/G45</f>
+        <v>1.4379095938201401</v>
+      </c>
+      <c r="K45" s="74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="66" t="str">
+        <f>F33</f>
+        <v>32+8.3i</v>
+      </c>
+      <c r="E46" s="66">
+        <f>IMABS(D46)</f>
+        <v>33.05888685361321</v>
+      </c>
+      <c r="F46" s="66">
+        <f>H33</f>
+        <v>25</v>
+      </c>
+      <c r="G46" s="66">
+        <v>16</v>
+      </c>
+      <c r="H46" s="66">
+        <v>2</v>
+      </c>
+      <c r="I46" s="66">
+        <f t="shared" si="19"/>
+        <v>0.66117773707226424</v>
+      </c>
+      <c r="J46" s="66">
+        <f t="shared" si="20"/>
+        <v>2.0661804283508256</v>
+      </c>
+      <c r="K46" s="69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="16417" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="16417" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="151" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="151" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="149" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="152" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="152"/>
-      <c r="D4" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="151" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="151"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="160"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+    </row>
+    <row r="4" spans="3:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="160"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C5" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="152" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="152" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
-    </row>
-    <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="154"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="55" t="str">
-        <f>нагрів!D5</f>
+      <c r="D5" s="149" t="str">
+        <f>'Таблиця 1-4'!C3</f>
+        <v>а</v>
+      </c>
+      <c r="E5" s="76" t="str">
+        <f>'Таблиця 1-4'!D3</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="F5" s="76">
+        <f>'Таблиця 1-4'!E3</f>
+        <v>11.8</v>
+      </c>
+      <c r="G5" s="76">
+        <f>Fрозр!H4</f>
+        <v>110</v>
+      </c>
+      <c r="H5" s="76" t="str">
+        <f>нагрів!I8</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="76">
+        <f>16.6</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K5" s="76">
+        <v>1</v>
+      </c>
+      <c r="L5" s="76">
+        <f>J5*F5</f>
+        <v>195.88000000000002</v>
+      </c>
+      <c r="M5" s="76"/>
+    </row>
+    <row r="6" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="156"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="76" t="str">
+        <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F6" s="55" t="str">
+      <c r="F6" s="76">
+        <f>'Таблиця 1-4'!E4</f>
+        <v>7.8</v>
+      </c>
+      <c r="G6" s="76">
+        <f>Fрозр!H5</f>
+        <v>110</v>
+      </c>
+      <c r="H6" s="76" t="str">
         <f>нагрів!I5</f>
         <v>АС-300/67</v>
       </c>
-      <c r="G6" s="57">
-        <f>'Таблиця 1-4'!E4</f>
-        <v>7.8</v>
-      </c>
-      <c r="H6" s="60">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I6" s="60">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J6" s="59">
-        <f>H6*G6</f>
-        <v>0.26519999999999999</v>
-      </c>
-      <c r="K6" s="59">
-        <f>I6*G6</f>
-        <v>3.1590000000000003</v>
-      </c>
-      <c r="L6" s="55" t="str">
-        <f>нагрів!E5</f>
-        <v>62+32.8i</v>
-      </c>
-      <c r="M6" s="59">
-        <f>(IMREAL(L6)*J6+IMAGINARY(L6)*K6)/$N$6</f>
-        <v>1.0914327272727273</v>
-      </c>
-      <c r="N6" s="54">
+      <c r="I6" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="76">
+        <f>19.2</f>
+        <v>19.2</v>
+      </c>
+      <c r="K6" s="76">
+        <v>1</v>
+      </c>
+      <c r="L6" s="76">
+        <f t="shared" ref="L6:L15" si="0">J6*F6</f>
+        <v>149.76</v>
+      </c>
+      <c r="M6" s="76"/>
+    </row>
+    <row r="7" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="161"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="76" t="str">
+        <f>'Таблиця 1-4'!D5</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F7" s="76">
+        <f>'Таблиця 1-4'!E5</f>
+        <v>5.6</v>
+      </c>
+      <c r="G7" s="76">
+        <f>Fрозр!H6</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="154"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="55" t="str">
-        <f>нагрів!D6</f>
-        <v>Д-В</v>
-      </c>
-      <c r="F7" s="55" t="str">
+      <c r="H7" s="76" t="str">
         <f>нагрів!I6</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G7" s="58">
-        <f>'Таблиця 1-4'!E5</f>
+      <c r="I7" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="76">
+        <f>14.1</f>
+        <v>14.1</v>
+      </c>
+      <c r="K7" s="76">
+        <v>1</v>
+      </c>
+      <c r="L7" s="76">
+        <f t="shared" si="0"/>
+        <v>78.959999999999994</v>
+      </c>
+      <c r="M7" s="76"/>
+    </row>
+    <row r="8" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="161"/>
+      <c r="D8" s="75" t="str">
+        <f>'Таблиця 1-4'!C6</f>
+        <v>д</v>
+      </c>
+      <c r="E8" s="76" t="str">
+        <f>'Таблиця 1-4'!D6</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F8" s="76">
+        <f>'Таблиця 1-4'!E6</f>
         <v>5.6</v>
       </c>
-      <c r="H7" s="60">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I7" s="59">
-        <v>0.42</v>
-      </c>
-      <c r="J7" s="59">
-        <f>H7*G7</f>
-        <v>1.1088</v>
-      </c>
-      <c r="K7" s="59">
-        <f>I7*G7</f>
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="L7" s="61" t="str">
-        <f>нагрів!E6</f>
-        <v>35+19i</v>
-      </c>
-      <c r="M7" s="59">
-        <f>(IMREAL(L7)*J7+IMAGINARY(L7)*K7)/$N$6</f>
-        <v>0.75905454545454543</v>
-      </c>
-      <c r="N7" s="54"/>
-    </row>
-    <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="154"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="59">
-        <f>M6+M7</f>
-        <v>1.8504872727272728</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="154"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="146" t="str">
-        <f>нагрів!D7</f>
-        <v>відключення ВП-Д</v>
-      </c>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="148"/>
-    </row>
-    <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="154"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="55" t="str">
-        <f>нагрів!D8</f>
-        <v>ВП-В</v>
-      </c>
-      <c r="F10" s="55" t="str">
-        <f>нагрів!I8</f>
-        <v>АС-240/56</v>
-      </c>
-      <c r="G10" s="55">
-        <f>'Таблиця 1-4'!E3</f>
-        <v>11.8</v>
-      </c>
-      <c r="H10" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="I10" s="60">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J10" s="59">
-        <f>H10*G10</f>
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="K10" s="59">
-        <f>I10*G10</f>
-        <v>4.7790000000000008</v>
-      </c>
-      <c r="L10" s="55" t="str">
-        <f>нагрів!E10</f>
-        <v>35+19i</v>
-      </c>
-      <c r="M10" s="59">
-        <f>(IMREAL(L10)*J10+IMAGINARY(L10)*K10)/$N$6</f>
-        <v>1.2760090909090911</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="154"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="55" t="str">
-        <f>нагрів!D9</f>
-        <v>В-Д</v>
-      </c>
-      <c r="F11" s="55" t="str">
-        <f>нагрів!I9</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="G11" s="55">
-        <f>G7</f>
-        <v>5.6</v>
-      </c>
-      <c r="H11" s="60">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I11" s="59">
-        <v>0.42</v>
-      </c>
-      <c r="J11" s="59">
-        <f>H11*G11</f>
-        <v>1.1088</v>
-      </c>
-      <c r="K11" s="59">
-        <f>I11*G11</f>
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="L11" s="61" t="str">
-        <f>нагрів!E11</f>
-        <v>62+32.8i</v>
-      </c>
-      <c r="M11" s="59">
-        <f>(IMREAL(L11)*J11+IMAGINARY(L11)*K11)/$N$6</f>
-        <v>1.3262836363636361</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="154"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="146" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="59">
-        <f>M10+M11</f>
-        <v>2.6022927272727272</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="154"/>
-      <c r="D13" s="149" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="55" t="str">
-        <f>Fрозр!E7</f>
-        <v>В-Д</v>
-      </c>
-      <c r="F13" s="55" t="str">
+      <c r="G8" s="76">
+        <f>Fрозр!H7</f>
+        <v>110</v>
+      </c>
+      <c r="H8" s="76" t="str">
         <f>нагрів!I10</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G13" s="55">
-        <f>Потокорозподіл!D8</f>
-        <v>5.6</v>
-      </c>
-      <c r="H13" s="60">
-        <f>H11</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I13" s="59">
-        <f>I11</f>
-        <v>0.42</v>
-      </c>
-      <c r="J13" s="55">
-        <f>H13*G13</f>
-        <v>1.1088</v>
-      </c>
-      <c r="K13" s="55">
-        <f>I13*G13</f>
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="L13" s="55" t="str">
-        <f>нагрів!E10</f>
-        <v>35+19i</v>
-      </c>
-      <c r="M13" s="59">
-        <f>(IMREAL(L13)*J13+IMAGINARY(L13)*K13)/$N$6</f>
-        <v>0.75905454545454543</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="55" t="str">
-        <f>Fрозр!E8</f>
+      <c r="I8" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="76">
+        <f>2*14.1</f>
+        <v>28.2</v>
+      </c>
+      <c r="K8" s="76">
+        <v>2</v>
+      </c>
+      <c r="L8" s="76">
+        <f t="shared" si="0"/>
+        <v>157.91999999999999</v>
+      </c>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="150"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="76" t="str">
+        <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F14" s="55" t="str">
+      <c r="F9" s="76">
+        <f>'Таблиця 1-4'!E7</f>
+        <v>7.8</v>
+      </c>
+      <c r="G9" s="76">
+        <f>Fрозр!H8</f>
+        <v>110</v>
+      </c>
+      <c r="H9" s="76" t="str">
         <f>нагрів!I11</f>
         <v>АС-240/56</v>
       </c>
-      <c r="G14" s="55">
-        <f>Потокорозподіл!D9</f>
-        <v>7.8</v>
-      </c>
-      <c r="H14" s="60">
-        <f>H10</f>
-        <v>0.12</v>
-      </c>
-      <c r="I14" s="60">
-        <f>I10</f>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J14" s="55">
-        <f>H14*G14</f>
-        <v>0.93599999999999994</v>
-      </c>
-      <c r="K14" s="55">
-        <f>I14*G14</f>
-        <v>3.1590000000000003</v>
-      </c>
-      <c r="L14" s="55" t="str">
-        <f>нагрів!E11</f>
-        <v>62+32.8i</v>
-      </c>
-      <c r="M14" s="59">
-        <f>(IMREAL(L14)*J14+IMAGINARY(L14)*K14)/$N$6</f>
-        <v>1.4695199999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="146" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="59">
-        <f>M13+M14</f>
-        <v>2.2285745454545456</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="152" t="s">
+      <c r="I9" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="76">
+        <f>16.6*2</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K9" s="76">
+        <v>2</v>
+      </c>
+      <c r="L9" s="76">
+        <f t="shared" si="0"/>
+        <v>258.96000000000004</v>
+      </c>
+      <c r="M9" s="76"/>
+    </row>
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="152" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="148"/>
-    </row>
-    <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="55" t="str">
-        <f>нагрів!D13</f>
+      <c r="D10" s="151" t="str">
+        <f>'Таблиця 1-4'!C8</f>
+        <v>а</v>
+      </c>
+      <c r="E10" s="76" t="str">
+        <f>'Таблиця 1-4'!D8</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="F10" s="76">
+        <f>'Таблиця 1-4'!E8</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G10" s="76">
+        <f>Fрозр!H9</f>
+        <v>110</v>
+      </c>
+      <c r="H10" s="76" t="str">
+        <f>нагрів!I16</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="I10" s="76" t="str">
+        <f>I5</f>
+        <v>1 з/б одноланцюг.</v>
+      </c>
+      <c r="J10" s="76">
+        <f>19.2</f>
+        <v>19.2</v>
+      </c>
+      <c r="K10" s="76">
+        <v>1</v>
+      </c>
+      <c r="L10" s="76">
+        <f t="shared" si="0"/>
+        <v>188.16</v>
+      </c>
+      <c r="M10" s="76"/>
+    </row>
+    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="151"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="76" t="str">
+        <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
       </c>
-      <c r="F17" s="55" t="str">
+      <c r="F11" s="76">
+        <f>'Таблиця 1-4'!E9</f>
+        <v>11.9</v>
+      </c>
+      <c r="G11" s="76">
+        <f>Fрозр!H10</f>
+        <v>110</v>
+      </c>
+      <c r="H11" s="76" t="str">
         <f>нагрів!I13</f>
         <v>АС-240/56</v>
       </c>
-      <c r="G17" s="55">
-        <v>7.8</v>
-      </c>
-      <c r="H17" s="60">
-        <f>H10</f>
-        <v>0.12</v>
-      </c>
-      <c r="I17" s="60">
-        <f>I10</f>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J17" s="55">
-        <f>H17*G17</f>
-        <v>0.93599999999999994</v>
-      </c>
-      <c r="K17" s="55">
-        <f>I17*G17</f>
-        <v>3.1590000000000003</v>
-      </c>
-      <c r="L17" s="55" t="str">
-        <f>нагрів!E13</f>
-        <v>67+32.5i</v>
-      </c>
-      <c r="M17" s="59">
-        <f>(IMREAL(L17)*J17+IMAGINARY(L14)*K17)/$N$6</f>
-        <v>1.5120654545454546</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="55" t="str">
-        <f>нагрів!D14</f>
+      <c r="I11" s="76" t="str">
+        <f t="shared" ref="I11:I12" si="1">I6</f>
+        <v>1 з/б одноланцюг.</v>
+      </c>
+      <c r="J11" s="76">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K11" s="76">
+        <v>1</v>
+      </c>
+      <c r="L11" s="76">
+        <f t="shared" si="0"/>
+        <v>197.54000000000002</v>
+      </c>
+      <c r="M11" s="76"/>
+    </row>
+    <row r="12" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="76" t="str">
+        <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
       </c>
-      <c r="F18" s="55" t="str">
+      <c r="F12" s="76">
+        <f>'Таблиця 1-4'!E10</f>
+        <v>14.5</v>
+      </c>
+      <c r="G12" s="76">
+        <f>Fрозр!H11</f>
+        <v>110</v>
+      </c>
+      <c r="H12" s="76" t="str">
         <f>нагрів!I14</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G18" s="55">
-        <v>5.6</v>
-      </c>
-      <c r="H18" s="60">
-        <f>H11</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I18" s="59">
-        <f>I11</f>
-        <v>0.42</v>
-      </c>
-      <c r="J18" s="55">
-        <f>H18*G18</f>
-        <v>1.1088</v>
-      </c>
-      <c r="K18" s="55">
-        <f>I18*G18</f>
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="L18" s="55" t="str">
-        <f>нагрів!E14</f>
-        <v>32+15.5i</v>
-      </c>
-      <c r="M18" s="59">
-        <f>(IMREAL(L18)*J18+IMAGINARY(L15)*K18)/$N$6</f>
-        <v>0.32256000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="59">
-        <f>M17+M18</f>
-        <v>1.8346254545454546</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="148"/>
-    </row>
-    <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="55" t="str">
-        <f>нагрів!D16</f>
-        <v>ВП-Г</v>
-      </c>
-      <c r="F21" s="55" t="str">
-        <f>нагрів!I16</f>
-        <v>АС-300/67</v>
-      </c>
-      <c r="G21" s="55">
-        <f>11.8</f>
-        <v>11.8</v>
-      </c>
-      <c r="H21" s="55">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I21" s="55">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J21" s="58">
-        <f>H21*G21</f>
-        <v>0.40120000000000006</v>
-      </c>
-      <c r="K21" s="58">
-        <f>G21*I21</f>
-        <v>4.7790000000000008</v>
-      </c>
-      <c r="L21" s="55" t="str">
-        <f>нагрів!E16</f>
-        <v>67+32.5i</v>
-      </c>
-      <c r="M21" s="59">
-        <f>(IMREAL(L21)*J21+IMAGINARY(L21)*K21)/$N$6</f>
-        <v>1.6563445454545458</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="55" t="str">
-        <f>нагрів!D17</f>
-        <v>Г-Е</v>
-      </c>
-      <c r="F22" s="55" t="str">
-        <f>нагрів!I17</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="G22" s="55">
-        <v>5.6</v>
-      </c>
-      <c r="H22" s="55">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I22" s="55">
-        <v>0.42</v>
-      </c>
-      <c r="J22" s="58">
-        <f>H22*G22</f>
-        <v>1.1088</v>
-      </c>
-      <c r="K22" s="58">
-        <f>G22*I22</f>
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="L22" s="55" t="str">
-        <f>нагрів!E17</f>
-        <v>35+17i</v>
-      </c>
-      <c r="M22" s="59">
-        <f>(IMREAL(L22)*J22+IMAGINARY(L22)*K22)/$N$6</f>
-        <v>0.71629090909090909</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="146" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="59">
-        <f>M21+M22</f>
-        <v>2.3726354545454549</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="152"/>
-      <c r="D24" s="152" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="55" t="str">
-        <f>нагрів!D18</f>
+      <c r="I12" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>1 з/б одноланцюг.</v>
+      </c>
+      <c r="J12" s="76">
+        <f>14.1</f>
+        <v>14.1</v>
+      </c>
+      <c r="K12" s="76">
+        <v>1</v>
+      </c>
+      <c r="L12" s="76">
+        <f t="shared" si="0"/>
+        <v>204.45</v>
+      </c>
+      <c r="M12" s="76"/>
+    </row>
+    <row r="13" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="160"/>
+      <c r="D13" s="151" t="str">
+        <f>'Таблиця 1-4'!C11</f>
+        <v>г</v>
+      </c>
+      <c r="E13" s="76" t="str">
+        <f>'Таблиця 1-4'!D11</f>
         <v>ВП-2</v>
       </c>
-      <c r="F24" s="55" t="str">
+      <c r="F13" s="76">
+        <f>'Таблиця 1-4'!E11</f>
+        <v>5.4</v>
+      </c>
+      <c r="G13" s="76">
+        <f>Fрозр!H12</f>
+        <v>110</v>
+      </c>
+      <c r="H13" s="76" t="str">
         <f>нагрів!I18</f>
         <v>АС-300/67</v>
       </c>
-      <c r="G24" s="55">
-        <f>'Таблиця 1-4'!E11</f>
-        <v>5.4</v>
-      </c>
-      <c r="H24" s="55">
-        <f>H21</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I24" s="55">
-        <f>I21</f>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J24" s="55">
-        <f>H24*G24</f>
-        <v>0.18360000000000001</v>
-      </c>
-      <c r="K24" s="55">
-        <f>I24*G24</f>
-        <v>2.1870000000000003</v>
-      </c>
-      <c r="L24" s="55" t="str">
-        <f>нагрів!E18</f>
-        <v>67+32.5i</v>
-      </c>
-      <c r="M24" s="59">
-        <f>(IMREAL(L24)*J24+IMAGINARY(L24)*K24)/$N$6</f>
-        <v>0.75798818181818195</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="55" t="str">
-        <f>нагрів!D19</f>
+      <c r="I13" s="76" t="str">
+        <f>I8</f>
+        <v>2 з/б одноланцюг.</v>
+      </c>
+      <c r="J13" s="76">
+        <f>19.2*2</f>
+        <v>38.4</v>
+      </c>
+      <c r="K13" s="76">
+        <v>2</v>
+      </c>
+      <c r="L13" s="76">
+        <f t="shared" si="0"/>
+        <v>207.36</v>
+      </c>
+      <c r="M13" s="76"/>
+    </row>
+    <row r="14" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="76" t="str">
+        <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
       </c>
-      <c r="F25" s="55" t="str">
+      <c r="F14" s="76">
+        <f>'Таблиця 1-4'!E12</f>
+        <v>7.2</v>
+      </c>
+      <c r="G14" s="76">
+        <f>Fрозр!H13</f>
+        <v>110</v>
+      </c>
+      <c r="H14" s="76" t="str">
         <f>нагрів!I19</f>
         <v>АС-120/27</v>
       </c>
-      <c r="G25" s="55">
-        <f>'Таблиця 1-4'!E12</f>
-        <v>7.2</v>
-      </c>
-      <c r="H25" s="55">
-        <f>0.249</f>
-        <v>0.249</v>
-      </c>
-      <c r="I25" s="55">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="J25" s="55">
-        <f>H25*G25</f>
-        <v>1.7927999999999999</v>
-      </c>
-      <c r="K25" s="55">
-        <f>I25*G25</f>
-        <v>3.0743999999999998</v>
-      </c>
-      <c r="L25" s="55" t="str">
-        <f>нагрів!E19</f>
-        <v>32+15.5i</v>
-      </c>
-      <c r="M25" s="59">
-        <f t="shared" ref="M25:M26" si="0">(IMREAL(L25)*J25+IMAGINARY(L25)*K25)/$N$6</f>
-        <v>0.9547527272727272</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="55" t="str">
-        <f>нагрів!D20</f>
+      <c r="I14" s="76" t="str">
+        <f>I9</f>
+        <v>2 з/б одноланцюг.</v>
+      </c>
+      <c r="J14" s="76">
+        <f>14.4*2</f>
+        <v>28.8</v>
+      </c>
+      <c r="K14" s="76">
+        <v>2</v>
+      </c>
+      <c r="L14" s="76">
+        <f t="shared" si="0"/>
+        <v>207.36</v>
+      </c>
+      <c r="M14" s="76"/>
+    </row>
+    <row r="15" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="76" t="str">
+        <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
       </c>
-      <c r="F26" s="55" t="str">
+      <c r="F15" s="76">
+        <f>'Таблиця 1-4'!E13</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G15" s="76">
+        <f>Fрозр!H14</f>
+        <v>110</v>
+      </c>
+      <c r="H15" s="76" t="str">
         <f>нагрів!I20</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G26" s="55">
-        <f>'Таблиця 1-4'!E13</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H26" s="60">
-        <f>H18</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I26" s="59">
-        <f>I18</f>
-        <v>0.42</v>
-      </c>
-      <c r="J26" s="55">
-        <f>H26*G26</f>
-        <v>1.6434000000000002</v>
-      </c>
-      <c r="K26" s="55">
-        <f>I26*G26</f>
-        <v>3.4860000000000002</v>
-      </c>
-      <c r="L26" s="55" t="str">
-        <f>нагрів!E20</f>
-        <v>35+17i</v>
-      </c>
-      <c r="M26" s="59">
+      <c r="I15" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" s="76">
+        <f>14.1*2</f>
+        <v>28.2</v>
+      </c>
+      <c r="K15" s="76">
+        <v>2</v>
+      </c>
+      <c r="L15" s="76">
         <f t="shared" si="0"/>
-        <v>1.0616454545454546</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="146" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="59">
-        <f>M26</f>
-        <v>1.0616454545454546</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="59">
-        <f>M24+M25</f>
-        <v>1.7127409090909091</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="152" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="55" t="str">
-        <f>нагрів!I21</f>
-        <v>АС-400/51</v>
-      </c>
-      <c r="G29" s="55">
-        <v>14.8</v>
-      </c>
-      <c r="H29" s="55">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I29" s="55">
-        <v>0.42</v>
-      </c>
-      <c r="J29" s="59">
-        <f>H29*G29</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K29" s="59">
-        <f>I29*G29</f>
-        <v>6.2160000000000002</v>
-      </c>
-      <c r="L29" s="55" t="str">
-        <f>нагрів!E21</f>
-        <v>166.15+116.7i</v>
-      </c>
-      <c r="M29" s="59">
-        <f>(IMREAL(L29)*J29+IMAGINARY(L29)*K29)/$N$29</f>
-        <v>4.1356077272727276</v>
-      </c>
-      <c r="N29">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="152"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="55" t="str">
-        <f>нагрів!I22</f>
-        <v>АС-300/67</v>
-      </c>
-      <c r="G30" s="55">
-        <v>22.6</v>
-      </c>
-      <c r="H30" s="55">
-        <f>0.034</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I30" s="55">
-        <f>0.429</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="J30" s="59">
-        <f t="shared" ref="J30:J31" si="1">H30*G30</f>
-        <v>0.76840000000000008</v>
-      </c>
-      <c r="K30" s="59">
-        <f t="shared" ref="K30:K31" si="2">I30*G30</f>
-        <v>9.6954000000000011</v>
-      </c>
-      <c r="L30" s="55" t="str">
-        <f>нагрів!E22</f>
-        <v>146.15+103.7i</v>
-      </c>
-      <c r="M30" s="59">
-        <f>(IMREAL(L30)*J30+IMAGINARY(L30)*K30)/$N$29</f>
-        <v>5.0805210909090919</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="152"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="55" t="str">
-        <f>нагрів!I23</f>
-        <v>АС-240/56</v>
-      </c>
-      <c r="G31" s="55">
-        <v>10.8</v>
-      </c>
-      <c r="H31" s="60">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I31" s="60">
-        <f>0.429</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="J31" s="59">
-        <f t="shared" si="1"/>
-        <v>0.25920000000000004</v>
-      </c>
-      <c r="K31" s="59">
-        <f t="shared" si="2"/>
-        <v>4.6332000000000004</v>
-      </c>
-      <c r="L31" s="55" t="str">
-        <f>нагрів!E23</f>
-        <v>20+13i</v>
-      </c>
-      <c r="M31" s="59">
-        <f t="shared" ref="M31" si="3">(IMREAL(L31)*J31+IMAGINARY(L31)*K31)/$N$29</f>
-        <v>0.29734363636363642</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="156" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="59">
-        <f>M29+M30</f>
-        <v>9.2161288181818186</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="156" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="59">
-        <f>M29+M31</f>
-        <v>4.4329513636363638</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="N39" t="s">
-        <v>156</v>
-      </c>
+        <v>234.06</v>
+      </c>
+      <c r="M15" s="76"/>
+    </row>
+    <row r="16" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="151" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
+  <mergeCells count="16">
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8699,26 +10021,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="82"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="77"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -8954,1264 +10276,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="97"/>
-      <c r="D4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>Потокорозподіл!F26</f>
-        <v>146.15</v>
-      </c>
-      <c r="B5">
-        <f>Потокорозподіл!G26</f>
-        <v>103.7</v>
-      </c>
-      <c r="C5" s="62" t="str">
-        <f>'Табл1-1  1-2'!A4</f>
-        <v>А</v>
-      </c>
-      <c r="D5" s="33">
-        <v>220</v>
-      </c>
-      <c r="E5" s="66" t="str">
-        <f>COMPLEX(A5,B5)</f>
-        <v>146.15+103.7i</v>
-      </c>
-      <c r="F5" s="68">
-        <f>IMABS(E5)</f>
-        <v>179.20243441426791</v>
-      </c>
-      <c r="G5" s="68">
-        <f>0.7*F5</f>
-        <v>125.44170408998752</v>
-      </c>
-      <c r="H5" s="66">
-        <v>125</v>
-      </c>
-      <c r="I5" s="66">
-        <v>2</v>
-      </c>
-      <c r="J5" s="67">
-        <f>F5/I5/H5</f>
-        <v>0.71680973765707168</v>
-      </c>
-      <c r="K5" s="67">
-        <f>F5/H5</f>
-        <v>1.4336194753141434</v>
-      </c>
-      <c r="L5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>'Табл1-1  1-2'!B5</f>
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <f>'Табл1-1  1-2'!C5</f>
-        <v>13</v>
-      </c>
-      <c r="C6" s="62" t="str">
-        <f>'Табл1-1  1-2'!A5</f>
-        <v>Б</v>
-      </c>
-      <c r="D6" s="33">
-        <v>220</v>
-      </c>
-      <c r="E6" s="66" t="str">
-        <f t="shared" ref="E6:E10" si="0">COMPLEX(A6,B6)</f>
-        <v>20+13i</v>
-      </c>
-      <c r="F6" s="68">
-        <f t="shared" ref="F6:F10" si="1">IMABS(E6)</f>
-        <v>23.853720883753127</v>
-      </c>
-      <c r="G6" s="68">
-        <f t="shared" ref="G6:G9" si="2">0.7*F6</f>
-        <v>16.697604618627189</v>
-      </c>
-      <c r="H6" s="71">
-        <v>25</v>
-      </c>
-      <c r="I6" s="66">
-        <v>2</v>
-      </c>
-      <c r="J6" s="67">
-        <f>F6/I6/H6</f>
-        <v>0.47707441767506253</v>
-      </c>
-      <c r="K6" s="67">
-        <f>F6/H6</f>
-        <v>0.95414883535012507</v>
-      </c>
-      <c r="L6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>'Табл1-1  1-2'!B6</f>
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <f>'Табл1-1  1-2'!C6</f>
-        <v>19</v>
-      </c>
-      <c r="C7" s="62" t="str">
-        <f>'Табл1-1  1-2'!A6</f>
-        <v>В</v>
-      </c>
-      <c r="D7" s="33">
-        <v>110</v>
-      </c>
-      <c r="E7" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>35+19i</v>
-      </c>
-      <c r="F7" s="68">
-        <f t="shared" si="1"/>
-        <v>39.824615503479755</v>
-      </c>
-      <c r="G7" s="68">
-        <f>0.7*F7</f>
-        <v>27.877230852435826</v>
-      </c>
-      <c r="H7" s="66">
-        <v>40</v>
-      </c>
-      <c r="I7" s="66">
-        <v>2</v>
-      </c>
-      <c r="J7" s="67">
-        <f>F7/I7/H7</f>
-        <v>0.49780769379349693</v>
-      </c>
-      <c r="K7" s="67">
-        <f>F7/H7</f>
-        <v>0.99561538758699386</v>
-      </c>
-      <c r="L7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>'Табл1-1  1-2'!B7</f>
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <f>'Табл1-1  1-2'!C7</f>
-        <v>15.5</v>
-      </c>
-      <c r="C8" s="62" t="str">
-        <f>'Табл1-1  1-2'!A7</f>
-        <v>Г</v>
-      </c>
-      <c r="D8" s="33">
-        <v>110</v>
-      </c>
-      <c r="E8" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>32+15.5i</v>
-      </c>
-      <c r="F8" s="68">
-        <f t="shared" si="1"/>
-        <v>35.556293395122054</v>
-      </c>
-      <c r="G8" s="68">
-        <f t="shared" si="2"/>
-        <v>24.889405376585437</v>
-      </c>
-      <c r="H8" s="66">
-        <v>25</v>
-      </c>
-      <c r="I8" s="66">
-        <v>2</v>
-      </c>
-      <c r="J8" s="67">
-        <f t="shared" ref="J8:J10" si="3">F8/I8/H8</f>
-        <v>0.71112586790244103</v>
-      </c>
-      <c r="K8" s="67">
-        <f t="shared" ref="K8:K10" si="4">F8/H8</f>
-        <v>1.4222517358048821</v>
-      </c>
-      <c r="L8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>'Табл1-1  1-2'!B8</f>
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <f>'Табл1-1  1-2'!C8</f>
-        <v>13.8</v>
-      </c>
-      <c r="C9" s="62" t="str">
-        <f>'Табл1-1  1-2'!A8</f>
-        <v>Д</v>
-      </c>
-      <c r="D9" s="33">
-        <v>110</v>
-      </c>
-      <c r="E9" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>27+13.8i</v>
-      </c>
-      <c r="F9" s="68">
-        <f t="shared" si="1"/>
-        <v>30.322269044383869</v>
-      </c>
-      <c r="G9" s="68">
-        <f t="shared" si="2"/>
-        <v>21.225588331068707</v>
-      </c>
-      <c r="H9" s="66">
-        <v>25</v>
-      </c>
-      <c r="I9" s="66">
-        <v>2</v>
-      </c>
-      <c r="J9" s="67">
-        <f t="shared" si="3"/>
-        <v>0.60644538088767741</v>
-      </c>
-      <c r="K9" s="67">
-        <f t="shared" si="4"/>
-        <v>1.2128907617753548</v>
-      </c>
-      <c r="L9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f>'Табл1-1  1-2'!B9</f>
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <f>'Табл1-1  1-2'!C9</f>
-        <v>17</v>
-      </c>
-      <c r="C10" s="62" t="str">
-        <f>'Табл1-1  1-2'!A9</f>
-        <v>Е</v>
-      </c>
-      <c r="D10" s="33">
-        <v>110</v>
-      </c>
-      <c r="E10" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>35+17i</v>
-      </c>
-      <c r="F10" s="68">
-        <f t="shared" si="1"/>
-        <v>38.910152916687437</v>
-      </c>
-      <c r="G10" s="68">
-        <f>0.7*F10</f>
-        <v>27.237107041681206</v>
-      </c>
-      <c r="H10" s="66">
-        <v>40</v>
-      </c>
-      <c r="I10" s="66">
-        <v>2</v>
-      </c>
-      <c r="J10" s="67">
-        <f t="shared" si="3"/>
-        <v>0.48637691145859296</v>
-      </c>
-      <c r="K10" s="67">
-        <f t="shared" si="4"/>
-        <v>0.97275382291718593</v>
-      </c>
-      <c r="L10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" s="88" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="97"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="90"/>
-    </row>
-    <row r="17" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f>'Табл1-1  1-2'!B4</f>
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f>'Табл1-1  1-2'!C4</f>
-        <v>12</v>
-      </c>
-      <c r="C17" s="64" t="str">
-        <f>C5</f>
-        <v>А</v>
-      </c>
-      <c r="D17" s="33">
-        <f>A17</f>
-        <v>16</v>
-      </c>
-      <c r="E17" s="33">
-        <f>B17</f>
-        <v>12</v>
-      </c>
-      <c r="F17" s="33">
-        <f>E17/D17</f>
-        <v>0.75</v>
-      </c>
-      <c r="G17" s="33">
-        <f>D17*(F17-0.25)</f>
-        <v>8</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="33">
-        <f>'Табл1-1  1-2'!F4</f>
-        <v>6</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="K17" s="33">
-        <f>4*0.9+4*1.125</f>
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f>'Табл1-1  1-2'!B5</f>
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <f>'Табл1-1  1-2'!C5</f>
-        <v>13</v>
-      </c>
-      <c r="C18" s="64" t="str">
-        <f t="shared" ref="C18:C22" si="5">C6</f>
-        <v>Б</v>
-      </c>
-      <c r="D18" s="33">
-        <f t="shared" ref="D18:D22" si="6">A18</f>
-        <v>20</v>
-      </c>
-      <c r="E18" s="33">
-        <f t="shared" ref="E18:E22" si="7">B18</f>
-        <v>13</v>
-      </c>
-      <c r="F18" s="33">
-        <f t="shared" ref="F18:F22" si="8">E18/D18</f>
-        <v>0.65</v>
-      </c>
-      <c r="G18" s="33">
-        <f t="shared" ref="G18:G22" si="9">D18*(F18-0.25)</f>
-        <v>8</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" s="33">
-        <f>'Табл1-1  1-2'!F5</f>
-        <v>10</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="K18" s="33">
-        <f>4*0.9+4*1.125</f>
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f>'Табл1-1  1-2'!B6</f>
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <f>'Табл1-1  1-2'!C6</f>
-        <v>19</v>
-      </c>
-      <c r="C19" s="64" t="str">
-        <f t="shared" si="5"/>
-        <v>В</v>
-      </c>
-      <c r="D19" s="33">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="F19" s="33">
-        <f t="shared" si="8"/>
-        <v>0.54285714285714282</v>
-      </c>
-      <c r="G19" s="33">
-        <f t="shared" si="9"/>
-        <v>10.249999999999998</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="I19" s="33">
-        <f>'Табл1-1  1-2'!F6</f>
-        <v>10</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="33">
-        <f>4*2.7</f>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f>'Табл1-1  1-2'!B7</f>
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <f>'Табл1-1  1-2'!C7</f>
-        <v>15.5</v>
-      </c>
-      <c r="C20" s="64" t="str">
-        <f t="shared" si="5"/>
-        <v>Г</v>
-      </c>
-      <c r="D20" s="33">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="7"/>
-        <v>15.5</v>
-      </c>
-      <c r="F20" s="33">
-        <f t="shared" si="8"/>
-        <v>0.484375</v>
-      </c>
-      <c r="G20" s="33">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="33">
-        <f>'Табл1-1  1-2'!F7</f>
-        <v>10</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="33">
-        <f>4*1.8</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f>'Табл1-1  1-2'!B8</f>
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <f>'Табл1-1  1-2'!C8</f>
-        <v>13.8</v>
-      </c>
-      <c r="C21" s="64" t="str">
-        <f t="shared" si="5"/>
-        <v>Д</v>
-      </c>
-      <c r="D21" s="33">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="7"/>
-        <v>13.8</v>
-      </c>
-      <c r="F21" s="33">
-        <f t="shared" si="8"/>
-        <v>0.51111111111111118</v>
-      </c>
-      <c r="G21" s="33">
-        <f t="shared" si="9"/>
-        <v>7.0500000000000016</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I21" s="33">
-        <f>'Табл1-1  1-2'!F8</f>
-        <v>6</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="K21" s="33">
-        <f>4*1.8</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f>'Табл1-1  1-2'!B9</f>
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <f>'Табл1-1  1-2'!C9</f>
-        <v>17</v>
-      </c>
-      <c r="C22" s="64" t="str">
-        <f t="shared" si="5"/>
-        <v>Е</v>
-      </c>
-      <c r="D22" s="33">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="F22" s="33">
-        <f t="shared" si="8"/>
-        <v>0.48571428571428571</v>
-      </c>
-      <c r="G22" s="33">
-        <f t="shared" si="9"/>
-        <v>8.25</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="I22" s="33">
-        <f>'Табл1-1  1-2'!F9</f>
-        <v>6</v>
-      </c>
-      <c r="J22" s="33" t="str">
-        <f>J17</f>
-        <v>4xУК-6-900 4xУК-6-1125</v>
-      </c>
-      <c r="K22" s="33">
-        <f>3*2.7</f>
-        <v>8.1000000000000014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="70">
-        <f>SUM(G17:G22)</f>
-        <v>49.050000000000004</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="K23" s="70">
-        <f>SUM(K17:K22)</f>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="L23">
-        <f>(G23-K23)/G23*100</f>
-        <v>-0.91743119266055628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="84" t="str">
-        <f>I3</f>
-        <v>nт</v>
-      </c>
-      <c r="J28" s="84" t="str">
-        <f>J3</f>
-        <v>Kз</v>
-      </c>
-      <c r="K28" s="84" t="str">
-        <f>K3</f>
-        <v>Kзав</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-    </row>
-    <row r="30" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f>A5</f>
-        <v>146.15</v>
-      </c>
-      <c r="B30">
-        <f>B5</f>
-        <v>103.7</v>
-      </c>
-      <c r="C30" s="64" t="str">
-        <f>C17</f>
-        <v>А</v>
-      </c>
-      <c r="D30" s="66" t="str">
-        <f>E5</f>
-        <v>146.15+103.7i</v>
-      </c>
-      <c r="E30" s="66">
-        <f>K17+K19+K20+K21+K22</f>
-        <v>41.4</v>
-      </c>
-      <c r="F30" s="66" t="str">
-        <f>COMPLEX(A30,B30-E30)</f>
-        <v>146.15+62.3i</v>
-      </c>
-      <c r="G30" s="66" t="str">
-        <f>H17</f>
-        <v>АТДЦТН-125000/220/110/35</v>
-      </c>
-      <c r="H30" s="66">
-        <f>H5</f>
-        <v>125</v>
-      </c>
-      <c r="I30" s="66">
-        <v>2</v>
-      </c>
-      <c r="J30" s="67">
-        <f>IMABS(F30)/I30/H30</f>
-        <v>0.63549807238102607</v>
-      </c>
-      <c r="K30" s="67">
-        <f>IMABS(D30)/I30/H30</f>
-        <v>0.71680973765707168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" ref="A31:B35" si="10">A6</f>
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="C31" s="64" t="str">
-        <f t="shared" ref="C31:C35" si="11">C18</f>
-        <v>Б</v>
-      </c>
-      <c r="D31" s="66" t="str">
-        <f t="shared" ref="D31:D35" si="12">E6</f>
-        <v>20+13i</v>
-      </c>
-      <c r="E31" s="66">
-        <f>K18</f>
-        <v>8.1</v>
-      </c>
-      <c r="F31" s="66" t="str">
-        <f t="shared" ref="F31:F35" si="13">COMPLEX(A31,B31-E31)</f>
-        <v>20+4.9i</v>
-      </c>
-      <c r="G31" s="66" t="str">
-        <f t="shared" ref="G31:G35" si="14">H18</f>
-        <v>ТДТН-25000/220/35/10</v>
-      </c>
-      <c r="H31" s="66">
-        <f t="shared" ref="H31:H35" si="15">H6</f>
-        <v>25</v>
-      </c>
-      <c r="I31" s="66">
-        <v>2</v>
-      </c>
-      <c r="J31" s="67">
-        <f t="shared" ref="J31:J35" si="16">IMABS(F31)/I31/H31</f>
-        <v>0.41183006204015754</v>
-      </c>
-      <c r="K31" s="67">
-        <f t="shared" ref="K31:K35" si="17">IMABS(D31)/I31/H31</f>
-        <v>0.47707441767506253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="C32" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>В</v>
-      </c>
-      <c r="D32" s="66" t="str">
-        <f t="shared" si="12"/>
-        <v>35+19i</v>
-      </c>
-      <c r="E32" s="66">
-        <f t="shared" ref="E32:E35" si="18">K19</f>
-        <v>10.8</v>
-      </c>
-      <c r="F32" s="66" t="str">
-        <f t="shared" si="13"/>
-        <v>35+8.2i</v>
-      </c>
-      <c r="G32" s="66" t="str">
-        <f t="shared" si="14"/>
-        <v>ТРДН-40000/110/35</v>
-      </c>
-      <c r="H32" s="66">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="I32" s="66">
-        <v>2</v>
-      </c>
-      <c r="J32" s="67">
-        <f t="shared" si="16"/>
-        <v>0.44934674806879371</v>
-      </c>
-      <c r="K32" s="67">
-        <f t="shared" si="17"/>
-        <v>0.49780769379349693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="10"/>
-        <v>15.5</v>
-      </c>
-      <c r="C33" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>Г</v>
-      </c>
-      <c r="D33" s="66" t="str">
-        <f t="shared" si="12"/>
-        <v>32+15.5i</v>
-      </c>
-      <c r="E33" s="66">
-        <f t="shared" si="18"/>
-        <v>7.2</v>
-      </c>
-      <c r="F33" s="66" t="str">
-        <f t="shared" si="13"/>
-        <v>32+8.3i</v>
-      </c>
-      <c r="G33" s="66" t="str">
-        <f t="shared" si="14"/>
-        <v>ТРДН-25000/110/35</v>
-      </c>
-      <c r="H33" s="66">
-        <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="I33" s="66">
-        <v>2</v>
-      </c>
-      <c r="J33" s="67">
-        <f t="shared" si="16"/>
-        <v>0.66117773707226424</v>
-      </c>
-      <c r="K33" s="67">
-        <f t="shared" si="17"/>
-        <v>0.71112586790244103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="10"/>
-        <v>13.8</v>
-      </c>
-      <c r="C34" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>Д</v>
-      </c>
-      <c r="D34" s="66" t="str">
-        <f t="shared" si="12"/>
-        <v>27+13.8i</v>
-      </c>
-      <c r="E34" s="66">
-        <f t="shared" si="18"/>
-        <v>7.2</v>
-      </c>
-      <c r="F34" s="66" t="str">
-        <f t="shared" si="13"/>
-        <v>27+6.6i</v>
-      </c>
-      <c r="G34" s="66" t="str">
-        <f t="shared" si="14"/>
-        <v>ТРДН-25000/110/35</v>
-      </c>
-      <c r="H34" s="66">
-        <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="I34" s="66">
-        <v>2</v>
-      </c>
-      <c r="J34" s="67">
-        <f t="shared" si="16"/>
-        <v>0.55589927145122253</v>
-      </c>
-      <c r="K34" s="67">
-        <f t="shared" si="17"/>
-        <v>0.60644538088767741</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="C35" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>Е</v>
-      </c>
-      <c r="D35" s="66" t="str">
-        <f t="shared" si="12"/>
-        <v>35+17i</v>
-      </c>
-      <c r="E35" s="66">
-        <f t="shared" si="18"/>
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="F35" s="66" t="str">
-        <f t="shared" si="13"/>
-        <v>35+8.9i</v>
-      </c>
-      <c r="G35" s="66" t="str">
-        <f t="shared" si="14"/>
-        <v>ТРДН-40000/110/35</v>
-      </c>
-      <c r="H35" s="66">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="I35" s="66">
-        <v>2</v>
-      </c>
-      <c r="J35" s="67">
-        <f t="shared" si="16"/>
-        <v>0.45142309699438288</v>
-      </c>
-      <c r="K35" s="67">
-        <f t="shared" si="17"/>
-        <v>0.48637691145859296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="92"/>
-      <c r="H40" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="93" t="s">
-        <v>217</v>
-      </c>
-      <c r="J40" s="94"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="73"/>
-    </row>
-    <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="82"/>
-      <c r="I41" s="84" t="str">
-        <f>J28</f>
-        <v>Kз</v>
-      </c>
-      <c r="J41" s="84" t="str">
-        <f>K28</f>
-        <v>Kзав</v>
-      </c>
-      <c r="K41" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="L41" s="72"/>
-    </row>
-    <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="72"/>
-    </row>
-    <row r="43" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="90"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="73"/>
-    </row>
-    <row r="44" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="66" t="str">
-        <f>F31</f>
-        <v>20+4.9i</v>
-      </c>
-      <c r="E44" s="66">
-        <f>IMABS(D44)</f>
-        <v>20.591503102007877</v>
-      </c>
-      <c r="F44" s="66">
-        <f>H31</f>
-        <v>25</v>
-      </c>
-      <c r="G44" s="66">
-        <f>16</f>
-        <v>16</v>
-      </c>
-      <c r="H44" s="66">
-        <v>2</v>
-      </c>
-      <c r="I44" s="66">
-        <f>E44/H44/F44</f>
-        <v>0.41183006204015754</v>
-      </c>
-      <c r="J44" s="66">
-        <f>E44/G44</f>
-        <v>1.2869689438754923</v>
-      </c>
-      <c r="K44" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="L44" s="73"/>
-    </row>
-    <row r="45" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="66" t="str">
-        <f>F32</f>
-        <v>35+8.2i</v>
-      </c>
-      <c r="E45" s="66">
-        <f>IMABS(D45)</f>
-        <v>35.947739845503499</v>
-      </c>
-      <c r="F45" s="66">
-        <f>H32</f>
-        <v>40</v>
-      </c>
-      <c r="G45" s="66">
-        <v>25</v>
-      </c>
-      <c r="H45" s="66">
-        <v>2</v>
-      </c>
-      <c r="I45" s="66">
-        <f t="shared" ref="I45:I46" si="19">E45/H45/F45</f>
-        <v>0.44934674806879371</v>
-      </c>
-      <c r="J45" s="66">
-        <f t="shared" ref="J45:J46" si="20">E45/G45</f>
-        <v>1.4379095938201401</v>
-      </c>
-      <c r="K45" s="74" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="66" t="str">
-        <f>F33</f>
-        <v>32+8.3i</v>
-      </c>
-      <c r="E46" s="66">
-        <f>IMABS(D46)</f>
-        <v>33.05888685361321</v>
-      </c>
-      <c r="F46" s="66">
-        <f>H33</f>
-        <v>25</v>
-      </c>
-      <c r="G46" s="66">
-        <v>16</v>
-      </c>
-      <c r="H46" s="66">
-        <v>2</v>
-      </c>
-      <c r="I46" s="66">
-        <f t="shared" si="19"/>
-        <v>0.66117773707226424</v>
-      </c>
-      <c r="J46" s="66">
-        <f t="shared" si="20"/>
-        <v>2.0661804283508256</v>
-      </c>
-      <c r="K46" s="69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="16417" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="16417" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
@@ -10783,566 +10847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="26" t="str">
-        <f>Потокорозподіл!C5</f>
-        <v>ВП-В</v>
-      </c>
-      <c r="E3" s="26">
-        <f>Потокорозподіл!D5</f>
-        <v>11.8</v>
-      </c>
-      <c r="F3" s="28">
-        <f>Потокорозподіл!E5</f>
-        <v>26.968</v>
-      </c>
-      <c r="G3" s="26">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
-        <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
-        <v>91.4</v>
-      </c>
-      <c r="I3" s="104">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="26" t="str">
-        <f>Потокорозподіл!C6</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="E4" s="26">
-        <f>Потокорозподіл!D6</f>
-        <v>7.8</v>
-      </c>
-      <c r="F4" s="28">
-        <f>Потокорозподіл!E6</f>
-        <v>35.031999999999996</v>
-      </c>
-      <c r="G4" s="27">
-        <v>1</v>
-      </c>
-      <c r="H4" s="26">
-        <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
-        <v>103.5</v>
-      </c>
-      <c r="I4" s="102"/>
-    </row>
-    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="26" t="str">
-        <f>Потокорозподіл!C7</f>
-        <v>В-Д</v>
-      </c>
-      <c r="E5" s="26">
-        <f>Потокорозподіл!D7</f>
-        <v>5.6</v>
-      </c>
-      <c r="F5" s="28">
-        <f>-Потокорозподіл!E7</f>
-        <v>8.032</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1</v>
-      </c>
-      <c r="H5" s="26">
-        <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
-        <v>50.3</v>
-      </c>
-      <c r="I5" s="105"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="26" t="str">
-        <f>Потокорозподіл!C8</f>
-        <v>В-Д</v>
-      </c>
-      <c r="E6" s="26">
-        <f>Потокорозподіл!D8</f>
-        <v>5.6</v>
-      </c>
-      <c r="F6" s="28">
-        <f>Потокорозподіл!E8</f>
-        <v>35</v>
-      </c>
-      <c r="G6" s="27">
-        <v>2</v>
-      </c>
-      <c r="H6" s="26">
-        <f t="shared" si="0"/>
-        <v>73.3</v>
-      </c>
-      <c r="I6" s="101">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="26" t="str">
-        <f>Потокорозподіл!C9</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="E7" s="26">
-        <f>Потокорозподіл!D9</f>
-        <v>7.8</v>
-      </c>
-      <c r="F7" s="28">
-        <f>Потокорозподіл!E9</f>
-        <v>62</v>
-      </c>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="26">
-        <f t="shared" si="0"/>
-        <v>97.4</v>
-      </c>
-      <c r="I7" s="105"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="29" t="str">
-        <f>'Вар2. Длинна'!F5</f>
-        <v>ВП-Г</v>
-      </c>
-      <c r="E8" s="29">
-        <f>'Вар2. Длинна'!G5</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F8" s="28">
-        <f>Потокорозподіл!E11</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="G8" s="29">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26">
-        <f t="shared" si="0"/>
-        <v>103.4</v>
-      </c>
-      <c r="I8" s="113">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="29" t="str">
-        <f>'Вар2. Длинна'!F6</f>
-        <v>ВП-Е</v>
-      </c>
-      <c r="E9" s="29">
-        <f>'Вар2. Длинна'!G6</f>
-        <v>11.9</v>
-      </c>
-      <c r="F9" s="28">
-        <f>Потокорозподіл!E12</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="0"/>
-        <v>99.6</v>
-      </c>
-      <c r="I9" s="114"/>
-    </row>
-    <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="29" t="str">
-        <f>'Вар2. Длинна'!F7</f>
-        <v>Е-Г</v>
-      </c>
-      <c r="E10" s="29">
-        <f>'Вар2. Длинна'!G7</f>
-        <v>14.5</v>
-      </c>
-      <c r="F10" s="28">
-        <f>Потокорозподіл!E13</f>
-        <v>2.8430000000000035</v>
-      </c>
-      <c r="G10" s="29">
-        <v>1</v>
-      </c>
-      <c r="H10" s="26">
-        <f t="shared" si="0"/>
-        <v>33.6</v>
-      </c>
-      <c r="I10" s="115"/>
-    </row>
-    <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="29" t="str">
-        <f>'Вар2. Длинна'!X23</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="E11" s="29">
-        <f>'Вар2. Длинна'!Y23</f>
-        <v>5.4</v>
-      </c>
-      <c r="F11" s="28">
-        <f>Потокорозподіл!E14</f>
-        <v>67</v>
-      </c>
-      <c r="G11" s="29">
-        <v>2</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="I11" s="113">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="29" t="str">
-        <f>'Вар2. Длинна'!X24</f>
-        <v>Г-2</v>
-      </c>
-      <c r="E12" s="29">
-        <f>'Вар2. Длинна'!Y24</f>
-        <v>7.2</v>
-      </c>
-      <c r="F12" s="28">
-        <f>Потокорозподіл!E15</f>
-        <v>32</v>
-      </c>
-      <c r="G12" s="29">
-        <v>2</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="I12" s="114"/>
-    </row>
-    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="107"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="29" t="str">
-        <f>'Вар2. Длинна'!X25</f>
-        <v>Е-2</v>
-      </c>
-      <c r="E13" s="29">
-        <f>'Вар2. Длинна'!Y25</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F13" s="28">
-        <f>Потокорозподіл!E16</f>
-        <v>35</v>
-      </c>
-      <c r="G13" s="29">
-        <v>2</v>
-      </c>
-      <c r="H13" s="29">
-        <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
-        <v>73.7</v>
-      </c>
-      <c r="I13" s="115"/>
-    </row>
-    <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="30" t="str">
-        <f>'мережа зовнішньго електр.'!G4</f>
-        <v>ДЖ-3</v>
-      </c>
-      <c r="E14" s="30">
-        <f>'мережа зовнішньго електр.'!H4</f>
-        <v>14.8</v>
-      </c>
-      <c r="F14" s="28">
-        <f>Потокорозподіл!F25</f>
-        <v>166.15</v>
-      </c>
-      <c r="G14" s="30">
-        <v>2</v>
-      </c>
-      <c r="H14" s="30">
-        <f t="shared" si="1"/>
-        <v>159.1</v>
-      </c>
-      <c r="I14" s="113">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="30" t="str">
-        <f>'мережа зовнішньго електр.'!G5</f>
-        <v>3-ВП</v>
-      </c>
-      <c r="E15" s="30">
-        <f>'мережа зовнішньго електр.'!H5</f>
-        <v>22.6</v>
-      </c>
-      <c r="F15" s="28">
-        <f>Потокорозподіл!F26</f>
-        <v>146.15</v>
-      </c>
-      <c r="G15" s="31">
-        <v>2</v>
-      </c>
-      <c r="H15" s="31">
-        <f t="shared" si="1"/>
-        <v>149.80000000000001</v>
-      </c>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="100"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="30" t="str">
-        <f>'мережа зовнішньго електр.'!G6</f>
-        <v>3-Б</v>
-      </c>
-      <c r="E16" s="30">
-        <f>'мережа зовнішньго електр.'!H6</f>
-        <v>10.8</v>
-      </c>
-      <c r="F16" s="28">
-        <f>Потокорозподіл!F27</f>
-        <v>20</v>
-      </c>
-      <c r="G16" s="32">
-        <v>2</v>
-      </c>
-      <c r="H16" s="32">
-        <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
-        <v>56.7</v>
-      </c>
-      <c r="I16" s="115"/>
-    </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11356,13 +10866,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="83" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -11374,19 +10884,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="118" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="83" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -11397,9 +10907,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="97"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -11409,13 +10919,13 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="122"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="119"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
@@ -11429,10 +10939,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="122" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -11479,8 +10989,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="119"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -11525,8 +11035,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -11571,8 +11081,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -11619,8 +11129,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -11665,10 +11175,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="83" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -11715,8 +11225,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -11761,8 +11271,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -11807,8 +11317,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="88" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="83" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -11855,8 +11365,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -11901,8 +11411,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -11947,8 +11457,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -11993,8 +11503,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -12039,8 +11549,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -12078,13 +11588,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -12093,6 +11596,1151 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="125"/>
+    </row>
+    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="125"/>
+      <c r="D4" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="40">
+        <v>114</v>
+      </c>
+      <c r="E5" s="40">
+        <v>26.6</v>
+      </c>
+      <c r="F5" s="42">
+        <f>D5/E5</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="40">
+        <v>147</v>
+      </c>
+      <c r="E6" s="40">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F6" s="42">
+        <f t="shared" ref="F6:F9" si="0">D6/E6</f>
+        <v>4.2857142857142865</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="40">
+        <v>185</v>
+      </c>
+      <c r="E7" s="40">
+        <v>43.1</v>
+      </c>
+      <c r="F7" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2923433874709973</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="40">
+        <v>241</v>
+      </c>
+      <c r="E8" s="40">
+        <v>56.3</v>
+      </c>
+      <c r="F8" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2806394316163416</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="40">
+        <v>288.5</v>
+      </c>
+      <c r="E9" s="40">
+        <v>67.3</v>
+      </c>
+      <c r="F9" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2867756315007428</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="40">
+        <v>394</v>
+      </c>
+      <c r="E10" s="40">
+        <v>51.1</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" ref="F10" si="1">D10/E10</f>
+        <v>7.7103718199608604</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="151" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="151" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="149" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="151"/>
+      <c r="D4" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+    </row>
+    <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="156"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="55" t="str">
+        <f>нагрів!D5</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="F6" s="55" t="str">
+        <f>нагрів!I5</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G6" s="57">
+        <f>'Таблиця 1-4'!E4</f>
+        <v>7.8</v>
+      </c>
+      <c r="H6" s="60">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I6" s="60">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J6" s="59">
+        <f>H6*G6</f>
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="K6" s="59">
+        <f>I6*G6</f>
+        <v>3.1590000000000003</v>
+      </c>
+      <c r="L6" s="55" t="str">
+        <f>нагрів!E5</f>
+        <v>62+32.8i</v>
+      </c>
+      <c r="M6" s="59">
+        <f>(IMREAL(L6)*J6+IMAGINARY(L6)*K6)/$N$6</f>
+        <v>1.0914327272727273</v>
+      </c>
+      <c r="N6" s="54">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="156"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="55" t="str">
+        <f>нагрів!D6</f>
+        <v>Д-В</v>
+      </c>
+      <c r="F7" s="55" t="str">
+        <f>нагрів!I6</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G7" s="58">
+        <f>'Таблиця 1-4'!E5</f>
+        <v>5.6</v>
+      </c>
+      <c r="H7" s="60">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0.42</v>
+      </c>
+      <c r="J7" s="59">
+        <f>H7*G7</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K7" s="59">
+        <f>I7*G7</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L7" s="61" t="str">
+        <f>нагрів!E6</f>
+        <v>35+19i</v>
+      </c>
+      <c r="M7" s="59">
+        <f>(IMREAL(L7)*J7+IMAGINARY(L7)*K7)/$N$6</f>
+        <v>0.75905454545454543</v>
+      </c>
+      <c r="N7" s="54"/>
+    </row>
+    <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="156"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="59">
+        <f>M6+M7</f>
+        <v>1.8504872727272728</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="156"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153" t="str">
+        <f>нагрів!D7</f>
+        <v>відключення ВП-Д</v>
+      </c>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="155"/>
+    </row>
+    <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="156"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="55" t="str">
+        <f>нагрів!D8</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="F10" s="55" t="str">
+        <f>нагрів!I8</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G10" s="55">
+        <f>'Таблиця 1-4'!E3</f>
+        <v>11.8</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0.12</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J10" s="59">
+        <f>H10*G10</f>
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="K10" s="59">
+        <f>I10*G10</f>
+        <v>4.7790000000000008</v>
+      </c>
+      <c r="L10" s="55" t="str">
+        <f>нагрів!E10</f>
+        <v>35+19i</v>
+      </c>
+      <c r="M10" s="59">
+        <f>(IMREAL(L10)*J10+IMAGINARY(L10)*K10)/$N$6</f>
+        <v>1.2760090909090911</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="156"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="55" t="str">
+        <f>нагрів!D9</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F11" s="55" t="str">
+        <f>нагрів!I9</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G11" s="55">
+        <f>G7</f>
+        <v>5.6</v>
+      </c>
+      <c r="H11" s="60">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I11" s="59">
+        <v>0.42</v>
+      </c>
+      <c r="J11" s="59">
+        <f>H11*G11</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K11" s="59">
+        <f>I11*G11</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L11" s="61" t="str">
+        <f>нагрів!E11</f>
+        <v>62+32.8i</v>
+      </c>
+      <c r="M11" s="59">
+        <f>(IMREAL(L11)*J11+IMAGINARY(L11)*K11)/$N$6</f>
+        <v>1.3262836363636361</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="156"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="59">
+        <f>M10+M11</f>
+        <v>2.6022927272727272</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="156"/>
+      <c r="D13" s="149" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="55" t="str">
+        <f>Fрозр!E7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F13" s="55" t="str">
+        <f>нагрів!I10</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G13" s="55">
+        <f>Потокорозподіл!D8</f>
+        <v>5.6</v>
+      </c>
+      <c r="H13" s="60">
+        <f>H11</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I13" s="59">
+        <f>I11</f>
+        <v>0.42</v>
+      </c>
+      <c r="J13" s="55">
+        <f>H13*G13</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K13" s="55">
+        <f>I13*G13</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L13" s="55" t="str">
+        <f>нагрів!E10</f>
+        <v>35+19i</v>
+      </c>
+      <c r="M13" s="59">
+        <f>(IMREAL(L13)*J13+IMAGINARY(L13)*K13)/$N$6</f>
+        <v>0.75905454545454543</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="55" t="str">
+        <f>Fрозр!E8</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="F14" s="55" t="str">
+        <f>нагрів!I11</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G14" s="55">
+        <f>Потокорозподіл!D9</f>
+        <v>7.8</v>
+      </c>
+      <c r="H14" s="60">
+        <f>H10</f>
+        <v>0.12</v>
+      </c>
+      <c r="I14" s="60">
+        <f>I10</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J14" s="55">
+        <f>H14*G14</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="K14" s="55">
+        <f>I14*G14</f>
+        <v>3.1590000000000003</v>
+      </c>
+      <c r="L14" s="55" t="str">
+        <f>нагрів!E11</f>
+        <v>62+32.8i</v>
+      </c>
+      <c r="M14" s="59">
+        <f>(IMREAL(L14)*J14+IMAGINARY(L14)*K14)/$N$6</f>
+        <v>1.4695199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="59">
+        <f>M13+M14</f>
+        <v>2.2285745454545456</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="151" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="153" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="155"/>
+    </row>
+    <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="55" t="str">
+        <f>нагрів!D13</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="F17" s="55" t="str">
+        <f>нагрів!I13</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G17" s="55">
+        <v>7.8</v>
+      </c>
+      <c r="H17" s="60">
+        <f>H10</f>
+        <v>0.12</v>
+      </c>
+      <c r="I17" s="60">
+        <f>I10</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J17" s="55">
+        <f>H17*G17</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="K17" s="55">
+        <f>I17*G17</f>
+        <v>3.1590000000000003</v>
+      </c>
+      <c r="L17" s="55" t="str">
+        <f>нагрів!E13</f>
+        <v>67+32.5i</v>
+      </c>
+      <c r="M17" s="59">
+        <f>(IMREAL(L17)*J17+IMAGINARY(L14)*K17)/$N$6</f>
+        <v>1.5120654545454546</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="55" t="str">
+        <f>нагрів!D14</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="F18" s="55" t="str">
+        <f>нагрів!I14</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G18" s="55">
+        <v>5.6</v>
+      </c>
+      <c r="H18" s="60">
+        <f>H11</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I18" s="59">
+        <f>I11</f>
+        <v>0.42</v>
+      </c>
+      <c r="J18" s="55">
+        <f>H18*G18</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K18" s="55">
+        <f>I18*G18</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L18" s="55" t="str">
+        <f>нагрів!E14</f>
+        <v>32+15.5i</v>
+      </c>
+      <c r="M18" s="59">
+        <f>(IMREAL(L18)*J18+IMAGINARY(L15)*K18)/$N$6</f>
+        <v>0.32256000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="59">
+        <f>M17+M18</f>
+        <v>1.8346254545454546</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="155"/>
+    </row>
+    <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="55" t="str">
+        <f>нагрів!D16</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="F21" s="55" t="str">
+        <f>нагрів!I16</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G21" s="55">
+        <f>11.8</f>
+        <v>11.8</v>
+      </c>
+      <c r="H21" s="55">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I21" s="55">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J21" s="58">
+        <f>H21*G21</f>
+        <v>0.40120000000000006</v>
+      </c>
+      <c r="K21" s="58">
+        <f>G21*I21</f>
+        <v>4.7790000000000008</v>
+      </c>
+      <c r="L21" s="55" t="str">
+        <f>нагрів!E16</f>
+        <v>67+32.5i</v>
+      </c>
+      <c r="M21" s="59">
+        <f>(IMREAL(L21)*J21+IMAGINARY(L21)*K21)/$N$6</f>
+        <v>1.6563445454545458</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="55" t="str">
+        <f>нагрів!D17</f>
+        <v>Г-Е</v>
+      </c>
+      <c r="F22" s="55" t="str">
+        <f>нагрів!I17</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G22" s="55">
+        <v>5.6</v>
+      </c>
+      <c r="H22" s="55">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I22" s="55">
+        <v>0.42</v>
+      </c>
+      <c r="J22" s="58">
+        <f>H22*G22</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K22" s="58">
+        <f>G22*I22</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L22" s="55" t="str">
+        <f>нагрів!E17</f>
+        <v>35+17i</v>
+      </c>
+      <c r="M22" s="59">
+        <f>(IMREAL(L22)*J22+IMAGINARY(L22)*K22)/$N$6</f>
+        <v>0.71629090909090909</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="59">
+        <f>M21+M22</f>
+        <v>2.3726354545454549</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="151"/>
+      <c r="D24" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="55" t="str">
+        <f>нагрів!D18</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="F24" s="55" t="str">
+        <f>нагрів!I18</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G24" s="55">
+        <f>'Таблиця 1-4'!E11</f>
+        <v>5.4</v>
+      </c>
+      <c r="H24" s="55">
+        <f>H21</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I24" s="55">
+        <f>I21</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J24" s="55">
+        <f>H24*G24</f>
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="K24" s="55">
+        <f>I24*G24</f>
+        <v>2.1870000000000003</v>
+      </c>
+      <c r="L24" s="55" t="str">
+        <f>нагрів!E18</f>
+        <v>67+32.5i</v>
+      </c>
+      <c r="M24" s="59">
+        <f>(IMREAL(L24)*J24+IMAGINARY(L24)*K24)/$N$6</f>
+        <v>0.75798818181818195</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="55" t="str">
+        <f>нагрів!D19</f>
+        <v>Г-2</v>
+      </c>
+      <c r="F25" s="55" t="str">
+        <f>нагрів!I19</f>
+        <v>АС-120/27</v>
+      </c>
+      <c r="G25" s="55">
+        <f>'Таблиця 1-4'!E12</f>
+        <v>7.2</v>
+      </c>
+      <c r="H25" s="55">
+        <f>0.249</f>
+        <v>0.249</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J25" s="55">
+        <f>H25*G25</f>
+        <v>1.7927999999999999</v>
+      </c>
+      <c r="K25" s="55">
+        <f>I25*G25</f>
+        <v>3.0743999999999998</v>
+      </c>
+      <c r="L25" s="55" t="str">
+        <f>нагрів!E19</f>
+        <v>32+15.5i</v>
+      </c>
+      <c r="M25" s="59">
+        <f t="shared" ref="M25:M26" si="0">(IMREAL(L25)*J25+IMAGINARY(L25)*K25)/$N$6</f>
+        <v>0.9547527272727272</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="55" t="str">
+        <f>нагрів!D20</f>
+        <v>Е-2</v>
+      </c>
+      <c r="F26" s="55" t="str">
+        <f>нагрів!I20</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G26" s="55">
+        <f>'Таблиця 1-4'!E13</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H26" s="60">
+        <f>H18</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I26" s="59">
+        <f>I18</f>
+        <v>0.42</v>
+      </c>
+      <c r="J26" s="55">
+        <f>H26*G26</f>
+        <v>1.6434000000000002</v>
+      </c>
+      <c r="K26" s="55">
+        <f>I26*G26</f>
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="L26" s="55" t="str">
+        <f>нагрів!E20</f>
+        <v>35+17i</v>
+      </c>
+      <c r="M26" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0616454545454546</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="153" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="59">
+        <f>M26</f>
+        <v>1.0616454545454546</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="59">
+        <f>M24+M25</f>
+        <v>1.7127409090909091</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="149"/>
+      <c r="E29" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="55" t="str">
+        <f>нагрів!I21</f>
+        <v>АС-400/51</v>
+      </c>
+      <c r="G29" s="55">
+        <v>14.8</v>
+      </c>
+      <c r="H29" s="55">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I29" s="55">
+        <v>0.42</v>
+      </c>
+      <c r="J29" s="59">
+        <f>H29*G29</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K29" s="59">
+        <f>I29*G29</f>
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="L29" s="55" t="str">
+        <f>нагрів!E21</f>
+        <v>166.15+116.7i</v>
+      </c>
+      <c r="M29" s="59">
+        <f>(IMREAL(L29)*J29+IMAGINARY(L29)*K29)/$N$29</f>
+        <v>4.1356077272727276</v>
+      </c>
+      <c r="N29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="151"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="55" t="str">
+        <f>нагрів!I22</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G30" s="55">
+        <v>22.6</v>
+      </c>
+      <c r="H30" s="55">
+        <f>0.034</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I30" s="55">
+        <f>0.429</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J30" s="59">
+        <f t="shared" ref="J30:J31" si="1">H30*G30</f>
+        <v>0.76840000000000008</v>
+      </c>
+      <c r="K30" s="59">
+        <f t="shared" ref="K30:K31" si="2">I30*G30</f>
+        <v>9.6954000000000011</v>
+      </c>
+      <c r="L30" s="55" t="str">
+        <f>нагрів!E22</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="M30" s="59">
+        <f>(IMREAL(L30)*J30+IMAGINARY(L30)*K30)/$N$29</f>
+        <v>5.0805210909090919</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="151"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="55" t="str">
+        <f>нагрів!I23</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G31" s="55">
+        <v>10.8</v>
+      </c>
+      <c r="H31" s="60">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I31" s="60">
+        <f>0.429</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J31" s="59">
+        <f t="shared" si="1"/>
+        <v>0.25920000000000004</v>
+      </c>
+      <c r="K31" s="59">
+        <f t="shared" si="2"/>
+        <v>4.6332000000000004</v>
+      </c>
+      <c r="L31" s="55" t="str">
+        <f>нагрів!E23</f>
+        <v>20+13i</v>
+      </c>
+      <c r="M31" s="59">
+        <f t="shared" ref="M31" si="3">(IMREAL(L31)*J31+IMAGINARY(L31)*K31)/$N$29</f>
+        <v>0.29734363636363642</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="59">
+        <f>M29+M30</f>
+        <v>9.2161288181818186</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="59">
+        <f>M29+M31</f>
+        <v>4.4329513636363638</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="309">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -1366,12 +1366,6 @@
     </r>
   </si>
   <si>
-    <t>ТРДН</t>
-  </si>
-  <si>
-    <t>атдцтн</t>
-  </si>
-  <si>
     <t>табл 1.9</t>
   </si>
   <si>
@@ -1555,9 +1549,6 @@
   </si>
   <si>
     <t>4xУК-10-1800</t>
-  </si>
-  <si>
-    <t>ТДТН</t>
   </si>
   <si>
     <t>ТДТН-25000/220/35/10</t>
@@ -2144,25 +2135,10 @@
     <t>rV</t>
   </si>
   <si>
-    <t>ТМН-6300/35</t>
-  </si>
-  <si>
-    <t>ТРДН-25000/110</t>
-  </si>
-  <si>
-    <t>ТДН-16000/110</t>
-  </si>
-  <si>
-    <t>ТМН-4000/35</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>в-с</t>
-  </si>
-  <si>
-    <t>100/100/100</t>
   </si>
   <si>
     <r>
@@ -2414,6 +2390,18 @@
   </si>
   <si>
     <t>більше 220 кВ</t>
+  </si>
+  <si>
+    <t>табл 2.3</t>
+  </si>
+  <si>
+    <t>табл 2.1</t>
+  </si>
+  <si>
+    <t>100/100/47</t>
+  </si>
+  <si>
+    <t>A (ВП)</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3342,157 +3330,27 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3741,289 +3599,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4035,88 +3614,13 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4181,6 +3685,306 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9979,15 +9783,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>152012</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>84753</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>380612</xdr:colOff>
+          <xdr:colOff>381000</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>332403</xdr:rowOff>
+          <xdr:rowOff>333375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10032,13 +9836,13 @@
           <xdr:col>30</xdr:col>
           <xdr:colOff>161925</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>47237</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
           <xdr:colOff>523875</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>323462</xdr:rowOff>
+          <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10081,15 +9885,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>32</xdr:col>
-          <xdr:colOff>74839</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>46070</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>32</xdr:col>
-          <xdr:colOff>360589</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>312770</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10132,15 +9936,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>33</xdr:col>
-          <xdr:colOff>74450</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>27603</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>33</xdr:col>
-          <xdr:colOff>388775</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>284778</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10183,15 +9987,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>34</xdr:col>
-          <xdr:colOff>85336</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>17884</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>34</xdr:col>
-          <xdr:colOff>494911</xdr:colOff>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>275059</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10234,15 +10038,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>38</xdr:col>
-          <xdr:colOff>164841</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>171256</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>38</xdr:col>
-          <xdr:colOff>526791</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>417157</xdr:rowOff>
+          <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10285,15 +10089,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>39</xdr:col>
-          <xdr:colOff>97000</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>74256</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>39</xdr:col>
-          <xdr:colOff>516100</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>320157</xdr:rowOff>
+          <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10336,15 +10140,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>40</xdr:col>
-          <xdr:colOff>115855</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>46458</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>40</xdr:col>
-          <xdr:colOff>496855</xdr:colOff>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>288471</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10387,15 +10191,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>41</xdr:col>
-          <xdr:colOff>136072</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>96222</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>41</xdr:col>
-          <xdr:colOff>536122</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>347760</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10438,15 +10242,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>42</xdr:col>
-          <xdr:colOff>125963</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>114494</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>42</xdr:col>
-          <xdr:colOff>487913</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>356507</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10491,13 +10295,13 @@
           <xdr:col>48</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>103803</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>48</xdr:col>
           <xdr:colOff>466725</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>359229</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10603,139 +10407,8 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="12">
-          <cell r="E12" t="str">
-            <v>ВП-3</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>АС-150/34</v>
-          </cell>
-          <cell r="G12">
-            <v>6.6</v>
-          </cell>
           <cell r="H12">
             <v>0.19800000000000001</v>
-          </cell>
-          <cell r="I12">
-            <v>0.40600000000000003</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>3-Б</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>АС-150/34</v>
-          </cell>
-          <cell r="G13">
-            <v>1.8</v>
-          </cell>
-          <cell r="H13">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="I13">
-            <v>0.40600000000000003</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>3-Д</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>АС-150/34</v>
-          </cell>
-          <cell r="G14">
-            <v>7.8</v>
-          </cell>
-          <cell r="H14">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="I14">
-            <v>0.40600000000000003</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v>ВП-2</v>
-          </cell>
-          <cell r="F25" t="str">
-            <v>АС-150/34</v>
-          </cell>
-          <cell r="G25">
-            <v>8.1999999999999993</v>
-          </cell>
-          <cell r="H25">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="I25">
-            <v>0.40600000000000003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26" t="str">
-            <v>2-Г</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>АС-120/27</v>
-          </cell>
-          <cell r="G26">
-            <v>4</v>
-          </cell>
-          <cell r="H26">
-            <v>0.249</v>
-          </cell>
-          <cell r="I26">
-            <v>0.41399999999999998</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27" t="str">
-            <v>2-Е</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>АС-120/27</v>
-          </cell>
-          <cell r="G27">
-            <v>8.4</v>
-          </cell>
-          <cell r="H27">
-            <v>0.249</v>
-          </cell>
-          <cell r="I27">
-            <v>0.41399999999999998</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>ДЖ-В</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>АС-185/43</v>
-          </cell>
-          <cell r="G30">
-            <v>23.3</v>
-          </cell>
-          <cell r="H30">
-            <v>0.16200000000000001</v>
-          </cell>
-          <cell r="I30">
-            <v>0.41299999999999998</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31" t="str">
-            <v>В-А</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>АС-150/34</v>
-          </cell>
-          <cell r="G31">
-            <v>6.6</v>
-          </cell>
-          <cell r="H31">
-            <v>0.19800000000000001</v>
-          </cell>
-          <cell r="I31">
-            <v>0.42</v>
           </cell>
         </row>
       </sheetData>
@@ -10756,20 +10429,12 @@
             <v>17.850000000000001</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="G26" t="str">
-            <v>ТДТН-25000/110/35</v>
-          </cell>
-        </row>
         <row r="27">
           <cell r="C27" t="str">
             <v>Б</v>
           </cell>
           <cell r="F27" t="str">
             <v>6+1,4i</v>
-          </cell>
-          <cell r="G27" t="str">
-            <v>ТМН-6300/35</v>
           </cell>
         </row>
         <row r="28">
@@ -10787,9 +10452,6 @@
           <cell r="F29" t="str">
             <v>7+1,85i</v>
           </cell>
-          <cell r="G29" t="str">
-            <v>ТМН-6300/35</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="C30" t="str">
@@ -10798,9 +10460,6 @@
           <cell r="F30" t="str">
             <v>5+1,4i</v>
           </cell>
-          <cell r="G30" t="str">
-            <v>ТМН-4000/35</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="C31" t="str">
@@ -10808,9 +10467,6 @@
           </cell>
           <cell r="F31" t="str">
             <v>5+1,2i</v>
-          </cell>
-          <cell r="G31" t="str">
-            <v>ТМН-4000/35</v>
           </cell>
         </row>
       </sheetData>
@@ -11107,10 +10763,10 @@
             <v>2-Е</v>
           </cell>
           <cell r="L5" t="str">
-            <v>1,05+1,74i</v>
+            <v>1.05+1.74i</v>
           </cell>
-          <cell r="N5" t="str">
-            <v>5,063+1,559i</v>
+          <cell r="N5" t="e">
+            <v>#NUM!</v>
           </cell>
         </row>
         <row r="6">
@@ -11131,8 +10787,8 @@
           <cell r="L7" t="str">
             <v>0,81+1,66i</v>
           </cell>
-          <cell r="N7" t="str">
-            <v>12,239+4,079i</v>
+          <cell r="N7" t="e">
+            <v>#NUM!</v>
           </cell>
         </row>
         <row r="8">
@@ -11175,8 +10831,8 @@
           <cell r="L11" t="str">
             <v>0,7406</v>
           </cell>
-          <cell r="N11" t="str">
-            <v>23,449+7,728i</v>
+          <cell r="N11" t="e">
+            <v>#NUM!</v>
           </cell>
         </row>
         <row r="12">
@@ -11197,8 +10853,8 @@
           <cell r="L13" t="str">
             <v>0,7406+28,43i</v>
           </cell>
-          <cell r="N13" t="str">
-            <v>27,501+10,913i</v>
+          <cell r="N13" t="e">
+            <v>#NUM!</v>
           </cell>
         </row>
         <row r="14">
@@ -11206,10 +10862,10 @@
             <v>В-А(ШВН)</v>
           </cell>
           <cell r="L14" t="str">
-            <v>0,65+1,39i</v>
+            <v>0.65+1.39i</v>
           </cell>
-          <cell r="N14" t="str">
-            <v>27,605+11,149i</v>
+          <cell r="N14" t="e">
+            <v>#NUM!</v>
           </cell>
         </row>
         <row r="15">
@@ -11217,10 +10873,10 @@
             <v>ДЖ-В</v>
           </cell>
           <cell r="L15" t="str">
-            <v>1,89+4,81i</v>
+            <v>1.89+4.81i</v>
           </cell>
-          <cell r="N15" t="str">
-            <v>48,112+17,899i</v>
+          <cell r="N15" t="e">
+            <v>#NUM!</v>
           </cell>
         </row>
       </sheetData>
@@ -11537,7 +11193,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11555,14 +11211,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="120" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11578,7 +11234,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="120"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -11785,7 +11441,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="120" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -11815,7 +11471,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -12177,7 +11833,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B34">
         <v>7100</v>
@@ -12185,7 +11841,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B36">
         <f>ROUND((0.124+B34/10000)^2*8760,0)</f>
@@ -12212,8 +11868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12228,54 +11884,54 @@
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="130" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="158" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="158" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="98"/>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="135"/>
       <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>Потокорозподіл!F26</f>
         <v>146.15</v>
@@ -12317,11 +11973,8 @@
         <f>F5/H5</f>
         <v>1.4336194753141434</v>
       </c>
-      <c r="L5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>'Табл1-1  1-2'!B5</f>
         <v>20</v>
@@ -12363,11 +12016,8 @@
         <f>F6/H6</f>
         <v>0.95414883535012507</v>
       </c>
-      <c r="L6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'Табл1-1  1-2'!B6</f>
         <v>35</v>
@@ -12409,11 +12059,8 @@
         <f>F7/H7</f>
         <v>0.99561538758699386</v>
       </c>
-      <c r="L7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'Табл1-1  1-2'!B7</f>
         <v>32</v>
@@ -12455,11 +12102,8 @@
         <f t="shared" ref="K8:K10" si="4">F8/H8</f>
         <v>1.4222517358048821</v>
       </c>
-      <c r="L8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'Табл1-1  1-2'!B8</f>
         <v>27</v>
@@ -12501,11 +12145,8 @@
         <f t="shared" si="4"/>
         <v>1.2128907617753548</v>
       </c>
-      <c r="L9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'Табл1-1  1-2'!B9</f>
         <v>35</v>
@@ -12547,54 +12188,51 @@
         <f t="shared" si="4"/>
         <v>0.97275382291718593</v>
       </c>
-      <c r="L10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="130" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="130" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="96" t="s">
+      <c r="I15" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="96" t="s">
+      <c r="K15" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" s="96" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="98"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="106"/>
+    </row>
+    <row r="16" spans="1:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="135"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="129"/>
     </row>
     <row r="17" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -12626,18 +12264,22 @@
         <v>8</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I17" s="33">
         <f>'Табл1-1  1-2'!F4</f>
         <v>6</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K17" s="33">
         <f>4*0.9+4*1.125</f>
         <v>8.1</v>
+      </c>
+      <c r="L17">
+        <f>(G23-K23)/G23*100</f>
+        <v>-0.91743119266055628</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12670,14 +12312,14 @@
         <v>8</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I18" s="33">
         <f>'Табл1-1  1-2'!F5</f>
         <v>10</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K18" s="33">
         <f>4*0.9+4*1.125</f>
@@ -12714,14 +12356,14 @@
         <v>10.249999999999998</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I19" s="33">
         <f>'Табл1-1  1-2'!F6</f>
         <v>10</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K19" s="33">
         <f>4*2.7</f>
@@ -12758,14 +12400,14 @@
         <v>7.5</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I20" s="33">
         <f>'Табл1-1  1-2'!F7</f>
         <v>10</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K20" s="33">
         <f>4*1.8</f>
@@ -12802,14 +12444,14 @@
         <v>7.0500000000000016</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I21" s="33">
         <f>'Табл1-1  1-2'!F8</f>
         <v>6</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K21" s="33">
         <f>4*1.8</f>
@@ -12846,7 +12488,7 @@
         <v>8.25</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I22" s="33">
         <f>'Табл1-1  1-2'!F9</f>
@@ -12862,83 +12504,79 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="125"/>
+      <c r="C23" s="155" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="157"/>
       <c r="G23" s="70">
         <f>SUM(G17:G22)</f>
         <v>49.050000000000004</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K23" s="70">
         <f>SUM(K17:K22)</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="L23">
-        <f>(G23-K23)/G23*100</f>
-        <v>-0.91743119266055628</v>
-      </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="96" t="s">
+      <c r="G28" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="F28" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="126" t="str">
+      <c r="I28" s="158" t="str">
         <f>I3</f>
         <v>nт</v>
       </c>
-      <c r="J28" s="126" t="str">
+      <c r="J28" s="158" t="str">
         <f>J3</f>
         <v>Kз</v>
       </c>
-      <c r="K28" s="126" t="str">
+      <c r="K28" s="158" t="str">
         <f>K3</f>
         <v>Kзав</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
+        <v>206</v>
+      </c>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
     </row>
     <row r="30" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -13164,6 +12802,7 @@
         <f t="shared" si="17"/>
         <v>0.60644538088767741</v>
       </c>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -13209,84 +12848,88 @@
         <f t="shared" si="17"/>
         <v>0.48637691145859296</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="72"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="72"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L37" s="73"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>214</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="L38" s="73"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="99" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="128" t="s">
+      <c r="D40" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="153" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="154"/>
+      <c r="H40" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="155" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
+    </row>
+    <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="G40" s="129"/>
-      <c r="H40" s="99" t="s">
+      <c r="G41" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="I40" s="123" t="s">
-        <v>217</v>
-      </c>
-      <c r="J40" s="124"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="73"/>
-    </row>
-    <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="100"/>
-      <c r="I41" s="126" t="str">
+      <c r="H41" s="137"/>
+      <c r="I41" s="158" t="str">
         <f>J28</f>
         <v>Kз</v>
       </c>
-      <c r="J41" s="126" t="str">
+      <c r="J41" s="158" t="str">
         <f>K28</f>
         <v>Kзав</v>
       </c>
-      <c r="K41" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="L41" s="72"/>
-    </row>
-    <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="105"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="72"/>
-    </row>
-    <row r="43" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="106"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="73"/>
+      <c r="K41" s="130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="128"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="134"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="129"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
     </row>
     <row r="44" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="64" t="s">
@@ -13320,9 +12963,8 @@
         <v>1.2869689438754923</v>
       </c>
       <c r="K44" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="L44" s="73"/>
+        <v>220</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="64" t="s">
@@ -13355,7 +12997,7 @@
         <v>1.4379095938201401</v>
       </c>
       <c r="K45" s="74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13389,11 +13031,37 @@
         <v>2.0661804283508256</v>
       </c>
       <c r="K46" s="69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="I40:K40"/>
@@ -13405,32 +13073,6 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13471,7 +13113,7 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,70 +13128,70 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="154" t="s">
+      <c r="E2" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="150" t="s">
+      <c r="I2" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="154" t="s">
+      <c r="J2" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="172" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="149"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="153"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="173"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="181" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="183"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="144"/>
-      <c r="C5" s="146"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="185"/>
       <c r="D5" s="41" t="s">
         <v>68</v>
       </c>
@@ -13579,8 +13221,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="144"/>
-      <c r="C6" s="146"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="185"/>
       <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
@@ -13610,22 +13252,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="147"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="141" t="s">
+      <c r="B7" s="171"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="143"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="169"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="147"/>
-      <c r="C8" s="146"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="185"/>
       <c r="D8" s="41" t="s">
         <v>73</v>
       </c>
@@ -13655,8 +13297,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="147"/>
-      <c r="C9" s="146"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="185"/>
       <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
@@ -13687,8 +13329,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="147"/>
-      <c r="C10" s="144" t="s">
+      <c r="B10" s="171"/>
+      <c r="C10" s="170" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="53" t="str">
@@ -13721,8 +13363,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="147"/>
-      <c r="C11" s="145"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="53" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -13753,26 +13395,26 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="169"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="144"/>
-      <c r="C13" s="146"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="185"/>
       <c r="D13" s="41" t="s">
         <v>80</v>
       </c>
@@ -13802,8 +13444,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="144"/>
-      <c r="C14" s="146"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="185"/>
       <c r="D14" s="41" t="s">
         <v>81</v>
       </c>
@@ -13833,22 +13475,22 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="147"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="141" t="s">
+      <c r="B15" s="171"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="147"/>
-      <c r="C16" s="146"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="185"/>
       <c r="D16" s="41" t="s">
         <v>79</v>
       </c>
@@ -13878,8 +13520,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="147"/>
-      <c r="C17" s="146"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="185"/>
       <c r="D17" s="41" t="s">
         <v>142</v>
       </c>
@@ -13909,8 +13551,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="147"/>
-      <c r="C18" s="144" t="s">
+      <c r="B18" s="171"/>
+      <c r="C18" s="170" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="52" t="str">
@@ -13943,8 +13585,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="147"/>
-      <c r="C19" s="145"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="184"/>
       <c r="D19" s="52" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
@@ -13975,8 +13617,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="147"/>
-      <c r="C20" s="145"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="184"/>
       <c r="D20" s="52" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
@@ -14008,10 +13650,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="133"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -14043,8 +13685,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="134"/>
-      <c r="C22" s="136"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="179"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -14076,8 +13718,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="135"/>
-      <c r="C23" s="137"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="180"/>
       <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -14110,6 +13752,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
@@ -14122,16 +13774,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14220,68 +13862,68 @@
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="114"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="114" t="s">
+      <c r="E5" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="112" t="s">
-        <v>257</v>
-      </c>
-      <c r="J5" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="144" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="144" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="114" t="s">
-        <v>254</v>
+      <c r="N5" s="147" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -14292,10 +13934,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="147" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="80" t="str">
@@ -14349,8 +13991,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="80" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -14400,8 +14042,8 @@
         <f>-Потокорозподіл!F7</f>
         <v>4.625</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="157"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="80" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -14443,16 +14085,16 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="188"/>
       <c r="M11" s="81">
         <f>SUM(M8:M10)</f>
         <v>0.24</v>
@@ -14471,8 +14113,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="112" t="s">
+      <c r="C12" s="186"/>
+      <c r="D12" s="144" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="80" t="str">
@@ -14523,8 +14165,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
       <c r="E13" s="80" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -14565,16 +14207,16 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
       <c r="M14" s="81">
         <f>SUM(M12:M13)</f>
         <v>0.26300000000000001</v>
@@ -14593,10 +14235,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C15" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="114" t="s">
+      <c r="C15" s="147" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="147" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="80" t="str">
@@ -14646,8 +14288,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="80" t="str">
         <f>Потокорозподіл!C12</f>
         <v>ВП-Е</v>
@@ -14696,8 +14338,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
       <c r="E17" s="80" t="str">
         <f>Потокорозподіл!C13</f>
         <v>Е-Г</v>
@@ -14738,8 +14380,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="83"/>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
@@ -14766,8 +14408,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="147"/>
+      <c r="D19" s="147" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="80" t="str">
@@ -14817,8 +14459,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="157"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="187"/>
       <c r="E20" s="80" t="str">
         <f>Потокорозподіл!C15</f>
         <v>Г-2</v>
@@ -14866,8 +14508,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="157"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="187"/>
       <c r="E21" s="80" t="str">
         <f>Потокорозподіл!C16</f>
         <v>Е-2</v>
@@ -14907,16 +14549,16 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="114"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
       <c r="M22" s="81">
         <f>SUM(M19:M21)</f>
         <v>0.34399999999999997</v>
@@ -14943,15 +14585,6 @@
     <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="D8:D11"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
@@ -14964,6 +14597,15 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15218,10 +14860,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="198" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -15243,13 +14885,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="164">
+      <c r="I3" s="194">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="160"/>
-      <c r="C4" s="169"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -15269,11 +14911,11 @@
         <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="134"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="170"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="200"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -15293,11 +14935,11 @@
         <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
         <v>50.3</v>
       </c>
-      <c r="I5" s="165"/>
+      <c r="I5" s="195"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="160"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="190"/>
+      <c r="C6" s="201" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -15319,13 +14961,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="162">
+      <c r="I6" s="192">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="167"/>
-      <c r="C7" s="170"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -15345,13 +14987,13 @@
         <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="165"/>
+      <c r="I7" s="195"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="201" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -15373,13 +15015,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="173">
+      <c r="I8" s="203">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
-      <c r="C9" s="169"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="199"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -15399,11 +15041,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="174"/>
+      <c r="I9" s="204"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="160"/>
-      <c r="C10" s="170"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -15423,11 +15065,11 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="175"/>
+      <c r="I10" s="205"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160"/>
-      <c r="C11" s="171" t="s">
+      <c r="B11" s="190"/>
+      <c r="C11" s="201" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -15449,13 +15091,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="173">
+      <c r="I11" s="203">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="160"/>
-      <c r="C12" s="169"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -15475,11 +15117,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="174"/>
+      <c r="I12" s="204"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="167"/>
-      <c r="C13" s="170"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="200"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -15499,13 +15141,13 @@
         <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="175"/>
+      <c r="I13" s="205"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="189" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="162"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -15525,13 +15167,13 @@
         <f t="shared" si="1"/>
         <v>159.1</v>
       </c>
-      <c r="I14" s="173">
+      <c r="I14" s="203">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="160"/>
-      <c r="C15" s="134"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="177"/>
       <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -15551,11 +15193,11 @@
         <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="I15" s="174"/>
+      <c r="I15" s="204"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="161"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -15575,7 +15217,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="175"/>
+      <c r="I16" s="205"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -15732,7 +15374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:BA41"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
@@ -15749,171 +15391,171 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="112" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="112" t="s">
+      <c r="L2" s="144" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="L2" s="112" t="s">
+    </row>
+    <row r="3" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="186"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="186"/>
+    </row>
+    <row r="4" spans="3:53" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="152"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="152"/>
+      <c r="O4" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="T4" s="75" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="156"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="156"/>
-    </row>
-    <row r="4" spans="3:53" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="113"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="113"/>
-      <c r="O4" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="96" t="s">
+      <c r="U4" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="V4" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="W4" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="S4" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="T4" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="U4" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="V4" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="W4" s="76" t="s">
-        <v>238</v>
-      </c>
       <c r="X4" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA4" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA4" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="112" t="s">
+      <c r="AB4" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="AC4" s="112" t="s">
+      <c r="AC4" s="144" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD4" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE4" s="144" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF4" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="AD4" s="112" t="s">
+      <c r="AG4" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="AE4" s="112" t="s">
+      <c r="AH4" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="AF4" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG4" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH4" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI4" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK4" s="112" t="s">
+      <c r="AI4" s="144" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK4" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" s="112" t="s">
+      <c r="AL4" s="144" t="s">
         <v>106</v>
       </c>
       <c r="AM4" s="85" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AN4" s="85" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AO4" s="85" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AP4" s="85" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AQ4" s="85" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AS4" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT4" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU4" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV4" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="AT4" s="85" t="s">
+      <c r="AW4" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX4" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="AU4" s="85" t="s">
+      <c r="AY4" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="AV4" s="85" t="s">
+      <c r="AZ4" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="AW4" s="85" t="s">
-        <v>235</v>
-      </c>
-      <c r="AX4" s="85" t="s">
+      <c r="BA4" s="85" t="s">
         <v>263</v>
-      </c>
-      <c r="AY4" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ4" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="BA4" s="85" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="3:53" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="112" t="str">
+      <c r="D5" s="144" t="str">
         <f>'Таблиця 1-4'!C3</f>
         <v>а</v>
       </c>
@@ -15934,7 +15576,7 @@
         <v>АС-240/56</v>
       </c>
       <c r="I5" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J5" s="85">
         <f>16.6</f>
@@ -15947,85 +15589,85 @@
         <f>J5*F5*K5</f>
         <v>195.88000000000002</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
       <c r="R5" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="S5" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="U5" s="134"/>
+      <c r="V5" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="W5" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="S5" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="U5" s="97"/>
-      <c r="V5" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="W5" s="44" t="s">
-        <v>242</v>
-      </c>
       <c r="X5" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="156"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="176"/>
-      <c r="AH5" s="156"/>
-      <c r="AI5" s="156"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
+        <v>238</v>
+      </c>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
+      <c r="AE5" s="186"/>
+      <c r="AF5" s="211"/>
+      <c r="AG5" s="211"/>
+      <c r="AH5" s="186"/>
+      <c r="AI5" s="186"/>
+      <c r="AK5" s="149"/>
+      <c r="AL5" s="149"/>
       <c r="AM5" s="85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AN5" s="85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AO5" s="85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AP5" s="85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AQ5" s="84" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AS5" s="85" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AT5" s="85" t="s">
         <v>146</v>
       </c>
       <c r="AU5" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV5" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW5" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX5" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY5" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ5" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="BA5" s="85" t="s">
         <v>267</v>
-      </c>
-      <c r="AV5" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW5" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX5" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="AY5" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ5" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="BA5" s="85" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="3:53" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="86"/>
-      <c r="D6" s="156"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="85" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -16043,7 +15685,7 @@
         <v>АС-300/67</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J6" s="85">
         <f>19.2</f>
@@ -16056,61 +15698,61 @@
         <f>J6*F6*K6</f>
         <v>149.76</v>
       </c>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
       <c r="R6" s="78"/>
       <c r="S6" s="33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T6" s="78"/>
-      <c r="U6" s="98"/>
+      <c r="U6" s="135"/>
       <c r="V6" s="78"/>
       <c r="W6" s="78"/>
       <c r="X6" s="78"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="177"/>
-      <c r="AD6" s="177"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="177"/>
-      <c r="AG6" s="177"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="120"/>
+      <c r="AA6" s="150"/>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="212"/>
+      <c r="AD6" s="212"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="212"/>
+      <c r="AG6" s="212"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AK6" s="150"/>
+      <c r="AL6" s="150"/>
       <c r="AM6" s="87"/>
       <c r="AN6" s="87"/>
       <c r="AO6" s="87"/>
       <c r="AP6" s="87"/>
       <c r="AQ6" s="85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AS6" s="87"/>
       <c r="AT6" s="87"/>
       <c r="AU6" s="87"/>
       <c r="AV6" s="85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AW6" s="85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AX6" s="85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AY6" s="85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AZ6" s="85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BA6" s="87"/>
     </row>
     <row r="7" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="156"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="85" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -16128,7 +15770,7 @@
         <v>АС-150/34</v>
       </c>
       <c r="I7" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J7" s="85">
         <f>'Таблиця 1-4'!E3</f>
@@ -16141,14 +15783,14 @@
         <f>J7*F7*K7</f>
         <v>66.08</v>
       </c>
-      <c r="O7" s="178" t="s">
+      <c r="O7" s="209" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>51</v>
       </c>
       <c r="Q7" s="79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R7" s="33">
         <v>2</v>
@@ -16161,7 +15803,7 @@
         <v>18.2</v>
       </c>
       <c r="U7" s="79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V7" s="33">
         <v>2</v>
@@ -16173,7 +15815,7 @@
         <f>V7*W7</f>
         <v>42</v>
       </c>
-      <c r="AA7" s="112" t="s">
+      <c r="AA7" s="144" t="s">
         <v>19</v>
       </c>
       <c r="AB7" s="85" t="s">
@@ -16183,7 +15825,7 @@
         <f>L10</f>
         <v>153.44</v>
       </c>
-      <c r="AD7" s="112">
+      <c r="AD7" s="144">
         <v>7.2</v>
       </c>
       <c r="AE7" s="85">
@@ -16194,7 +15836,7 @@
         <f>T7+X7</f>
         <v>60.2</v>
       </c>
-      <c r="AG7" s="112">
+      <c r="AG7" s="144">
         <v>14.4</v>
       </c>
       <c r="AH7" s="85">
@@ -16205,7 +15847,7 @@
         <f>AE7+AH7</f>
         <v>19.72</v>
       </c>
-      <c r="AK7" s="112" t="s">
+      <c r="AK7" s="144" t="s">
         <v>19</v>
       </c>
       <c r="AL7" s="85" t="s">
@@ -16228,7 +15870,7 @@
         <f>ROUND(1.68*AM7,1)</f>
         <v>2456.6999999999998</v>
       </c>
-      <c r="AS7" s="112" t="s">
+      <c r="AS7" s="144" t="s">
         <v>19</v>
       </c>
       <c r="AT7" s="85" t="str">
@@ -16259,8 +15901,8 @@
       <c r="BA7" s="58"/>
     </row>
     <row r="8" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
       <c r="E8" s="85" t="str">
         <f>'Таблиця 1-4'!D6</f>
         <v>В-Д</v>
@@ -16278,7 +15920,7 @@
         <v>АС-240/56</v>
       </c>
       <c r="I8" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J8" s="85">
         <f>'Таблиця 1-4'!E4</f>
@@ -16291,12 +15933,12 @@
         <f>J8*F8*K8</f>
         <v>43.68</v>
       </c>
-      <c r="O8" s="179"/>
+      <c r="O8" s="210"/>
       <c r="P8" s="33" t="s">
         <v>55</v>
       </c>
       <c r="Q8" s="79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R8" s="33">
         <v>2</v>
@@ -16309,7 +15951,7 @@
         <v>18.2</v>
       </c>
       <c r="U8" s="79" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V8" s="33">
         <v>2</v>
@@ -16321,7 +15963,7 @@
         <f>V8*W8</f>
         <v>21.6</v>
       </c>
-      <c r="AA8" s="120"/>
+      <c r="AA8" s="150"/>
       <c r="AB8" s="85" t="s">
         <v>55</v>
       </c>
@@ -16329,7 +15971,7 @@
         <f>L13</f>
         <v>184.39999999999998</v>
       </c>
-      <c r="AD8" s="120"/>
+      <c r="AD8" s="150"/>
       <c r="AE8" s="85">
         <f>ROUND($AD$7/100*AC8,2)</f>
         <v>13.28</v>
@@ -16338,7 +15980,7 @@
         <f t="shared" ref="AF8:AF10" si="0">T8+X8</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="AG8" s="120"/>
+      <c r="AG8" s="150"/>
       <c r="AH8" s="85">
         <f t="shared" ref="AH8:AH10" si="1">ROUND($AE$8/100*AF8,2)</f>
         <v>5.29</v>
@@ -16347,7 +15989,7 @@
         <f t="shared" ref="AI8:AI10" si="2">AE8+AH8</f>
         <v>18.57</v>
       </c>
-      <c r="AK8" s="120"/>
+      <c r="AK8" s="150"/>
       <c r="AL8" s="85" t="s">
         <v>55</v>
       </c>
@@ -16368,7 +16010,7 @@
         <f>ROUND(1.68*AM8,1)</f>
         <v>2692.1</v>
       </c>
-      <c r="AS8" s="120"/>
+      <c r="AS8" s="150"/>
       <c r="AT8" s="85" t="str">
         <f>AL8</f>
         <v>д)</v>
@@ -16403,8 +16045,8 @@
       </c>
     </row>
     <row r="9" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="156"/>
-      <c r="D9" s="113"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="85" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -16422,7 +16064,7 @@
         <v>АС-240/56</v>
       </c>
       <c r="I9" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J9" s="85">
         <f>'Таблиця 1-4'!E5</f>
@@ -16435,14 +16077,14 @@
         <f>J9*F9*K9</f>
         <v>43.68</v>
       </c>
-      <c r="O9" s="178" t="s">
+      <c r="O9" s="209" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>51</v>
       </c>
       <c r="Q9" s="79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R9" s="33">
         <v>2</v>
@@ -16455,7 +16097,7 @@
         <v>18.2</v>
       </c>
       <c r="U9" s="79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V9" s="33">
         <v>2</v>
@@ -16467,8 +16109,8 @@
         <f>V9*W9</f>
         <v>42</v>
       </c>
-      <c r="AA9" s="112" t="s">
-        <v>246</v>
+      <c r="AA9" s="144" t="s">
+        <v>243</v>
       </c>
       <c r="AB9" s="85" t="s">
         <v>51</v>
@@ -16477,7 +16119,7 @@
         <f>L17</f>
         <v>447.90000000000003</v>
       </c>
-      <c r="AD9" s="112">
+      <c r="AD9" s="144">
         <v>7.2</v>
       </c>
       <c r="AE9" s="85">
@@ -16488,7 +16130,7 @@
         <f t="shared" si="0"/>
         <v>60.2</v>
       </c>
-      <c r="AG9" s="112">
+      <c r="AG9" s="144">
         <v>14.4</v>
       </c>
       <c r="AH9" s="85">
@@ -16499,7 +16141,7 @@
         <f t="shared" si="2"/>
         <v>29.57</v>
       </c>
-      <c r="AK9" s="112" t="s">
+      <c r="AK9" s="144" t="s">
         <v>20</v>
       </c>
       <c r="AL9" s="85" t="s">
@@ -16522,7 +16164,7 @@
         <f>ROUND(1.68*AM9,1)</f>
         <v>3060.6</v>
       </c>
-      <c r="AS9" s="112" t="s">
+      <c r="AS9" s="144" t="s">
         <v>20</v>
       </c>
       <c r="AT9" s="85" t="str">
@@ -16553,25 +16195,25 @@
       <c r="BA9" s="58"/>
     </row>
     <row r="10" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="156"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="208"/>
       <c r="L10" s="85">
         <f>SUM(L7:L9)</f>
         <v>153.44</v>
       </c>
-      <c r="O10" s="179"/>
+      <c r="O10" s="210"/>
       <c r="P10" s="33" t="s">
         <v>54</v>
       </c>
       <c r="Q10" s="79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R10" s="33">
         <v>2</v>
@@ -16584,7 +16226,7 @@
         <v>18.2</v>
       </c>
       <c r="U10" s="79" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V10" s="33">
         <v>2</v>
@@ -16596,7 +16238,7 @@
         <f>V10*W10</f>
         <v>21.6</v>
       </c>
-      <c r="AA10" s="120"/>
+      <c r="AA10" s="150"/>
       <c r="AB10" s="85" t="s">
         <v>54</v>
       </c>
@@ -16604,7 +16246,7 @@
         <f>L21</f>
         <v>299.78000000000003</v>
       </c>
-      <c r="AD10" s="120"/>
+      <c r="AD10" s="150"/>
       <c r="AE10" s="85">
         <f>ROUND($AD$9/100*AC10,2)</f>
         <v>21.58</v>
@@ -16613,7 +16255,7 @@
         <f t="shared" si="0"/>
         <v>39.799999999999997</v>
       </c>
-      <c r="AG10" s="120"/>
+      <c r="AG10" s="150"/>
       <c r="AH10" s="85">
         <f t="shared" si="1"/>
         <v>5.29</v>
@@ -16622,7 +16264,7 @@
         <f t="shared" si="2"/>
         <v>26.869999999999997</v>
       </c>
-      <c r="AK10" s="113"/>
+      <c r="AK10" s="152"/>
       <c r="AL10" s="85" t="s">
         <v>54</v>
       </c>
@@ -16643,7 +16285,7 @@
         <f>ROUND(1.68*AM10,1)</f>
         <v>3521.3</v>
       </c>
-      <c r="AS10" s="113"/>
+      <c r="AS10" s="152"/>
       <c r="AT10" s="85" t="str">
         <f>AL10</f>
         <v>г)</v>
@@ -16678,8 +16320,8 @@
       </c>
     </row>
     <row r="11" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="156"/>
-      <c r="D11" s="112" t="s">
+      <c r="C11" s="186"/>
+      <c r="D11" s="144" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="85" t="str">
@@ -16699,7 +16341,7 @@
         <v>АС-150/34</v>
       </c>
       <c r="I11" s="85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J11" s="85">
         <f>'Таблиця 1-4'!E6</f>
@@ -16714,8 +16356,8 @@
       </c>
     </row>
     <row r="12" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="156"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="85" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -16733,7 +16375,7 @@
         <v>АС-150/34</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J12" s="85">
         <f>'Таблиця 1-4'!E7</f>
@@ -16748,25 +16390,25 @@
       </c>
     </row>
     <row r="13" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="113"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="208"/>
       <c r="L13" s="85">
         <f>SUM(L11:L12)</f>
         <v>184.39999999999998</v>
       </c>
     </row>
     <row r="14" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="147" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="85" t="str">
@@ -16786,7 +16428,7 @@
         <v>АС-300/67</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J14" s="85">
         <f>'Таблиця 1-4'!E8</f>
@@ -16801,8 +16443,8 @@
       </c>
     </row>
     <row r="15" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
       <c r="E15" s="85" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -16820,7 +16462,7 @@
         <v>АС-240/56</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J15" s="85">
         <f>'Таблиця 1-4'!E9</f>
@@ -16835,8 +16477,8 @@
       </c>
     </row>
     <row r="16" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
       <c r="E16" s="85" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -16854,7 +16496,7 @@
         <v>АС-150/34</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J16" s="85">
         <f>'Таблиця 1-4'!E10</f>
@@ -16869,23 +16511,23 @@
       </c>
     </row>
     <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="180"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
       <c r="L17" s="85">
         <f>SUM(L14:L16)</f>
         <v>447.90000000000003</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="180"/>
-      <c r="D18" s="114" t="s">
+      <c r="C18" s="206"/>
+      <c r="D18" s="147" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="85" t="str">
@@ -16904,7 +16546,7 @@
         <v>АС-150/34</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J18" s="85">
         <f>'Таблиця 1-4'!E11</f>
@@ -16919,8 +16561,8 @@
       </c>
     </row>
     <row r="19" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="85" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -16937,7 +16579,7 @@
         <v>АС-150/34</v>
       </c>
       <c r="I19" s="85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J19" s="85">
         <f>'Таблиця 1-4'!E12</f>
@@ -16952,8 +16594,8 @@
       </c>
     </row>
     <row r="20" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
       <c r="E20" s="85" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -16970,7 +16612,7 @@
         <v>АС-300/67</v>
       </c>
       <c r="I20" s="85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J20" s="85">
         <f>'Таблиця 1-4'!E13</f>
@@ -16985,15 +16627,15 @@
       </c>
     </row>
     <row r="21" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="180"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
       <c r="L21" s="85">
         <f>SUM(L18:L20)</f>
         <v>299.78000000000003</v>
@@ -17003,19 +16645,21 @@
     <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O4:O6"/>
     <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="D10:K10"/>
@@ -17025,31 +16669,29 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="AB4:AB6"/>
     <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="U4:U6"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D5:D9"/>
     <mergeCell ref="AH4:AH6"/>
     <mergeCell ref="AI4:AI6"/>
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="AD4:AD6"/>
     <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AS9:AS10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17487,15 +17129,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
@@ -17505,68 +17147,75 @@
     <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="3" spans="1:23" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="126"/>
+      <c r="D3" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="158"/>
       <c r="F3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="H3" s="158"/>
       <c r="I3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="L3" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="M3" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="R3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="S3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="T3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="U3" s="75" t="s">
-        <v>235</v>
+      <c r="N3" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="148"/>
+      <c r="P3" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="R3" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="S3" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="T3" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="U3" s="89" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="127"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="33" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="127"/>
+      <c r="H4" s="162"/>
       <c r="I4" s="33" t="s">
         <v>2</v>
       </c>
@@ -17574,34 +17223,34 @@
         <v>2</v>
       </c>
       <c r="L4" s="89" t="s">
-        <v>273</v>
-      </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="147"/>
+      <c r="N4" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="127"/>
-      <c r="P4" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="S4" s="33" t="s">
+      <c r="O4" s="148"/>
+      <c r="P4" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q4" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="R4" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="S4" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="89" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="89">
+      <c r="C5" s="88">
         <v>1</v>
       </c>
       <c r="D5" s="33">
@@ -17626,524 +17275,522 @@
         <v>8</v>
       </c>
       <c r="L5" s="89" t="str">
-        <f>'[1]падіння напруги'!E30</f>
-        <v>ДЖ-В</v>
-      </c>
-      <c r="M5" s="66" t="str">
-        <f>'[1]падіння напруги'!F30</f>
-        <v>АС-185/43</v>
-      </c>
-      <c r="N5" s="33">
-        <f>'[1]падіння напруги'!G30</f>
-        <v>23.3</v>
-      </c>
-      <c r="O5" s="33">
-        <v>2</v>
-      </c>
-      <c r="P5" s="33">
-        <f>'[1]падіння напруги'!H30</f>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="Q5" s="33">
-        <f>'[1]падіння напруги'!I30</f>
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="R5" s="33">
-        <v>2.75</v>
-      </c>
-      <c r="S5" s="33">
+        <f>'Таблиця 1-4'!D3</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="M5" s="218" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="89">
+        <f>'Таблиця 1-4'!E3</f>
+        <v>11.8</v>
+      </c>
+      <c r="O5" s="89">
+        <v>1</v>
+      </c>
+      <c r="P5" s="89">
+        <f>'падіння напруги'!H10</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q5" s="89">
+        <f>'падіння напруги'!I10</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="R5" s="89">
+        <v>2.81</v>
+      </c>
+      <c r="S5" s="89">
         <f>ROUND(P5*N5/O5,2)</f>
-        <v>1.89</v>
-      </c>
-      <c r="T5" s="33">
+        <v>1.42</v>
+      </c>
+      <c r="T5" s="89">
         <f>ROUND(Q5*N5/O5,2)</f>
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="U5" s="33">
-        <f>ROUND(R5*10^-6*N5*O5*V5^2,2)</f>
-        <v>1.55</v>
+        <v>4.78</v>
+      </c>
+      <c r="U5" s="89">
+        <f>ROUND(R5*10^-6*N5*O5*$V$5^2,2)</f>
+        <v>0.4</v>
       </c>
       <c r="V5">
         <v>110</v>
       </c>
       <c r="W5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="89" t="str">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'трансформ + компенс'!H18</f>
+        <v>ТДТН-25000/220/35/10</v>
+      </c>
+      <c r="C6" s="88" t="str">
         <f>[1]Трансформатори!C27</f>
         <v>Б</v>
       </c>
       <c r="D6" s="33" t="str">
-        <f>[1]Трансформатори!G27</f>
-        <v>ТМН-6300/35</v>
+        <f>'трансформ + компенс'!G31</f>
+        <v>ТДТН-25000/220/35/10</v>
       </c>
       <c r="E6" s="33">
         <v>2</v>
       </c>
       <c r="F6" s="33">
-        <v>6.3</v>
-      </c>
-      <c r="G6" s="183" t="e">
-        <f>IMABS([1]Трансформатори!F27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="184" t="e">
+        <v>25</v>
+      </c>
+      <c r="G6" s="90">
+        <f>IMABS('трансформ + компенс'!F31)</f>
+        <v>20.591503102007877</v>
+      </c>
+      <c r="H6" s="91">
         <f>G6/F6/E6</f>
-        <v>#NUM!</v>
+        <v>0.41183006204015754</v>
       </c>
       <c r="I6" s="33">
-        <v>8.0000000000000002E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J6" s="33">
-        <v>4.65E-2</v>
+        <v>0.13</v>
       </c>
       <c r="L6" s="89" t="str">
-        <f>'[1]падіння напруги'!E31</f>
-        <v>В-А</v>
-      </c>
-      <c r="M6" s="66" t="str">
-        <f>'[1]падіння напруги'!F31</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="N6" s="33">
-        <f>'[1]падіння напруги'!G31</f>
-        <v>6.6</v>
-      </c>
-      <c r="O6" s="33">
-        <v>2</v>
-      </c>
-      <c r="P6" s="33">
-        <f>'[1]падіння напруги'!H31</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="Q6" s="33">
-        <f>'[1]падіння напруги'!I31</f>
-        <v>0.42</v>
-      </c>
-      <c r="R6" s="33">
-        <v>2.7</v>
-      </c>
-      <c r="S6" s="33">
-        <f>ROUND(P6*N6/O6,2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="T6" s="33">
-        <f>ROUND(Q6*N6/O6,2)</f>
-        <v>1.39</v>
-      </c>
-      <c r="U6" s="33">
-        <f>ROUND(R6*10^-6*N6*O6*V6^2,2)</f>
-        <v>0.43</v>
+        <f>'Таблиця 1-4'!D4</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="M6" s="218" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="89">
+        <f>'Таблиця 1-4'!E4</f>
+        <v>7.8</v>
+      </c>
+      <c r="O6" s="89">
+        <v>1</v>
+      </c>
+      <c r="P6" s="89">
+        <f>'падіння напруги'!H14</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q6" s="89">
+        <f>'падіння напруги'!I6</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="R6" s="89">
+        <v>2.64</v>
+      </c>
+      <c r="S6" s="89">
+        <f t="shared" ref="S6:S13" si="0">ROUND(P6*N6/O6,2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="T6" s="89">
+        <f t="shared" ref="T6:T13" si="1">ROUND(Q6*N6/O6,2)</f>
+        <v>3.16</v>
+      </c>
+      <c r="U6" s="89">
+        <f t="shared" ref="U6:U10" si="2">ROUND(R6*10^-6*N6*O6*$V$5^2,2)</f>
+        <v>0.25</v>
       </c>
       <c r="V6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="89" t="str">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'трансформ + компенс'!H19</f>
+        <v>ТРДН-40000/110/35</v>
+      </c>
+      <c r="C7" s="88" t="str">
         <f>[1]Трансформатори!C28</f>
         <v>В</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="E7" s="33">
         <v>2</v>
       </c>
       <c r="F7" s="33">
-        <v>16</v>
-      </c>
-      <c r="G7" s="183" t="e">
-        <f>IMABS([1]Трансформатори!F28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" s="184" t="e">
-        <f t="shared" ref="H7:H10" si="0">G7/F7/E7</f>
-        <v>#NUM!</v>
+        <v>25</v>
+      </c>
+      <c r="G7" s="90">
+        <f>IMABS('трансформ + компенс'!F32)</f>
+        <v>35.947739845503499</v>
+      </c>
+      <c r="H7" s="91">
+        <f>G7/F7/E7</f>
+        <v>0.71895479691007003</v>
       </c>
       <c r="I7" s="33">
-        <v>1.7999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J7" s="33">
-        <v>8.5000000000000006E-2</v>
+        <v>0.12</v>
       </c>
       <c r="L7" s="89" t="str">
-        <f>'[1]падіння напруги'!E12</f>
-        <v>ВП-3</v>
-      </c>
-      <c r="M7" s="66" t="str">
-        <f>'[1]падіння напруги'!F12</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="N7" s="33">
-        <f>'[1]падіння напруги'!G12</f>
-        <v>6.6</v>
-      </c>
-      <c r="O7" s="33">
-        <v>2</v>
-      </c>
-      <c r="P7" s="33">
+        <f>'Таблиця 1-4'!D5</f>
+        <v>В-Д</v>
+      </c>
+      <c r="M7" s="218" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="89">
+        <f>'Таблиця 1-4'!E5</f>
+        <v>5.6</v>
+      </c>
+      <c r="O7" s="89">
+        <v>1</v>
+      </c>
+      <c r="P7" s="89">
         <f>'[1]падіння напруги'!H12</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="Q7" s="33">
-        <f>'[1]падіння напруги'!I12</f>
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="R7" s="33">
-        <v>0</v>
-      </c>
-      <c r="S7" s="33">
-        <f t="shared" ref="S7:S12" si="1">ROUND(P7*N7/O7,2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="T7" s="33">
-        <f t="shared" ref="T7:T12" si="2">ROUND(Q7*N7/O7,2)</f>
-        <v>1.34</v>
-      </c>
-      <c r="U7" s="33">
-        <f t="shared" ref="U7:U12" si="3">ROUND(R7*10^-6*N7*O7*V7^2,2)</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="89" t="str">
+      <c r="Q7" s="59">
+        <f>'падіння напруги'!I11</f>
+        <v>0.42</v>
+      </c>
+      <c r="R7" s="89">
+        <v>2.7</v>
+      </c>
+      <c r="S7" s="89">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="T7" s="89">
+        <f t="shared" si="1"/>
+        <v>2.35</v>
+      </c>
+      <c r="U7" s="89">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>'трансформ + компенс'!H20</f>
+        <v>ТРДН-25000/110/35</v>
+      </c>
+      <c r="C8" s="88" t="str">
         <f>[1]Трансформатори!C29</f>
         <v>Г</v>
       </c>
       <c r="D8" s="33" t="str">
-        <f>[1]Трансформатори!G29</f>
-        <v>ТМН-6300/35</v>
+        <f>'трансформ + компенс'!G33</f>
+        <v>ТРДН-25000/110/35</v>
       </c>
       <c r="E8" s="33">
         <v>2</v>
       </c>
       <c r="F8" s="33">
-        <v>6.3</v>
-      </c>
-      <c r="G8" s="183" t="e">
-        <f>IMABS([1]Трансформатори!F29)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" s="184" t="e">
+        <v>25</v>
+      </c>
+      <c r="G8" s="90">
+        <f>IMABS('трансформ + компенс'!F33)</f>
+        <v>33.05888685361321</v>
+      </c>
+      <c r="H8" s="91">
+        <f t="shared" ref="H8:H9" si="3">G8/F8/E8</f>
+        <v>0.66117773707226424</v>
+      </c>
+      <c r="I8" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="L8" s="89" t="str">
+        <f>'Таблиця 1-4'!D8</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="M8" s="218" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="89">
+        <f>'Таблиця 1-4'!E8</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O8" s="89">
+        <v>1</v>
+      </c>
+      <c r="P8" s="89">
+        <f>'падіння напруги'!H21</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q8" s="89">
+        <f>'падіння напруги'!I21</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="R8" s="89">
+        <f>R6</f>
+        <v>2.64</v>
+      </c>
+      <c r="S8" s="89">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I8" s="33">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J8" s="33">
-        <v>4.65E-2</v>
-      </c>
-      <c r="L8" s="89" t="str">
-        <f>'[1]падіння напруги'!E13</f>
-        <v>3-Б</v>
-      </c>
-      <c r="M8" s="66" t="str">
-        <f>'[1]падіння напруги'!F13</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="N8" s="33">
-        <f>'[1]падіння напруги'!G13</f>
-        <v>1.8</v>
-      </c>
-      <c r="O8" s="33">
-        <v>2</v>
-      </c>
-      <c r="P8" s="33">
-        <f>'[1]падіння напруги'!H13</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="Q8" s="33">
-        <f>'[1]падіння напруги'!I13</f>
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="R8" s="33">
-        <v>0</v>
-      </c>
-      <c r="S8" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="T8" s="89">
         <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="T8" s="33">
+        <v>3.97</v>
+      </c>
+      <c r="U8" s="89">
         <f t="shared" si="2"/>
-        <v>0.37</v>
-      </c>
-      <c r="U8" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="89" t="str">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>'трансформ + компенс'!H21</f>
+        <v>ТРДН-25000/110/35</v>
+      </c>
+      <c r="C9" s="88" t="str">
         <f>[1]Трансформатори!C30</f>
         <v>Д</v>
       </c>
       <c r="D9" s="33" t="str">
-        <f>[1]Трансформатори!G30</f>
-        <v>ТМН-4000/35</v>
+        <f>'трансформ + компенс'!G34</f>
+        <v>ТРДН-25000/110/35</v>
       </c>
       <c r="E9" s="33">
         <v>2</v>
       </c>
       <c r="F9" s="33">
-        <v>4</v>
-      </c>
-      <c r="G9" s="183" t="e">
-        <f>IMABS([1]Трансформатори!F30)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" s="184" t="e">
+        <v>25</v>
+      </c>
+      <c r="G9" s="90">
+        <f>IMABS('трансформ + компенс'!F34)</f>
+        <v>27.794963572561127</v>
+      </c>
+      <c r="H9" s="91">
+        <f t="shared" si="3"/>
+        <v>0.55589927145122253</v>
+      </c>
+      <c r="I9" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="L9" s="89" t="str">
+        <f>'Таблиця 1-4'!D9</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="M9" s="218" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="89">
+        <f>'Таблиця 1-4'!E9</f>
+        <v>11.9</v>
+      </c>
+      <c r="O9" s="89">
+        <v>1</v>
+      </c>
+      <c r="P9" s="89">
+        <f>'падіння напруги'!H17</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q9" s="89">
+        <f>'падіння напруги'!I17</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="R9" s="89">
+        <f>R5</f>
+        <v>2.81</v>
+      </c>
+      <c r="S9" s="89">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I9" s="33">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="J9" s="33">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="L9" s="89" t="str">
-        <f>'[1]падіння напруги'!E14</f>
-        <v>3-Д</v>
-      </c>
-      <c r="M9" s="66" t="str">
-        <f>'[1]падіння напруги'!F14</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="N9" s="33">
-        <f>'[1]падіння напруги'!G14</f>
-        <v>7.8</v>
-      </c>
-      <c r="O9" s="33">
-        <v>2</v>
-      </c>
-      <c r="P9" s="33">
-        <f>'[1]падіння напруги'!H14</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="Q9" s="33">
-        <f>'[1]падіння напруги'!I14</f>
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="R9" s="33">
-        <v>0</v>
-      </c>
-      <c r="S9" s="33">
+        <v>1.43</v>
+      </c>
+      <c r="T9" s="89">
         <f t="shared" si="1"/>
-        <v>0.77</v>
-      </c>
-      <c r="T9" s="33">
+        <v>4.82</v>
+      </c>
+      <c r="U9" s="89">
         <f t="shared" si="2"/>
-        <v>1.58</v>
-      </c>
-      <c r="U9" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="89" t="str">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>'трансформ + компенс'!H22</f>
+        <v>ТРДН-40000/110/35</v>
+      </c>
+      <c r="C10" s="88" t="str">
         <f>[1]Трансформатори!C31</f>
         <v>Е</v>
       </c>
       <c r="D10" s="33" t="str">
-        <f>[1]Трансформатори!G31</f>
-        <v>ТМН-4000/35</v>
+        <f>'трансформ + компенс'!G35</f>
+        <v>ТРДН-40000/110/35</v>
       </c>
       <c r="E10" s="33">
         <v>2</v>
       </c>
       <c r="F10" s="33">
-        <v>4</v>
-      </c>
-      <c r="G10" s="183" t="e">
-        <f>IMABS([1]Трансформатори!F31)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" s="184" t="e">
+        <v>40</v>
+      </c>
+      <c r="G10" s="90">
+        <f>IMABS('трансформ + компенс'!F35)</f>
+        <v>36.11384775955063</v>
+      </c>
+      <c r="H10" s="91">
+        <f>G10/F10/E10</f>
+        <v>0.45142309699438288</v>
+      </c>
+      <c r="I10" s="33">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.17</v>
+      </c>
+      <c r="L10" s="89" t="str">
+        <f>'Таблиця 1-4'!D10</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="M10" s="218" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="89">
+        <f>'Таблиця 1-4'!E10</f>
+        <v>14.5</v>
+      </c>
+      <c r="O10" s="89">
+        <v>1</v>
+      </c>
+      <c r="P10" s="89">
+        <f>0.198</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q10" s="59">
+        <f>'падіння напруги'!I18</f>
+        <v>0.42</v>
+      </c>
+      <c r="R10" s="89">
+        <f>R7</f>
+        <v>2.7</v>
+      </c>
+      <c r="S10" s="89">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I10" s="33">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="J10" s="33">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="L10" s="89" t="str">
-        <f>'[1]падіння напруги'!E25</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="M10" s="66" t="str">
-        <f>'[1]падіння напруги'!F25</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="N10" s="33">
-        <f>'[1]падіння напруги'!G25</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O10" s="33">
-        <v>2</v>
-      </c>
-      <c r="P10" s="33">
-        <f>'[1]падіння напруги'!H25</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="Q10" s="33">
-        <f>'[1]падіння напруги'!I25</f>
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="R10" s="33">
-        <v>0</v>
-      </c>
-      <c r="S10" s="33">
+        <v>2.87</v>
+      </c>
+      <c r="T10" s="89">
         <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="T10" s="33">
-        <f t="shared" si="2"/>
-        <v>1.66</v>
-      </c>
-      <c r="U10" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.09</v>
+      </c>
+      <c r="U10" s="89">
+        <f>ROUND(R10*10^-6*N10*O10*$V$5^2,2)</f>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L11" s="89" t="str">
-        <f>'[1]падіння напруги'!E26</f>
-        <v>2-Г</v>
-      </c>
-      <c r="M11" s="66" t="str">
-        <f>'[1]падіння напруги'!F26</f>
-        <v>АС-120/27</v>
-      </c>
-      <c r="N11" s="33">
-        <f>'[1]падіння напруги'!G26</f>
-        <v>4</v>
-      </c>
-      <c r="O11" s="33">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="M11" s="218" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="89">
+        <f>'Таблиця 1-4'!E14</f>
+        <v>14.8</v>
+      </c>
+      <c r="O11" s="89">
         <v>2</v>
       </c>
-      <c r="P11" s="33">
-        <f>'[1]падіння напруги'!H26</f>
-        <v>0.249</v>
-      </c>
-      <c r="Q11" s="33">
-        <f>'[1]падіння напруги'!I26</f>
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="R11" s="33">
-        <v>0</v>
-      </c>
-      <c r="S11" s="33">
+      <c r="P11" s="89">
+        <f>'падіння напруги'!H29</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q11" s="89">
+        <f>'падіння напруги'!I29</f>
+        <v>0.42</v>
+      </c>
+      <c r="R11" s="89">
+        <v>2.7</v>
+      </c>
+      <c r="S11" s="89">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T11" s="89">
+        <f>ROUND(Q11*N11/O11,2)</f>
+        <v>3.11</v>
+      </c>
+      <c r="U11" s="89">
+        <f>ROUND(R11*10^-6*N11*O11*$V$6^2,2)</f>
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="217" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="89" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="M12" s="218" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="89">
+        <f>'Таблиця 1-4'!E15</f>
+        <v>22.6</v>
+      </c>
+      <c r="O12" s="89">
+        <v>2</v>
+      </c>
+      <c r="P12" s="89">
+        <f>'падіння напруги'!H30</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q12" s="89">
+        <f>'падіння напруги'!I30</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="R12" s="89">
+        <f>R6</f>
+        <v>2.64</v>
+      </c>
+      <c r="S12" s="89">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="T12" s="89">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="33">
-        <f t="shared" si="2"/>
-        <v>0.83</v>
-      </c>
-      <c r="U11" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="89" t="str">
-        <f>'[1]падіння напруги'!E27</f>
-        <v>2-Е</v>
-      </c>
-      <c r="M12" s="66" t="str">
-        <f>'[1]падіння напруги'!F27</f>
-        <v>АС-120/27</v>
-      </c>
-      <c r="N12" s="33">
-        <f>'[1]падіння напруги'!G27</f>
-        <v>8.4</v>
-      </c>
-      <c r="O12" s="33">
-        <v>2</v>
-      </c>
-      <c r="P12" s="33">
-        <f>'[1]падіння напруги'!H27</f>
-        <v>0.249</v>
-      </c>
-      <c r="Q12" s="33">
-        <f>'[1]падіння напруги'!I27</f>
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="R12" s="33">
-        <v>0</v>
-      </c>
-      <c r="S12" s="33">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="T12" s="33">
-        <f t="shared" si="2"/>
-        <v>1.74</v>
-      </c>
-      <c r="U12" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="U12" s="89">
+        <f>ROUND(R12*10^-6*N12*O12*$V$6^2,2)</f>
+        <v>5.78</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="98"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>147</v>
@@ -18160,12 +17807,50 @@
       <c r="J13" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="216" t="s">
         <v>4</v>
       </c>
+      <c r="L13" s="89" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="M13" s="218" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="89">
+        <f>'Таблиця 1-4'!E16</f>
+        <v>10.8</v>
+      </c>
+      <c r="O13" s="89">
+        <v>2</v>
+      </c>
+      <c r="P13" s="89">
+        <f>'падіння напруги'!H31</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q13" s="89">
+        <f>'падіння напруги'!I31</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="R13" s="89">
+        <f>2.6</f>
+        <v>2.6</v>
+      </c>
+      <c r="S13" s="89">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="T13" s="89">
+        <f t="shared" si="1"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U13" s="89">
+        <f t="shared" ref="U12:U13" si="4">ROUND(R13*10^-6*N13*O13*$V$6^2,2)</f>
+        <v>2.72</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="89">
+      <c r="C14" s="88">
         <v>9</v>
       </c>
       <c r="D14" s="33">
@@ -18195,452 +17880,446 @@
     </row>
     <row r="15" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>35</v>
-      </c>
-      <c r="C15" s="89" t="str">
+        <v>230</v>
+      </c>
+      <c r="C15" s="88" t="str">
         <f>C6</f>
         <v>Б</v>
       </c>
       <c r="D15" s="33">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="33">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="F15" s="33">
         <f>ROUND(J6*B15^2/F6^2/E6,2)</f>
-        <v>0.72</v>
+        <v>5.5</v>
       </c>
       <c r="G15" s="33">
         <f>ROUND(E15/100*B15^2/F6/E6,2)</f>
-        <v>7.29</v>
+        <v>211.6</v>
       </c>
       <c r="H15" s="33">
         <f>ROUND(E6*I6,3)</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="I15" s="33" t="e">
+        <v>0.09</v>
+      </c>
+      <c r="I15" s="33">
         <f>ROUND(G6^2/B15^2*F15,3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J15" s="185">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J15" s="92">
         <f>ROUND(D15/100*F6*E6,3)</f>
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K15" s="33" t="e">
+        <v>0.45</v>
+      </c>
+      <c r="K15" s="33">
         <f>ROUND(G6^2/B15^2*G15,3)</f>
-        <v>#NUM!</v>
+        <v>1.696</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>115</v>
       </c>
-      <c r="C16" s="89" t="str">
-        <f t="shared" ref="C16:C19" si="4">C7</f>
+      <c r="C16" s="88" t="str">
+        <f t="shared" ref="C16:C19" si="5">C7</f>
         <v>В</v>
       </c>
       <c r="D16" s="33">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E16" s="33">
         <v>10.5</v>
       </c>
       <c r="F16" s="33">
-        <f t="shared" ref="F16:F19" si="5">ROUND(J7*B16^2/F7^2/E7,2)</f>
-        <v>2.2000000000000002</v>
+        <f>ROUND(J7*B16^2/F7^2/E7,2)</f>
+        <v>1.27</v>
       </c>
       <c r="G16" s="33">
         <f t="shared" ref="G16:G19" si="6">ROUND(E16/100*B16^2/F7/E7,2)</f>
-        <v>43.39</v>
+        <v>27.77</v>
       </c>
       <c r="H16" s="33">
-        <f t="shared" ref="H16:H19" si="7">ROUND(E7*I7,3)</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I16" s="33" t="e">
-        <f t="shared" ref="I16:I19" si="8">ROUND(G7^2/B16^2*F16,3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J16" s="185">
-        <f t="shared" ref="J16:J19" si="9">ROUND(D16/100*F7*E7,3)</f>
-        <v>0.224</v>
-      </c>
-      <c r="K16" s="33" t="e">
-        <f t="shared" ref="K16:K19" si="10">ROUND(G7^2/B16^2*G16,3)</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="H16:H18" si="7">ROUND(E7*I7,3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="33">
+        <f>ROUND(G7^2/B16^2*F16,3)</f>
+        <v>0.124</v>
+      </c>
+      <c r="J16" s="92">
+        <f t="shared" ref="J16:J19" si="8">ROUND(D16/100*F7*E7,3)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K16" s="33">
+        <f t="shared" ref="K16:K19" si="9">ROUND(G7^2/B16^2*G16,3)</f>
+        <v>2.7130000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="C17" s="89" t="str">
-        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C17" s="88" t="str">
+        <f t="shared" si="5"/>
         <v>Г</v>
       </c>
       <c r="D17" s="33">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="E17" s="33">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" si="5"/>
-        <v>0.72</v>
+        <f t="shared" ref="F17:F19" si="10">ROUND(J8*B17^2/F8^2/E8,2)</f>
+        <v>1.27</v>
       </c>
       <c r="G17" s="33">
         <f t="shared" si="6"/>
-        <v>7.29</v>
+        <v>27.77</v>
       </c>
       <c r="H17" s="33">
         <f t="shared" si="7"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="I17" s="33" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="33">
+        <f>ROUND(G8^2/B17^2*F17,3)</f>
+        <v>0.105</v>
+      </c>
+      <c r="J17" s="92">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J17" s="185">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K17" s="33">
         <f t="shared" si="9"/>
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K17" s="33" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>2.2949999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>35</v>
-      </c>
-      <c r="C18" s="89" t="str">
-        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C18" s="88" t="str">
+        <f t="shared" si="5"/>
         <v>Д</v>
       </c>
       <c r="D18" s="33">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="E18" s="33">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="F18" s="33">
-        <f t="shared" si="5"/>
-        <v>1.28</v>
+        <f t="shared" si="10"/>
+        <v>1.27</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="6"/>
-        <v>11.48</v>
+        <v>27.77</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="7"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I18" s="33" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="33">
+        <f>ROUND(G9^2/B18^2*F18,3)</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J18" s="92">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J18" s="185">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K18" s="33">
         <f t="shared" si="9"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="K18" s="33" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>1.6220000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>35</v>
-      </c>
-      <c r="C19" s="89" t="str">
-        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C19" s="88" t="str">
+        <f t="shared" si="5"/>
         <v>Е</v>
       </c>
       <c r="D19" s="33">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E19" s="33">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="F19" s="33">
-        <f t="shared" si="5"/>
-        <v>1.28</v>
+        <f t="shared" si="10"/>
+        <v>0.7</v>
       </c>
       <c r="G19" s="33">
         <f t="shared" si="6"/>
-        <v>11.48</v>
+        <v>17.36</v>
       </c>
       <c r="H19" s="33">
-        <f t="shared" si="7"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I19" s="33" t="e">
+        <f>ROUND(E10*I10,3)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I19" s="33">
+        <f>ROUND(G10^2/B19^2*F19,3)</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J19" s="92">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J19" s="185">
+        <v>0.44</v>
+      </c>
+      <c r="K19" s="33">
         <f t="shared" si="9"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="K19" s="33" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="186" t="s">
+        <v>1.712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="150" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="187" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" s="188"/>
-      <c r="G26" s="187" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" s="187" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="187" t="s">
-        <v>235</v>
-      </c>
-      <c r="J26" s="187" t="s">
-        <v>235</v>
-      </c>
-      <c r="K26" s="189" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="190"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="192" t="s">
+      <c r="D26" s="147" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="148"/>
+      <c r="G26" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="193"/>
-      <c r="G27" s="192" t="s">
+      <c r="F27" s="148"/>
+      <c r="G27" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="192" t="s">
-        <v>270</v>
-      </c>
-      <c r="I27" s="192" t="s">
+      <c r="H27" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="192" t="s">
+      <c r="J27" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="194" t="s">
+      <c r="K27" s="89" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="195">
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="89">
         <v>1</v>
       </c>
-      <c r="D28" s="196">
+      <c r="D28" s="89">
         <v>2</v>
       </c>
-      <c r="E28" s="196">
+      <c r="E28" s="89">
         <v>3</v>
       </c>
-      <c r="F28" s="196">
+      <c r="F28" s="89">
         <v>4</v>
       </c>
-      <c r="G28" s="196">
+      <c r="G28" s="89">
         <v>5</v>
       </c>
-      <c r="H28" s="196">
+      <c r="H28" s="89">
         <v>6</v>
       </c>
-      <c r="I28" s="196">
+      <c r="I28" s="89">
         <v>7</v>
       </c>
-      <c r="J28" s="196">
+      <c r="J28" s="89">
         <v>8</v>
       </c>
-      <c r="K28" s="194">
+      <c r="K28" s="89">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>115</v>
-      </c>
-      <c r="C29" s="197" t="s">
-        <v>281</v>
-      </c>
-      <c r="D29" s="198" t="str">
-        <f>[1]Трансформатори!G26</f>
-        <v>ТДТН-25000/110/35</v>
-      </c>
-      <c r="E29" s="198">
-        <v>25</v>
-      </c>
-      <c r="F29" s="198">
+        <v>230</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="89" t="str">
+        <f>'трансформ + компенс'!G30</f>
+        <v>АТДЦТН-125000/220/110/35</v>
+      </c>
+      <c r="E29" s="89">
+        <v>125</v>
+      </c>
+      <c r="F29" s="89">
         <v>2</v>
       </c>
-      <c r="G29" s="198">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="H29" s="198">
-        <v>0.7</v>
-      </c>
-      <c r="I29" s="198">
+      <c r="G29" s="89">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H29" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="89">
         <f>F29*G29</f>
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J29" s="198">
+        <v>0.13</v>
+      </c>
+      <c r="J29" s="89">
         <f>H29/100*E29*F29</f>
-        <v>0.35</v>
-      </c>
-      <c r="K29" s="194">
-        <v>0.14000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="K29" s="89">
+        <v>0.315</v>
       </c>
       <c r="L29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="199" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="187" t="s">
+      <c r="E32" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="187" t="s">
-        <v>270</v>
-      </c>
-      <c r="G32" s="187" t="s">
-        <v>270</v>
-      </c>
-      <c r="H32" s="187" t="s">
-        <v>270</v>
-      </c>
-      <c r="I32" s="187" t="s">
-        <v>270</v>
-      </c>
-      <c r="J32" s="187" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="187" t="s">
-        <v>270</v>
-      </c>
-      <c r="L32" s="187" t="s">
+      <c r="F32" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="M32" s="187" t="s">
+      <c r="M32" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="200" t="s">
+      <c r="N32" s="89" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="201">
+    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="89">
         <v>10</v>
       </c>
-      <c r="D33" s="196">
+      <c r="D33" s="89">
         <v>11</v>
       </c>
-      <c r="E33" s="196">
+      <c r="E33" s="89">
         <v>12</v>
       </c>
-      <c r="F33" s="196">
+      <c r="F33" s="89">
         <v>13</v>
       </c>
-      <c r="G33" s="196">
+      <c r="G33" s="89">
         <v>14</v>
       </c>
-      <c r="H33" s="196">
+      <c r="H33" s="89">
         <v>15</v>
       </c>
-      <c r="I33" s="196">
+      <c r="I33" s="89">
         <v>16</v>
       </c>
-      <c r="J33" s="196">
+      <c r="J33" s="89">
         <v>17</v>
       </c>
-      <c r="K33" s="196">
+      <c r="K33" s="89">
         <v>18</v>
       </c>
-      <c r="L33" s="196">
+      <c r="L33" s="89">
         <v>19</v>
       </c>
-      <c r="M33" s="196">
+      <c r="M33" s="89">
         <v>20</v>
       </c>
-      <c r="N33" s="194">
+      <c r="N33" s="89">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="D34" s="203">
+        <v>307</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" s="60">
         <f>K29/2/F29*A29^2/E29^2</f>
-        <v>0.74060000000000004</v>
-      </c>
-      <c r="E34" s="203">
-        <f>D34</f>
-        <v>0.74060000000000004</v>
-      </c>
-      <c r="F34" s="204">
-        <v>17.5</v>
-      </c>
-      <c r="G34" s="204">
-        <v>10.5</v>
-      </c>
-      <c r="H34" s="204">
-        <v>6.5</v>
-      </c>
-      <c r="I34" s="204">
+        <v>0.26661600000000002</v>
+      </c>
+      <c r="E34" s="60">
+        <f>D34*2.13</f>
+        <v>0.56789208000000002</v>
+      </c>
+      <c r="F34" s="89">
+        <v>32</v>
+      </c>
+      <c r="G34" s="89">
+        <v>11</v>
+      </c>
+      <c r="H34" s="89">
+        <v>20</v>
+      </c>
+      <c r="I34" s="89">
         <f>0.5*(F34+G34-H34)</f>
-        <v>10.75</v>
-      </c>
-      <c r="J34" s="205">
-        <v>0</v>
-      </c>
-      <c r="K34" s="204">
+        <v>11.5</v>
+      </c>
+      <c r="J34" s="219">
+        <f>0.5*(G34+H34-F34)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="K34" s="89">
         <f>0.5*(-G34+H34+F34)</f>
-        <v>6.75</v>
-      </c>
-      <c r="L34" s="206">
+        <v>20.5</v>
+      </c>
+      <c r="L34" s="59">
         <f>ROUND(I34/100/F29*A29^2/E29,2)</f>
-        <v>28.43</v>
-      </c>
-      <c r="M34" s="204">
+        <v>24.33</v>
+      </c>
+      <c r="M34" s="89">
         <f>J34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="207">
+        <v>-0.5</v>
+      </c>
+      <c r="N34" s="89">
         <f>ROUND(K34/100/F29*A29^2/E29,2)</f>
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="204">
-        <f>0.5*(G34+H34-F34)</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>43.38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -18648,9 +18327,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19756,62 +19432,62 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="G2" s="208" t="s">
+      <c r="G2" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="209" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" s="210" t="s">
-        <v>285</v>
-      </c>
-      <c r="J2" s="210" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="210" t="s">
-        <v>235</v>
-      </c>
-      <c r="L2" s="210" t="s">
-        <v>235</v>
-      </c>
-      <c r="M2" s="210" t="s">
-        <v>235</v>
+      <c r="H2" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" s="94" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G3" s="211"/>
-      <c r="H3" s="212" t="s">
-        <v>286</v>
-      </c>
-      <c r="I3" s="212" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" s="212" t="s">
-        <v>286</v>
-      </c>
-      <c r="K3" s="212" t="s">
-        <v>286</v>
-      </c>
-      <c r="L3" s="212" t="s">
+      <c r="G3" s="214"/>
+      <c r="H3" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="L3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="212" t="s">
-        <v>286</v>
+      <c r="M3" s="95" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="213"/>
-      <c r="H4" s="214">
+        <v>279</v>
+      </c>
+      <c r="G4" s="215"/>
+      <c r="H4" s="96">
         <v>1</v>
       </c>
-      <c r="I4" s="214">
+      <c r="I4" s="96">
         <v>2</v>
       </c>
-      <c r="J4" s="214" t="s">
-        <v>288</v>
+      <c r="J4" s="96" t="s">
+        <v>280</v>
       </c>
       <c r="K4" s="78"/>
       <c r="L4" s="78"/>
@@ -19838,31 +19514,31 @@
         <f>'[1]РОЗДІЛ 2'!J15</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="G5" s="215" t="str">
+      <c r="G5" s="97" t="str">
         <f>'[1]РОЗДІЛ 2'!C6</f>
         <v>Б</v>
       </c>
-      <c r="H5" s="214" t="str">
+      <c r="H5" s="96" t="str">
         <f>A5</f>
         <v>6+1,4i</v>
       </c>
-      <c r="I5" s="214" t="str">
+      <c r="I5" s="96" t="str">
         <f>COMPLEX(B5,C5)</f>
         <v>0.022+0.226i</v>
       </c>
-      <c r="J5" s="214" t="e">
+      <c r="J5" s="96" t="e">
         <f>IMSUM(H5,I5)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="214" t="str">
+      <c r="K5" s="96" t="str">
         <f>COMPLEX(D5,E5)</f>
         <v>0.016+0.101i</v>
       </c>
-      <c r="L5" s="214">
+      <c r="L5" s="96">
         <f>'[1]РОЗДІЛ 2'!U8/2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="214" t="e">
+      <c r="M5" s="96" t="e">
         <f>IMSUM(J5,K5,L5)</f>
         <v>#NUM!</v>
       </c>
@@ -19888,31 +19564,31 @@
         <f>'[1]РОЗДІЛ 2'!J16</f>
         <v>0.224</v>
       </c>
-      <c r="G6" s="215" t="str">
+      <c r="G6" s="97" t="str">
         <f>'[1]РОЗДІЛ 2'!C7</f>
         <v>В</v>
       </c>
-      <c r="H6" s="214" t="str">
+      <c r="H6" s="96" t="str">
         <f t="shared" ref="H6:H9" si="0">A6</f>
         <v>20+5,1i</v>
       </c>
-      <c r="I6" s="214" t="str">
+      <c r="I6" s="96" t="str">
         <f t="shared" ref="I6:I9" si="1">COMPLEX(B6,C6)</f>
         <v>0.071+1.398i</v>
       </c>
-      <c r="J6" s="214" t="e">
+      <c r="J6" s="96" t="e">
         <f t="shared" ref="J6:J9" si="2">IMSUM(H6,I6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K6" s="214" t="str">
+      <c r="K6" s="96" t="str">
         <f t="shared" ref="K6:K10" si="3">COMPLEX(D6,E6)</f>
         <v>0.036+0.224i</v>
       </c>
-      <c r="L6" s="214" t="str">
+      <c r="L6" s="96" t="str">
         <f>COMPLEX(0,-('[1]РОЗДІЛ 2'!U5+'[1]РОЗДІЛ 2'!U6)/2)</f>
         <v>-0.99i</v>
       </c>
-      <c r="M6" s="214" t="e">
+      <c r="M6" s="96" t="e">
         <f t="shared" ref="M6:M9" si="4">IMSUM(J6,K6,L6)</f>
         <v>#NUM!</v>
       </c>
@@ -19938,30 +19614,30 @@
         <f>'[1]РОЗДІЛ 2'!J17</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="G7" s="215" t="str">
+      <c r="G7" s="97" t="str">
         <f>'[1]РОЗДІЛ 2'!C8</f>
         <v>Г</v>
       </c>
-      <c r="H7" s="214" t="str">
+      <c r="H7" s="96" t="str">
         <f t="shared" si="0"/>
         <v>7+1,85i</v>
       </c>
-      <c r="I7" s="214" t="str">
+      <c r="I7" s="96" t="str">
         <f t="shared" si="1"/>
         <v>0.031+0.312i</v>
       </c>
-      <c r="J7" s="214" t="e">
+      <c r="J7" s="96" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K7" s="214" t="str">
+      <c r="K7" s="96" t="str">
         <f t="shared" si="3"/>
         <v>0.016+0.101i</v>
       </c>
-      <c r="L7" s="214">
+      <c r="L7" s="96">
         <v>0</v>
       </c>
-      <c r="M7" s="214" t="e">
+      <c r="M7" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
@@ -19987,30 +19663,30 @@
         <f>'[1]РОЗДІЛ 2'!J18</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G8" s="215" t="str">
+      <c r="G8" s="97" t="str">
         <f>'[1]РОЗДІЛ 2'!C9</f>
         <v>Д</v>
       </c>
-      <c r="H8" s="214" t="str">
+      <c r="H8" s="96" t="str">
         <f t="shared" si="0"/>
         <v>5+1,4i</v>
       </c>
-      <c r="I8" s="214" t="str">
+      <c r="I8" s="96" t="str">
         <f t="shared" si="1"/>
         <v>0.028+0.253i</v>
       </c>
-      <c r="J8" s="214" t="e">
+      <c r="J8" s="96" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K8" s="214" t="str">
+      <c r="K8" s="96" t="str">
         <f t="shared" si="3"/>
         <v>0.011+0.072i</v>
       </c>
-      <c r="L8" s="214">
+      <c r="L8" s="96">
         <v>0</v>
       </c>
-      <c r="M8" s="214" t="e">
+      <c r="M8" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
@@ -20036,30 +19712,30 @@
         <f>'[1]РОЗДІЛ 2'!J19</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G9" s="215" t="str">
+      <c r="G9" s="97" t="str">
         <f>'[1]РОЗДІЛ 2'!C10</f>
         <v>Е</v>
       </c>
-      <c r="H9" s="214" t="str">
+      <c r="H9" s="96" t="str">
         <f t="shared" si="0"/>
         <v>5+1,2i</v>
       </c>
-      <c r="I9" s="214" t="str">
+      <c r="I9" s="96" t="str">
         <f t="shared" si="1"/>
         <v>0.028+0.248i</v>
       </c>
-      <c r="J9" s="214" t="e">
+      <c r="J9" s="96" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K9" s="214" t="str">
+      <c r="K9" s="96" t="str">
         <f t="shared" si="3"/>
         <v>0.011+0.072i</v>
       </c>
-      <c r="L9" s="214">
+      <c r="L9" s="96">
         <v>0</v>
       </c>
-      <c r="M9" s="214" t="e">
+      <c r="M9" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
@@ -20073,51 +19749,51 @@
         <f>'[1]РОЗДІЛ 2'!J29</f>
         <v>0.35</v>
       </c>
-      <c r="G10" s="215" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" s="216" t="s">
+      <c r="G10" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="216" t="s">
+      <c r="I10" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="216" t="s">
+      <c r="J10" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="214" t="str">
+      <c r="K10" s="96" t="str">
         <f t="shared" si="3"/>
         <v>0.057+0.35i</v>
       </c>
-      <c r="L10" s="214" t="str">
+      <c r="L10" s="96" t="str">
         <f>COMPLEX(0,-('[1]РОЗДІЛ 2'!U6)/2)</f>
         <v>-0.215i</v>
       </c>
-      <c r="M10" s="214" t="str">
+      <c r="M10" s="96" t="str">
         <f>IMSUM(K10,L10)</f>
         <v>0.057+0.135i</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="215" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="216" t="s">
+      <c r="G11" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="216" t="s">
+      <c r="I11" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="216" t="s">
+      <c r="J11" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="216" t="s">
+      <c r="K11" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="214">
+      <c r="L11" s="96">
         <v>0</v>
       </c>
-      <c r="M11" s="214" t="str">
+      <c r="M11" s="96" t="str">
         <f>IMSUM(L11)</f>
         <v>0</v>
       </c>
@@ -20135,83 +19811,83 @@
         <f>[1]Трансформатори!K15</f>
         <v>1.8</v>
       </c>
-      <c r="G12" s="215" t="s">
-        <v>291</v>
-      </c>
-      <c r="H12" s="214" t="str">
+      <c r="G12" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="96" t="str">
         <f>COMPLEX(A12,B12-C12)</f>
         <v>4+1.2i</v>
       </c>
-      <c r="I12" s="216" t="s">
+      <c r="I12" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="216" t="s">
+      <c r="J12" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="216" t="s">
+      <c r="K12" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="216" t="s">
+      <c r="L12" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="214" t="str">
+      <c r="M12" s="96" t="str">
         <f>H12</f>
         <v>4+1.2i</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="217">
+      <c r="G13" s="99">
         <v>1</v>
       </c>
-      <c r="H13" s="216" t="s">
+      <c r="H13" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="216" t="s">
+      <c r="I13" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="216" t="s">
+      <c r="J13" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="216" t="s">
+      <c r="K13" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="214" t="str">
+      <c r="L13" s="96" t="str">
         <f>COMPLEX(0,-('[1]РОЗДІЛ 2'!U7+'[1]РОЗДІЛ 2'!U8+'[1]РОЗДІЛ 2'!U9)/2)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="214" t="str">
+      <c r="M13" s="96" t="str">
         <f>L13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="217">
+      <c r="G14" s="99">
         <v>2</v>
       </c>
-      <c r="H14" s="216" t="s">
+      <c r="H14" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="216" t="s">
+      <c r="I14" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="216" t="s">
+      <c r="J14" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="216" t="s">
+      <c r="K14" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="214" t="str">
+      <c r="L14" s="96" t="str">
         <f>COMPLEX(0,-('[1]РОЗДІЛ 2'!U10+'[1]РОЗДІЛ 2'!U11+'[1]РОЗДІЛ 2'!U12)/2)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="214" t="str">
+      <c r="M14" s="96" t="str">
         <f>L14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="H15" s="218" t="s">
-        <v>292</v>
+      <c r="H15" s="100" t="s">
+        <v>284</v>
       </c>
       <c r="I15" t="str">
         <f>IMSUM(I5,I6,I7,I8,I9)</f>
@@ -20355,31 +20031,31 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="J3" s="219" t="s">
-        <v>235</v>
+      <c r="H3" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>232</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="33" t="s">
         <v>97</v>
       </c>
@@ -20405,11 +20081,11 @@
         <f>'[1]РОЗДІЛ 2'!T12</f>
         <v>1.74</v>
       </c>
-      <c r="C5" s="220" t="e">
+      <c r="C5" s="102" t="e">
         <f>IMREAL(K5)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D5" s="220" t="e">
+      <c r="D5" s="102" t="e">
         <f>IMAGINARY(K5)</f>
         <v>#NUM!</v>
       </c>
@@ -20424,30 +20100,30 @@
       <c r="G5">
         <v>35</v>
       </c>
-      <c r="H5" s="221" t="str">
+      <c r="H5" s="103" t="str">
         <f>'[1]РОЗДІЛ 2'!L12</f>
         <v>2-Е</v>
       </c>
-      <c r="I5" s="222" t="s">
+      <c r="I5" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="222" t="str">
+      <c r="J5" s="104" t="str">
         <f>'[1]Table 2-4'!M9</f>
         <v>5,039+1,52i</v>
       </c>
-      <c r="K5" s="222" t="str">
+      <c r="K5" s="104" t="str">
         <f>J5</f>
         <v>5,039+1,52i</v>
       </c>
-      <c r="L5" s="222" t="str">
+      <c r="L5" s="104" t="str">
         <f>COMPLEX(A5,B5)</f>
         <v>1.05+1.74i</v>
       </c>
-      <c r="M5" s="222" t="e">
+      <c r="M5" s="104" t="e">
         <f t="shared" ref="M5:M15" si="0">COMPLEX(E5,F5)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N5" s="222" t="e">
+      <c r="N5" s="104" t="e">
         <f t="shared" ref="N5:N15" si="1">IMSUM(K5,M5)</f>
         <v>#NUM!</v>
       </c>
@@ -20461,11 +20137,11 @@
         <f>'[1]РОЗДІЛ 2'!T11</f>
         <v>0.83</v>
       </c>
-      <c r="C6" s="220" t="e">
+      <c r="C6" s="102" t="e">
         <f t="shared" ref="C6:C15" si="2">IMREAL(K6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D6" s="220" t="e">
+      <c r="D6" s="102" t="e">
         <f t="shared" ref="D6:D15" si="3">IMAGINARY(K6)</f>
         <v>#NUM!</v>
       </c>
@@ -20480,30 +20156,30 @@
       <c r="G6">
         <v>35</v>
       </c>
-      <c r="H6" s="221" t="str">
+      <c r="H6" s="103" t="str">
         <f>'[1]РОЗДІЛ 2'!L11</f>
         <v>2-Г</v>
       </c>
-      <c r="I6" s="222" t="s">
+      <c r="I6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="222" t="str">
+      <c r="J6" s="104" t="str">
         <f>'[1]Table 2-4'!M7</f>
         <v>7,047+2,263i</v>
       </c>
-      <c r="K6" s="222" t="str">
+      <c r="K6" s="104" t="str">
         <f>J6</f>
         <v>7,047+2,263i</v>
       </c>
-      <c r="L6" s="222" t="str">
+      <c r="L6" s="104" t="str">
         <f>COMPLEX(A6,B6)</f>
         <v>0.5+0.83i</v>
       </c>
-      <c r="M6" s="222" t="e">
+      <c r="M6" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N6" s="222" t="e">
+      <c r="N6" s="104" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20517,11 +20193,11 @@
         <f>'[1]РОЗДІЛ 2'!T10</f>
         <v>1.66</v>
       </c>
-      <c r="C7" s="220" t="e">
+      <c r="C7" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D7" s="220" t="e">
+      <c r="D7" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20536,30 +20212,30 @@
       <c r="G7">
         <v>35</v>
       </c>
-      <c r="H7" s="221" t="str">
+      <c r="H7" s="103" t="str">
         <f>'[1]РОЗДІЛ 2'!L10</f>
         <v>ВП-2</v>
       </c>
-      <c r="I7" s="222">
+      <c r="I7" s="104">
         <v>2</v>
       </c>
-      <c r="J7" s="222" t="str">
+      <c r="J7" s="104" t="str">
         <f>'[1]Table 2-4'!M14</f>
         <v>0</v>
       </c>
-      <c r="K7" s="222" t="e">
+      <c r="K7" s="104" t="e">
         <f>IMSUM(N5,N6,J7)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L7" s="222" t="str">
+      <c r="L7" s="104" t="str">
         <f>COMPLEX(A7,B7)</f>
         <v>0.81+1.66i</v>
       </c>
-      <c r="M7" s="222" t="e">
+      <c r="M7" s="104" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N7" s="223" t="e">
+      <c r="N7" s="105" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20573,11 +20249,11 @@
         <f>'[1]РОЗДІЛ 2'!T9</f>
         <v>1.58</v>
       </c>
-      <c r="C8" s="220" t="e">
+      <c r="C8" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D8" s="220" t="e">
+      <c r="D8" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20592,30 +20268,30 @@
       <c r="G8">
         <v>35</v>
       </c>
-      <c r="H8" s="224" t="str">
+      <c r="H8" s="106" t="str">
         <f>'[1]РОЗДІЛ 2'!L9</f>
         <v>3-Д</v>
       </c>
-      <c r="I8" s="225" t="s">
+      <c r="I8" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="225" t="str">
+      <c r="J8" s="107" t="str">
         <f>'[1]Table 2-4'!M8</f>
         <v>5,039+1,725i</v>
       </c>
-      <c r="K8" s="225" t="str">
+      <c r="K8" s="107" t="str">
         <f>J8</f>
         <v>5,039+1,725i</v>
       </c>
-      <c r="L8" s="225" t="str">
+      <c r="L8" s="107" t="str">
         <f t="shared" ref="L8:L15" si="6">COMPLEX(A8,B8)</f>
         <v>0.77+1.58i</v>
       </c>
-      <c r="M8" s="225" t="e">
+      <c r="M8" s="107" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N8" s="225" t="e">
+      <c r="N8" s="107" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20629,11 +20305,11 @@
         <f>'[1]РОЗДІЛ 2'!T8</f>
         <v>0.37</v>
       </c>
-      <c r="C9" s="220" t="e">
+      <c r="C9" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D9" s="220" t="e">
+      <c r="D9" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20648,30 +20324,30 @@
       <c r="G9">
         <v>35</v>
       </c>
-      <c r="H9" s="224" t="str">
+      <c r="H9" s="106" t="str">
         <f>'[1]РОЗДІЛ 2'!L8</f>
         <v>3-Б</v>
       </c>
-      <c r="I9" s="225" t="s">
+      <c r="I9" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="225" t="str">
+      <c r="J9" s="107" t="str">
         <f>'[1]Table 2-4'!M5</f>
         <v>6,038+1,727i</v>
       </c>
-      <c r="K9" s="225" t="str">
+      <c r="K9" s="107" t="str">
         <f>J9</f>
         <v>6,038+1,727i</v>
       </c>
-      <c r="L9" s="225" t="str">
+      <c r="L9" s="107" t="str">
         <f t="shared" si="6"/>
         <v>0.18+0.37i</v>
       </c>
-      <c r="M9" s="225" t="e">
+      <c r="M9" s="107" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N9" s="225" t="e">
+      <c r="N9" s="107" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20685,11 +20361,11 @@
         <f>'[1]РОЗДІЛ 2'!T7</f>
         <v>1.34</v>
       </c>
-      <c r="C10" s="220" t="e">
+      <c r="C10" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D10" s="220" t="e">
+      <c r="D10" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20704,30 +20380,30 @@
       <c r="G10">
         <v>35</v>
       </c>
-      <c r="H10" s="224" t="str">
+      <c r="H10" s="106" t="str">
         <f>'[1]РОЗДІЛ 2'!L7</f>
         <v>ВП-3</v>
       </c>
-      <c r="I10" s="225">
+      <c r="I10" s="107">
         <v>3</v>
       </c>
-      <c r="J10" s="225" t="str">
+      <c r="J10" s="107" t="str">
         <f>'[1]Table 2-4'!L13</f>
         <v>0</v>
       </c>
-      <c r="K10" s="225" t="e">
+      <c r="K10" s="107" t="e">
         <f>IMSUM(N8,N9,J10)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L10" s="225" t="str">
+      <c r="L10" s="107" t="str">
         <f t="shared" si="6"/>
         <v>0.65+1.34i</v>
       </c>
-      <c r="M10" s="225" t="e">
+      <c r="M10" s="107" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N10" s="226" t="e">
+      <c r="N10" s="108" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20741,11 +20417,11 @@
         <f>'[1]РОЗДІЛ 2'!M34</f>
         <v>0</v>
       </c>
-      <c r="C11" s="220" t="e">
+      <c r="C11" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D11" s="220" t="e">
+      <c r="D11" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20760,29 +20436,29 @@
       <c r="G11">
         <v>110</v>
       </c>
-      <c r="H11" s="227" t="s">
-        <v>294</v>
-      </c>
-      <c r="I11" s="228" t="s">
-        <v>290</v>
-      </c>
-      <c r="J11" s="228" t="str">
+      <c r="H11" s="109" t="s">
+        <v>286</v>
+      </c>
+      <c r="I11" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="110" t="str">
         <f>'[1]Table 2-4'!M11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="228" t="e">
+      <c r="K11" s="110" t="e">
         <f>IMSUM(N7,N10,J11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L11" s="228" t="str">
+      <c r="L11" s="110" t="str">
         <f t="shared" si="6"/>
         <v>0.7406</v>
       </c>
-      <c r="M11" s="228" t="e">
+      <c r="M11" s="110" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N11" s="228" t="e">
+      <c r="N11" s="110" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20796,11 +20472,11 @@
         <f>'[1]РОЗДІЛ 2'!N34</f>
         <v>17.850000000000001</v>
       </c>
-      <c r="C12" s="220" t="e">
+      <c r="C12" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D12" s="220" t="e">
+      <c r="D12" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20815,29 +20491,29 @@
       <c r="G12">
         <v>110</v>
       </c>
-      <c r="H12" s="227" t="s">
-        <v>295</v>
-      </c>
-      <c r="I12" s="228" t="s">
-        <v>291</v>
-      </c>
-      <c r="J12" s="228" t="str">
+      <c r="H12" s="109" t="s">
+        <v>287</v>
+      </c>
+      <c r="I12" s="110" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" s="110" t="str">
         <f>'[1]Table 2-4'!M12</f>
         <v>4+1,2i</v>
       </c>
-      <c r="K12" s="228" t="str">
+      <c r="K12" s="110" t="str">
         <f>J12</f>
         <v>4+1,2i</v>
       </c>
-      <c r="L12" s="228" t="str">
+      <c r="L12" s="110" t="str">
         <f t="shared" si="6"/>
         <v>0.7406+17.85i</v>
       </c>
-      <c r="M12" s="228" t="e">
+      <c r="M12" s="110" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N12" s="228" t="e">
+      <c r="N12" s="110" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20847,15 +20523,15 @@
         <f>'[1]РОЗДІЛ 2'!D34</f>
         <v>0.74060000000000004</v>
       </c>
-      <c r="B13" s="229">
+      <c r="B13" s="111">
         <f>'[1]РОЗДІЛ 2'!L34</f>
         <v>28.43</v>
       </c>
-      <c r="C13" s="220" t="e">
+      <c r="C13" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D13" s="220" t="e">
+      <c r="D13" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20870,28 +20546,28 @@
       <c r="G13">
         <v>110</v>
       </c>
-      <c r="H13" s="227" t="s">
-        <v>296</v>
-      </c>
-      <c r="I13" s="230">
+      <c r="H13" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="112">
         <v>0</v>
       </c>
-      <c r="J13" s="228">
+      <c r="J13" s="110">
         <v>0</v>
       </c>
-      <c r="K13" s="228" t="e">
+      <c r="K13" s="110" t="e">
         <f>IMSUM(N11,N12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L13" s="228" t="str">
+      <c r="L13" s="110" t="str">
         <f t="shared" si="6"/>
         <v>0.7406+28.43i</v>
       </c>
-      <c r="M13" s="228" t="e">
+      <c r="M13" s="110" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N13" s="231" t="e">
+      <c r="N13" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
@@ -20905,11 +20581,11 @@
         <f>'[1]РОЗДІЛ 2'!T6</f>
         <v>1.39</v>
       </c>
-      <c r="C14" s="220" t="e">
+      <c r="C14" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D14" s="220" t="e">
+      <c r="D14" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20924,11 +20600,11 @@
       <c r="G14">
         <v>110</v>
       </c>
-      <c r="H14" s="89" t="s">
-        <v>297</v>
+      <c r="H14" s="88" t="s">
+        <v>289</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J14" s="33" t="str">
         <f>'[1]Table 2-4'!M10</f>
@@ -20960,11 +20636,11 @@
         <f>'[1]РОЗДІЛ 2'!T5</f>
         <v>4.8099999999999996</v>
       </c>
-      <c r="C15" s="220" t="e">
+      <c r="C15" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D15" s="220" t="e">
+      <c r="D15" s="102" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
@@ -20979,8 +20655,8 @@
       <c r="G15">
         <v>110</v>
       </c>
-      <c r="H15" s="89" t="s">
-        <v>298</v>
+      <c r="H15" s="88" t="s">
+        <v>290</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>13</v>
@@ -21001,21 +20677,21 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="N15" s="232" t="e">
+      <c r="N15" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="O15" s="233">
+      <c r="O15" s="115">
         <f>0.147+0.18+0.089+0.696</f>
         <v>1.1119999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M16" s="230">
+      <c r="M16" s="112">
         <f>[1]Лист1!B11</f>
         <v>47</v>
       </c>
-      <c r="N16" s="230">
+      <c r="N16" s="112">
         <f>[1]Лист1!C11</f>
         <v>30</v>
       </c>
@@ -21029,14 +20705,14 @@
         <f>[1]Трансформатори!K21</f>
         <v>17.850000000000001</v>
       </c>
-      <c r="O17" s="230">
+      <c r="O17" s="112">
         <f>N16-N17</f>
         <v>12.149999999999999</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M18" t="e">
         <f>IMSUM(M5,M6,M7,M8,M9,M10,M14,M15)</f>
@@ -21051,13 +20727,13 @@
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M19" t="e">
         <f>IMSUM(M11,M12,M13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="O19" s="229">
+      <c r="O19" s="111">
         <f>N18/O16*100</f>
         <v>1.9943180788303796</v>
       </c>
@@ -21067,7 +20743,7 @@
         <v>5.74</v>
       </c>
       <c r="O20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.25">
@@ -21076,7 +20752,7 @@
         <v>10.294411665905015</v>
       </c>
     </row>
-    <row r="22" spans="12:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="12:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M22" s="33" t="e">
         <f>IMPRODUCT(IMDIV(IMPRODUCT(K5,K5),G5^2),L5)</f>
         <v>#NUM!</v>
@@ -21240,46 +20916,46 @@
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="96" t="s">
-        <v>311</v>
+      <c r="G3" s="130" t="s">
+        <v>303</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="96" t="s">
-        <v>226</v>
+        <v>232</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>223</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M3" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="N3" s="96" t="s">
-        <v>309</v>
+        <v>302</v>
+      </c>
+      <c r="N3" s="130" t="s">
+        <v>301</v>
       </c>
       <c r="O3" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="98"/>
+      <c r="G4" s="135"/>
       <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="98"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="33" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>147</v>
@@ -21288,629 +20964,629 @@
         <v>9</v>
       </c>
       <c r="M4" s="33"/>
-      <c r="N4" s="98"/>
+      <c r="N4" s="135"/>
       <c r="O4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="220" t="e">
-        <f>IMREAL(J5)</f>
+      <c r="A5" s="102" t="e">
+        <f t="shared" ref="A5:A15" si="0">IMREAL(J5)</f>
         <v>#NUM!</v>
       </c>
-      <c r="B5" s="220" t="e">
-        <f>IMAGINARY(J5)</f>
+      <c r="B5" s="102" t="e">
+        <f t="shared" ref="B5:B15" si="1">IMAGINARY(J5)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C5" s="220" t="e">
-        <f>IMREAL(K5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" s="220" t="e">
-        <f>IMAGINARY(K5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="89" t="s">
+      <c r="C5" s="102">
+        <f t="shared" ref="C5:C15" si="2">IMREAL(K5)</f>
+        <v>1.89</v>
+      </c>
+      <c r="D5" s="102">
+        <f t="shared" ref="D5:D15" si="3">IMAGINARY(K5)</f>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G5" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="88">
         <f>ROUND(115*1.05,0)</f>
         <v>121</v>
       </c>
-      <c r="I5" s="89" t="str">
+      <c r="I5" s="88" t="str">
         <f>'[1]Tabl 2-5'!H15</f>
         <v>ДЖ-В</v>
       </c>
-      <c r="J5" s="89" t="str">
+      <c r="J5" s="88" t="e">
         <f>'[1]Tabl 2-5'!N15</f>
-        <v>48,112+17,899i</v>
-      </c>
-      <c r="K5" s="89" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" s="88" t="str">
         <f>'[1]Tabl 2-5'!L15</f>
-        <v>1,89+4,81i</v>
-      </c>
-      <c r="L5" s="89" t="e">
-        <f>ROUND((A5*C5+B5*D5)/H5,3)</f>
+        <v>1.89+4.81i</v>
+      </c>
+      <c r="L5" s="88" t="e">
+        <f t="shared" ref="L5:L15" si="4">ROUND((A5*C5+B5*D5)/H5,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M5" s="89" t="e">
-        <f>ROUND((A5*D5-B5*C5)/H5,3)</f>
+      <c r="M5" s="88" t="e">
+        <f t="shared" ref="M5:M15" si="5">ROUND((A5*D5-B5*C5)/H5,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N5" s="89" t="s">
+      <c r="N5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="89" t="e">
-        <f>ROUND(SQRT((H5-L5)^2+M5^2),2)</f>
+      <c r="O5" s="88" t="e">
+        <f t="shared" ref="O5:O15" si="6">ROUND(SQRT((H5-L5)^2+M5^2),2)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220" t="e">
-        <f>IMREAL(J6)</f>
+      <c r="A6" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B6" s="220" t="e">
-        <f>IMAGINARY(J6)</f>
+      <c r="B6" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C6" s="220" t="e">
-        <f>IMREAL(K6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" s="220" t="e">
-        <f>IMAGINARY(K6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="89" t="s">
-        <v>307</v>
-      </c>
-      <c r="H6" s="89" t="e">
+      <c r="C6" s="102">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="D6" s="102">
+        <f t="shared" si="3"/>
+        <v>1.39</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="88" t="e">
         <f>O5</f>
         <v>#NUM!</v>
       </c>
-      <c r="I6" s="89" t="str">
+      <c r="I6" s="88" t="str">
         <f>'[1]Tabl 2-5'!H14</f>
         <v>В-А(ШВН)</v>
       </c>
-      <c r="J6" s="89" t="str">
+      <c r="J6" s="88" t="e">
         <f>'[1]Tabl 2-5'!N14</f>
-        <v>27,605+11,149i</v>
-      </c>
-      <c r="K6" s="89" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" s="88" t="str">
         <f>'[1]Tabl 2-5'!L14</f>
-        <v>0,65+1,39i</v>
-      </c>
-      <c r="L6" s="89" t="e">
-        <f>ROUND((A6*C6+B6*D6)/H6,3)</f>
+        <v>0.65+1.39i</v>
+      </c>
+      <c r="L6" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M6" s="89" t="e">
-        <f>ROUND((A6*D6-B6*C6)/H6,3)</f>
+      <c r="M6" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N6" s="89" t="s">
-        <v>289</v>
-      </c>
-      <c r="O6" s="89" t="e">
-        <f>ROUND(SQRT((H6-L6)^2+M6^2),2)</f>
+      <c r="N6" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="O6" s="88" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="220" t="e">
-        <f>IMREAL(J7)</f>
+      <c r="A7" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B7" s="220" t="e">
-        <f>IMAGINARY(J7)</f>
+      <c r="B7" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C7" s="220" t="e">
-        <f>IMREAL(K7)</f>
+      <c r="C7" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D7" s="220" t="e">
-        <f>IMAGINARY(K7)</f>
+      <c r="D7" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G7" s="89" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="89" t="e">
+      <c r="G7" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="88" t="e">
         <f>O6</f>
         <v>#NUM!</v>
       </c>
-      <c r="I7" s="89" t="str">
+      <c r="I7" s="88" t="str">
         <f>'[1]Tabl 2-5'!H13</f>
         <v>ШВН-0</v>
       </c>
-      <c r="J7" s="89" t="str">
+      <c r="J7" s="88" t="e">
         <f>'[1]Tabl 2-5'!N13</f>
-        <v>27,501+10,913i</v>
-      </c>
-      <c r="K7" s="89" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K7" s="88" t="str">
         <f>'[1]Tabl 2-5'!L13</f>
         <v>0,7406+28,43i</v>
       </c>
-      <c r="L7" s="89" t="e">
-        <f>ROUND((A7*C7+B7*D7)/H7,3)</f>
+      <c r="L7" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M7" s="89" t="e">
-        <f>ROUND((A7*D7-B7*C7)/H7,3)</f>
+      <c r="M7" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="88">
         <v>0</v>
       </c>
-      <c r="O7" s="89" t="e">
-        <f>ROUND(SQRT((H7-L7)^2+M7^2),2)</f>
+      <c r="O7" s="88" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="220" t="e">
-        <f>IMREAL(J8)</f>
+      <c r="A8" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B8" s="220" t="e">
-        <f>IMAGINARY(J8)</f>
+      <c r="B8" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C8" s="220" t="e">
-        <f>IMREAL(K8)</f>
+      <c r="C8" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D8" s="220" t="e">
-        <f>IMAGINARY(K8)</f>
+      <c r="D8" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="88">
         <v>0</v>
       </c>
-      <c r="H8" s="89" t="e">
+      <c r="H8" s="88" t="e">
         <f>O7</f>
         <v>#NUM!</v>
       </c>
-      <c r="I8" s="89" t="str">
+      <c r="I8" s="88" t="str">
         <f>'[1]Tabl 2-5'!H12</f>
         <v>0-ШНН</v>
       </c>
-      <c r="J8" s="89" t="str">
+      <c r="J8" s="88" t="str">
         <f>'[1]Tabl 2-5'!N12</f>
         <v>4,001+1,226i</v>
       </c>
-      <c r="K8" s="89" t="str">
+      <c r="K8" s="88" t="str">
         <f>'[1]Tabl 2-5'!L12</f>
         <v>0,7406+17,85i</v>
       </c>
-      <c r="L8" s="89" t="e">
-        <f>ROUND((A8*C8+B8*D8)/H8,3)</f>
+      <c r="L8" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M8" s="89" t="e">
-        <f>ROUND((A8*D8-B8*C8)/H8,3)</f>
+      <c r="M8" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N8" s="89" t="s">
-        <v>306</v>
-      </c>
-      <c r="O8" s="237" t="e">
-        <f>ROUND(SQRT((H8-L8)^2+M8^2),2)</f>
+      <c r="N8" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="O8" s="119" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="P8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="220" t="e">
-        <f>IMREAL(J9)</f>
+      <c r="A9" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B9" s="220" t="e">
-        <f>IMAGINARY(J9)</f>
+      <c r="B9" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C9" s="220" t="e">
-        <f>IMREAL(K9)</f>
+      <c r="C9" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D9" s="220" t="e">
-        <f>IMAGINARY(K9)</f>
+      <c r="D9" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="88">
         <v>0</v>
       </c>
-      <c r="H9" s="89" t="e">
+      <c r="H9" s="88" t="e">
         <f>O7</f>
         <v>#NUM!</v>
       </c>
-      <c r="I9" s="89" t="str">
+      <c r="I9" s="88" t="str">
         <f>'[1]Tabl 2-5'!H11</f>
         <v>0-ШСН</v>
       </c>
-      <c r="J9" s="89" t="str">
+      <c r="J9" s="88" t="e">
         <f>'[1]Tabl 2-5'!N11</f>
-        <v>23,449+7,728i</v>
-      </c>
-      <c r="K9" s="89" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" s="88" t="str">
         <f>'[1]Tabl 2-5'!L11</f>
         <v>0,7406</v>
       </c>
-      <c r="L9" s="89" t="e">
-        <f>ROUND((A9*C9+B9*D9)/H9,3)</f>
+      <c r="L9" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M9" s="89" t="e">
-        <f>ROUND((A9*D9-B9*C9)/H9,3)</f>
+      <c r="M9" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N9" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="O9" s="237" t="e">
-        <f>ROUND(SQRT((H9-L9)^2+M9^2),2)</f>
+      <c r="N9" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="O9" s="119" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="P9" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="220" t="e">
-        <f>IMREAL(J10)</f>
+      <c r="A10" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B10" s="220" t="e">
-        <f>IMAGINARY(J10)</f>
+      <c r="B10" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C10" s="220" t="e">
-        <f>IMREAL(K10)</f>
+      <c r="C10" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D10" s="220" t="e">
-        <f>IMAGINARY(K10)</f>
+      <c r="D10" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G10" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="236" t="e">
+      <c r="G10" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="118" t="e">
         <f>O9</f>
         <v>#NUM!</v>
       </c>
-      <c r="I10" s="89" t="str">
+      <c r="I10" s="88" t="str">
         <f>'[1]Tabl 2-5'!H10</f>
         <v>ВП-3</v>
       </c>
-      <c r="J10" s="89" t="str">
+      <c r="J10" s="88" t="str">
         <f>'[1]Tabl 2-5'!N10</f>
         <v>11,173+3,649i</v>
       </c>
-      <c r="K10" s="89" t="str">
+      <c r="K10" s="88" t="str">
         <f>'[1]Tabl 2-5'!L10</f>
         <v>0,65+1,34i</v>
       </c>
-      <c r="L10" s="89" t="e">
-        <f>ROUND((A10*C10+B10*D10)/H10,3)</f>
+      <c r="L10" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M10" s="89" t="e">
-        <f>ROUND((A10*D10-B10*C10)/H10,3)</f>
+      <c r="M10" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N10" s="89">
+      <c r="N10" s="88">
         <v>3</v>
       </c>
-      <c r="O10" s="236" t="e">
-        <f>ROUND(SQRT((H10-L10)^2+M10^2),2)</f>
+      <c r="O10" s="118" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="220" t="e">
-        <f>IMREAL(J11)</f>
+      <c r="A11" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B11" s="220" t="e">
-        <f>IMAGINARY(J11)</f>
+      <c r="B11" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C11" s="220" t="e">
-        <f>IMREAL(K11)</f>
+      <c r="C11" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D11" s="220" t="e">
-        <f>IMAGINARY(K11)</f>
+      <c r="D11" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="88">
         <v>3</v>
       </c>
-      <c r="H11" s="89" t="e">
+      <c r="H11" s="88" t="e">
         <f>O10</f>
         <v>#NUM!</v>
       </c>
-      <c r="I11" s="89" t="str">
+      <c r="I11" s="88" t="str">
         <f>'[1]Tabl 2-5'!H9</f>
         <v>3-Б</v>
       </c>
-      <c r="J11" s="89" t="str">
+      <c r="J11" s="88" t="str">
         <f>'[1]Tabl 2-5'!N9</f>
         <v>6,044+1,739i</v>
       </c>
-      <c r="K11" s="89" t="str">
+      <c r="K11" s="88" t="str">
         <f>'[1]Tabl 2-5'!L9</f>
         <v>0,18+0,37i</v>
       </c>
-      <c r="L11" s="89" t="e">
-        <f>ROUND((A11*C11+B11*D11)/H11,3)</f>
+      <c r="L11" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M11" s="89" t="e">
-        <f>ROUND((A11*D11-B11*C11)/H11,3)</f>
+      <c r="M11" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N11" s="89" t="s">
+      <c r="N11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="235" t="e">
-        <f>ROUND(SQRT((H11-L11)^2+M11^2),2)</f>
+      <c r="O11" s="117" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="220" t="e">
-        <f>IMREAL(J12)</f>
+      <c r="A12" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B12" s="220" t="e">
-        <f>IMAGINARY(J12)</f>
+      <c r="B12" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C12" s="220" t="e">
-        <f>IMREAL(K12)</f>
+      <c r="C12" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D12" s="220" t="e">
-        <f>IMAGINARY(K12)</f>
+      <c r="D12" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="88">
         <v>3</v>
       </c>
-      <c r="H12" s="89" t="e">
+      <c r="H12" s="88" t="e">
         <f>O10</f>
         <v>#NUM!</v>
       </c>
-      <c r="I12" s="89" t="str">
+      <c r="I12" s="88" t="str">
         <f>'[1]Tabl 2-5'!H8</f>
         <v>3-Д</v>
       </c>
-      <c r="J12" s="89" t="str">
+      <c r="J12" s="88" t="str">
         <f>'[1]Tabl 2-5'!N8</f>
         <v>5,057+1,762i</v>
       </c>
-      <c r="K12" s="89" t="str">
+      <c r="K12" s="88" t="str">
         <f>'[1]Tabl 2-5'!L8</f>
         <v>0,77+1,58i</v>
       </c>
-      <c r="L12" s="89" t="e">
-        <f>ROUND((A12*C12+B12*D12)/H12,3)</f>
+      <c r="L12" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M12" s="89" t="e">
-        <f>ROUND((A12*D12-B12*C12)/H12,3)</f>
+      <c r="M12" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N12" s="89" t="s">
+      <c r="N12" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="235" t="e">
-        <f>ROUND(SQRT((H12-L12)^2+M12^2),2)</f>
+      <c r="O12" s="117" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220" t="e">
-        <f>IMREAL(J13)</f>
+      <c r="A13" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B13" s="220" t="e">
-        <f>IMAGINARY(J13)</f>
+      <c r="B13" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C13" s="220" t="e">
-        <f>IMREAL(K13)</f>
+      <c r="C13" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D13" s="220" t="e">
-        <f>IMAGINARY(K13)</f>
+      <c r="D13" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G13" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="236" t="e">
+      <c r="G13" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="118" t="e">
         <f>O9</f>
         <v>#NUM!</v>
       </c>
-      <c r="I13" s="89" t="str">
+      <c r="I13" s="88" t="str">
         <f>'[1]Tabl 2-5'!H7</f>
         <v>ВП-2</v>
       </c>
-      <c r="J13" s="89" t="str">
+      <c r="J13" s="88" t="e">
         <f>'[1]Tabl 2-5'!N7</f>
-        <v>12,239+4,079i</v>
-      </c>
-      <c r="K13" s="89" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" s="88" t="str">
         <f>'[1]Tabl 2-5'!L7</f>
         <v>0,81+1,66i</v>
       </c>
-      <c r="L13" s="89" t="e">
-        <f>ROUND((A13*C13+B13*D13)/H13,3)</f>
+      <c r="L13" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M13" s="89" t="e">
-        <f>ROUND((A13*D13-B13*C13)/H13,3)</f>
+      <c r="M13" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N13" s="89">
+      <c r="N13" s="88">
         <v>2</v>
       </c>
-      <c r="O13" s="236" t="e">
-        <f>ROUND(SQRT((H13-L13)^2+M13^2),2)</f>
+      <c r="O13" s="118" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="220" t="e">
-        <f>IMREAL(J14)</f>
+      <c r="A14" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B14" s="220" t="e">
-        <f>IMAGINARY(J14)</f>
+      <c r="B14" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C14" s="220" t="e">
-        <f>IMREAL(K14)</f>
+      <c r="C14" s="102" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D14" s="220" t="e">
-        <f>IMAGINARY(K14)</f>
+      <c r="D14" s="102" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G14" s="88">
         <v>2</v>
       </c>
-      <c r="H14" s="89" t="e">
+      <c r="H14" s="88" t="e">
         <f>O13</f>
         <v>#NUM!</v>
       </c>
-      <c r="I14" s="89" t="str">
+      <c r="I14" s="88" t="str">
         <f>'[1]Tabl 2-5'!H6</f>
         <v>2-Г</v>
       </c>
-      <c r="J14" s="89" t="str">
+      <c r="J14" s="88" t="str">
         <f>'[1]Tabl 2-5'!N6</f>
         <v>7,069+2,3i</v>
       </c>
-      <c r="K14" s="89" t="str">
+      <c r="K14" s="88" t="str">
         <f>'[1]Tabl 2-5'!L6</f>
         <v>0,5+0,83i</v>
       </c>
-      <c r="L14" s="89" t="e">
-        <f>ROUND((A14*C14+B14*D14)/H14,3)</f>
+      <c r="L14" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M14" s="89" t="e">
-        <f>ROUND((A14*D14-B14*C14)/H14,3)</f>
+      <c r="M14" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N14" s="89" t="s">
+      <c r="N14" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="235" t="e">
-        <f>ROUND(SQRT((H14-L14)^2+M14^2),2)</f>
+      <c r="O14" s="117" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="220" t="e">
-        <f>IMREAL(J15)</f>
+      <c r="A15" s="102" t="e">
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="B15" s="220" t="e">
-        <f>IMAGINARY(J15)</f>
+      <c r="B15" s="102" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C15" s="220" t="e">
-        <f>IMREAL(K15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D15" s="220" t="e">
-        <f>IMAGINARY(K15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" s="89">
+      <c r="C15" s="102">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="D15" s="102">
+        <f t="shared" si="3"/>
+        <v>1.74</v>
+      </c>
+      <c r="G15" s="88">
         <v>2</v>
       </c>
-      <c r="H15" s="89" t="e">
+      <c r="H15" s="88" t="e">
         <f>O13</f>
         <v>#NUM!</v>
       </c>
-      <c r="I15" s="89" t="str">
+      <c r="I15" s="88" t="str">
         <f>'[1]Tabl 2-5'!H5</f>
         <v>2-Е</v>
       </c>
-      <c r="J15" s="89" t="str">
+      <c r="J15" s="88" t="e">
         <f>'[1]Tabl 2-5'!N5</f>
-        <v>5,063+1,559i</v>
-      </c>
-      <c r="K15" s="89" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K15" s="88" t="str">
         <f>'[1]Tabl 2-5'!L5</f>
-        <v>1,05+1,74i</v>
-      </c>
-      <c r="L15" s="89" t="e">
-        <f>ROUND((A15*C15+B15*D15)/H15,3)</f>
+        <v>1.05+1.74i</v>
+      </c>
+      <c r="L15" s="88" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M15" s="89" t="e">
-        <f>ROUND((A15*D15-B15*C15)/H15,3)</f>
+      <c r="M15" s="88" t="e">
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N15" s="89" t="s">
+      <c r="N15" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="235" t="e">
-        <f>ROUND(SQRT((H15-L15)^2+M15^2),2)</f>
+      <c r="O15" s="117" t="e">
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="234" t="s">
-        <v>303</v>
+      <c r="G17" s="116" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="5:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G20" s="96" t="s">
-        <v>301</v>
+      <c r="G20" s="130" t="s">
+        <v>293</v>
       </c>
       <c r="H20" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I20" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J20" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K20" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
       <c r="N20" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O20" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P20" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="98"/>
+      <c r="G21" s="135"/>
       <c r="H21" s="33" t="s">
         <v>9</v>
       </c>
@@ -21923,8 +21599,8 @@
       <c r="K21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
       <c r="N21" s="33" t="s">
         <v>9</v>
       </c>
@@ -21932,7 +21608,7 @@
         <v>9</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21940,7 +21616,7 @@
         <f>[1]Лист1!F4</f>
         <v>6</v>
       </c>
-      <c r="G22" s="89" t="str">
+      <c r="G22" s="88" t="str">
         <f>'[1]Table 2-4'!G5</f>
         <v>Б</v>
       </c>
@@ -21965,7 +21641,7 @@
         <f>[1]Лист1!F5</f>
         <v>6</v>
       </c>
-      <c r="G23" s="89" t="str">
+      <c r="G23" s="88" t="str">
         <f>'[1]Table 2-4'!G6</f>
         <v>В</v>
       </c>
@@ -21990,7 +21666,7 @@
         <f>[1]Лист1!F6</f>
         <v>10</v>
       </c>
-      <c r="G24" s="89" t="str">
+      <c r="G24" s="88" t="str">
         <f>'[1]Table 2-4'!G7</f>
         <v>Г</v>
       </c>
@@ -22015,7 +21691,7 @@
         <f>[1]Лист1!F7</f>
         <v>10</v>
       </c>
-      <c r="G25" s="89" t="str">
+      <c r="G25" s="88" t="str">
         <f>'[1]Table 2-4'!G8</f>
         <v>Д</v>
       </c>
@@ -22040,7 +21716,7 @@
         <f>[1]Лист1!F8</f>
         <v>6</v>
       </c>
-      <c r="G26" s="89" t="str">
+      <c r="G26" s="88" t="str">
         <f>'[1]Table 2-4'!G9</f>
         <v>Е</v>
       </c>
@@ -24257,26 +23933,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="93" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="92"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -24530,13 +24206,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="130" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -24548,19 +24224,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="138" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="130" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -24571,9 +24247,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="98"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -24583,13 +24259,13 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="102"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="139"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
@@ -24603,10 +24279,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="131" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -24653,8 +24329,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -24699,8 +24375,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -24745,8 +24421,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="97" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="134" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -24793,8 +24469,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -24839,10 +24515,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="130" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -24889,8 +24565,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -24935,8 +24611,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -24981,8 +24657,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="128"/>
+      <c r="D12" s="130" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -25029,8 +24705,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -25075,8 +24751,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -25121,8 +24797,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -25167,8 +24843,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -25213,8 +24889,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -25252,6 +24928,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -25260,13 +24943,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25289,20 +24965,20 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110" t="s">
+      <c r="E3" s="140"/>
+      <c r="F3" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="110"/>
+      <c r="G3" s="140"/>
     </row>
     <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="110"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="40" t="s">
         <v>113</v>
       </c>
@@ -25438,7 +25114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
@@ -25454,25 +25130,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="147" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="147" t="s">
         <v>168</v>
       </c>
       <c r="J3" s="56" t="s">
@@ -25489,15 +25165,15 @@
       </c>
     </row>
     <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="114"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="55" t="s">
         <v>147</v>
       </c>
@@ -25512,27 +25188,27 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="119"/>
-      <c r="D6" s="115"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="55" t="str">
         <f>нагрів!D5</f>
         <v>ВП-Д</v>
@@ -25572,8 +25248,8 @@
       </c>
     </row>
     <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="119"/>
-      <c r="D7" s="115"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="55" t="str">
         <f>нагрів!D6</f>
         <v>Д-В</v>
@@ -25611,42 +25287,42 @@
       <c r="N7" s="54"/>
     </row>
     <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="119"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="59">
         <f>M6+M7</f>
         <v>1.8504872727272728</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="119"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116" t="str">
+      <c r="C9" s="149"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="141" t="str">
         <f>нагрів!D7</f>
         <v>відключення ВП-Д</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="118"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="119"/>
-      <c r="D10" s="115"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="55" t="str">
         <f>нагрів!D8</f>
         <v>ВП-В</v>
@@ -25683,8 +25359,8 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="119"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="55" t="str">
         <f>нагрів!D9</f>
         <v>В-Д</v>
@@ -25721,26 +25397,26 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="119"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116" t="s">
+      <c r="C12" s="149"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
       <c r="M12" s="59">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="119"/>
-      <c r="D13" s="112" t="s">
+      <c r="C13" s="149"/>
+      <c r="D13" s="144" t="s">
         <v>155</v>
       </c>
       <c r="E13" s="55" t="str">
@@ -25781,8 +25457,8 @@
       </c>
     </row>
     <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="55" t="str">
         <f>Fрозр!E8</f>
         <v>ВП-Д</v>
@@ -25821,45 +25497,45 @@
       </c>
     </row>
     <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="116" t="s">
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
       <c r="M15" s="59">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="118"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="143"/>
     </row>
     <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="114"/>
-      <c r="D17" s="115"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="55" t="str">
         <f>нагрів!D13</f>
         <v>ВП-Е</v>
@@ -25897,8 +25573,8 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="55" t="str">
         <f>нагрів!D14</f>
         <v>Е-Г</v>
@@ -25936,41 +25612,41 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="114"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116" t="s">
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
       <c r="M19" s="59">
         <f>M17+M18</f>
         <v>1.8346254545454546</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="114"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116" t="s">
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="118"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="143"/>
     </row>
     <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="55" t="str">
         <f>нагрів!D16</f>
         <v>ВП-Г</v>
@@ -26007,8 +25683,8 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
       <c r="E22" s="55" t="str">
         <f>нагрів!D17</f>
         <v>Г-Е</v>
@@ -26044,26 +25720,26 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="116" t="s">
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="118"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
       <c r="M23" s="59">
         <f>M21+M22</f>
         <v>2.3726354545454549</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="114"/>
-      <c r="D24" s="114" t="s">
+      <c r="C24" s="147"/>
+      <c r="D24" s="147" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="55" t="str">
@@ -26104,8 +25780,8 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="55" t="str">
         <f>нагрів!D19</f>
         <v>Г-2</v>
@@ -26143,8 +25819,8 @@
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="55" t="str">
         <f>нагрів!D20</f>
         <v>Е-2</v>
@@ -26183,46 +25859,46 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116" t="s">
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="118"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="143"/>
       <c r="M27" s="59">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116" t="s">
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="143"/>
       <c r="M28" s="59">
         <f>M24+M25</f>
         <v>1.7127409090909091</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="144"/>
       <c r="E29" s="55" t="s">
         <v>151</v>
       </c>
@@ -26260,8 +25936,8 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="114"/>
-      <c r="D30" s="121"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="55" t="s">
         <v>152</v>
       </c>
@@ -26298,8 +25974,8 @@
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="114"/>
-      <c r="D31" s="122"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="146"/>
       <c r="E31" s="55" t="s">
         <v>153</v>
       </c>
@@ -26335,36 +26011,36 @@
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
       <c r="M32" s="59">
         <f>M29+M30</f>
         <v>9.2161288181818186</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="111" t="s">
+      <c r="C33" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
       <c r="M33" s="59">
         <f>M29+M31</f>
         <v>4.4329513636363638</v>
@@ -26378,17 +26054,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E23:L23"/>
     <mergeCell ref="C33:L33"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
@@ -26405,6 +26070,17 @@
     <mergeCell ref="E15:L15"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="падіння напруги" sheetId="11" r:id="rId9"/>
     <sheet name="трансформ + компенс" sheetId="12" r:id="rId10"/>
     <sheet name="нагрів" sheetId="10" r:id="rId11"/>
-    <sheet name="Втрати потужності" sheetId="14" r:id="rId12"/>
-    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId13"/>
+    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId12"/>
+    <sheet name="Втрати потужності" sheetId="14" r:id="rId13"/>
     <sheet name="економ. частина" sheetId="13" r:id="rId14"/>
     <sheet name="РОЗДІЛ 2" sheetId="15" r:id="rId15"/>
     <sheet name="Table 2-4" sheetId="16" r:id="rId16"/>
     <sheet name="Tabl 2-5" sheetId="17" r:id="rId17"/>
     <sheet name="Table 2-6" sheetId="18" r:id="rId18"/>
+    <sheet name="пункт2.2" sheetId="19" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="309">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -3686,28 +3687,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3728,8 +3708,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3740,7 +3756,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3749,32 +3768,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3782,44 +3777,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3845,11 +3807,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3911,11 +3912,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3923,11 +3924,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7606,6 +7607,661 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Прямая соединительная линия 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="1112520"/>
+          <a:ext cx="4570095" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6726555" y="1104900"/>
+          <a:ext cx="22860" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая со стрелкой 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8500907" y="1093824"/>
+          <a:ext cx="22860" cy="608360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Прямая со стрелкой 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7176135" y="1013460"/>
+          <a:ext cx="1120140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Прямая со стрелкой 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="998220"/>
+          <a:ext cx="1148715" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Прямая со стрелкой 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9317355" y="1005840"/>
+          <a:ext cx="922020" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="3070860"/>
+          <a:ext cx="4570095" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>610263</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734838" y="3054629"/>
+          <a:ext cx="7620" cy="622850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546653</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Прямая со стрелкой 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8500028" y="3062799"/>
+          <a:ext cx="1987" cy="573266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Прямая со стрелкой 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7107555" y="2926080"/>
+          <a:ext cx="1226820" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Прямая со стрелкой 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="2903220"/>
+          <a:ext cx="1148715" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Прямая со стрелкой 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9317355" y="2910840"/>
+          <a:ext cx="922020" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43009" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s43009"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8754,6 +9410,266 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>4</xdr:row>
@@ -9128,266 +10044,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s25620"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9220" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9220"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9219" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9219"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9218" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9218"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9221" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9221"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11713,46 +12369,46 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="132" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="162" t="s">
+      <c r="J3" s="160" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="162" t="s">
+      <c r="K3" s="160" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="141"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -12018,43 +12674,43 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="150" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="153" t="s">
+      <c r="D15" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="153" t="s">
+      <c r="E15" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="153" t="s">
+      <c r="F15" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="153" t="s">
+      <c r="G15" s="150" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="153" t="s">
+      <c r="H15" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="I15" s="153" t="s">
+      <c r="I15" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="153" t="s">
+      <c r="J15" s="150" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="153" t="s">
+      <c r="K15" s="150" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="153"/>
+      <c r="C16" s="150"/>
       <c r="D16" s="159"/>
       <c r="E16" s="159"/>
-      <c r="F16" s="153"/>
+      <c r="F16" s="150"/>
       <c r="G16" s="159"/>
-      <c r="H16" s="153"/>
+      <c r="H16" s="150"/>
       <c r="I16" s="159"/>
-      <c r="J16" s="153"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="159"/>
     </row>
     <row r="17" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12327,12 +12983,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
       <c r="G23" s="122">
         <f>SUM(G17:G22)</f>
         <v>49.050000000000004</v>
@@ -12360,30 +13016,30 @@
       <c r="C28" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="153" t="s">
+      <c r="D28" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="153" t="s">
+      <c r="E28" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="153" t="s">
+      <c r="F28" s="150" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="153" t="s">
+      <c r="G28" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="H28" s="153" t="s">
+      <c r="H28" s="150" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="154" t="str">
+      <c r="I28" s="151" t="str">
         <f>I3</f>
         <v>nт</v>
       </c>
-      <c r="J28" s="154" t="str">
+      <c r="J28" s="151" t="str">
         <f>J3</f>
         <v>Kз</v>
       </c>
-      <c r="K28" s="154" t="str">
+      <c r="K28" s="151" t="str">
         <f>K3</f>
         <v>Kзав</v>
       </c>
@@ -12397,9 +13053,9 @@
       <c r="F29" s="159"/>
       <c r="G29" s="159"/>
       <c r="H29" s="159"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
     </row>
     <row r="30" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -12685,72 +13341,72 @@
       <c r="L38" s="69"/>
     </row>
     <row r="40" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="153" t="s">
+      <c r="C40" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="160" t="s">
+      <c r="D40" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="160" t="s">
+      <c r="E40" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="160" t="s">
+      <c r="F40" s="162" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160" t="s">
+      <c r="G40" s="162"/>
+      <c r="H40" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="153" t="s">
+      <c r="I40" s="150" t="s">
         <v>213</v>
       </c>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
     </row>
     <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="159"/>
       <c r="D41" s="159"/>
       <c r="E41" s="159"/>
-      <c r="F41" s="153" t="s">
+      <c r="F41" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="153" t="s">
+      <c r="G41" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="H41" s="160"/>
-      <c r="I41" s="154" t="str">
+      <c r="H41" s="162"/>
+      <c r="I41" s="151" t="str">
         <f>J28</f>
         <v>Kз</v>
       </c>
-      <c r="J41" s="154" t="str">
+      <c r="J41" s="151" t="str">
         <f>K28</f>
         <v>Kзав</v>
       </c>
-      <c r="K41" s="153" t="s">
+      <c r="K41" s="150" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="159"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
-      <c r="K42" s="153"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="150"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C43" s="159"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
     </row>
     <row r="44" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="115" t="s">
@@ -12857,32 +13513,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="I40:K40"/>
@@ -12894,6 +13524,32 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12949,70 +13605,70 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="175" t="s">
+      <c r="H2" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="175" t="s">
+      <c r="J2" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="173" t="s">
+      <c r="K2" s="183" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="165"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="174"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="184"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="169" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="184"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="171"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="171"/>
-      <c r="C5" s="186"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="41" t="s">
         <v>68</v>
       </c>
@@ -13042,8 +13698,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="171"/>
-      <c r="C6" s="186"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
@@ -13073,22 +13729,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="168" t="s">
+      <c r="B7" s="178"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="170"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="174"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="172"/>
-      <c r="C8" s="186"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="41" t="s">
         <v>73</v>
       </c>
@@ -13118,8 +13774,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="172"/>
-      <c r="C9" s="186"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
@@ -13150,8 +13806,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="172"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="178"/>
+      <c r="C10" s="175" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="53" t="str">
@@ -13184,8 +13840,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="172"/>
-      <c r="C11" s="185"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="176"/>
       <c r="D11" s="53" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -13216,26 +13872,26 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="170"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="174"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
-      <c r="C13" s="186"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="177"/>
       <c r="D13" s="41" t="s">
         <v>80</v>
       </c>
@@ -13265,8 +13921,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="171"/>
-      <c r="C14" s="186"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="177"/>
       <c r="D14" s="41" t="s">
         <v>81</v>
       </c>
@@ -13296,22 +13952,22 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="172"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="168" t="s">
+      <c r="B15" s="178"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="170"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="174"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="172"/>
-      <c r="C16" s="186"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="41" t="s">
         <v>79</v>
       </c>
@@ -13341,8 +13997,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="172"/>
-      <c r="C17" s="186"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="41" t="s">
         <v>142</v>
       </c>
@@ -13372,8 +14028,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="172"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="178"/>
+      <c r="C18" s="175" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="52" t="str">
@@ -13406,8 +14062,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="172"/>
-      <c r="C19" s="185"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="176"/>
       <c r="D19" s="52" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
@@ -13438,8 +14094,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="172"/>
-      <c r="C20" s="185"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="52" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
@@ -13471,10 +14127,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="177" t="s">
+      <c r="B21" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="177"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -13506,8 +14162,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="178"/>
-      <c r="C22" s="180"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="167"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -13539,8 +14195,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="179"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -13573,16 +14229,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
@@ -13595,6 +14241,16 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13657,6 +14313,560 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="199" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>Потокорозподіл!C5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="E3" s="26">
+        <f>Потокорозподіл!D5</f>
+        <v>11.8</v>
+      </c>
+      <c r="F3" s="28">
+        <f>Потокорозподіл!E5</f>
+        <v>26.968</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
+        <v>91.4</v>
+      </c>
+      <c r="I3" s="195">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="191"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="26" t="str">
+        <f>Потокорозподіл!C6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E4" s="26">
+        <f>Потокорозподіл!D6</f>
+        <v>7.8</v>
+      </c>
+      <c r="F4" s="28">
+        <f>Потокорозподіл!E6</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
+        <v>103.5</v>
+      </c>
+      <c r="I4" s="165"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="191"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="26" t="str">
+        <f>Потокорозподіл!C7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E5" s="26">
+        <f>Потокорозподіл!D7</f>
+        <v>5.6</v>
+      </c>
+      <c r="F5" s="28">
+        <f>-Потокорозподіл!E7</f>
+        <v>8.032</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
+        <v>50.3</v>
+      </c>
+      <c r="I5" s="196"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="191"/>
+      <c r="C6" s="202" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>Потокорозподіл!C8</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E6" s="26">
+        <f>Потокорозподіл!D8</f>
+        <v>5.6</v>
+      </c>
+      <c r="F6" s="28">
+        <f>Потокорозподіл!E8</f>
+        <v>35</v>
+      </c>
+      <c r="G6" s="27">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
+        <f t="shared" si="0"/>
+        <v>73.3</v>
+      </c>
+      <c r="I6" s="193">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="198"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="26" t="str">
+        <f>Потокорозподіл!C9</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E7" s="26">
+        <f>Потокорозподіл!D9</f>
+        <v>7.8</v>
+      </c>
+      <c r="F7" s="28">
+        <f>Потокорозподіл!E9</f>
+        <v>62</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="0"/>
+        <v>97.4</v>
+      </c>
+      <c r="I7" s="196"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="203" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="202" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="29" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="E8" s="29">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F8" s="28">
+        <f>Потокорозподіл!E11</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <f t="shared" si="0"/>
+        <v>103.4</v>
+      </c>
+      <c r="I8" s="204">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="191"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="29" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="E9" s="29">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="F9" s="28">
+        <f>Потокорозподіл!E12</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="0"/>
+        <v>99.6</v>
+      </c>
+      <c r="I9" s="205"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="191"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="29" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="E10" s="29">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="F10" s="28">
+        <f>Потокорозподіл!E13</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="I10" s="206"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="191"/>
+      <c r="C11" s="202" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="E11" s="29">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="F11" s="28">
+        <f>Потокорозподіл!E14</f>
+        <v>67</v>
+      </c>
+      <c r="G11" s="29">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I11" s="204">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="191"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="29" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="E12" s="29">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="F12" s="28">
+        <f>Потокорозподіл!E15</f>
+        <v>32</v>
+      </c>
+      <c r="G12" s="29">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I12" s="205"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="198"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="29" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="E13" s="29">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F13" s="28">
+        <f>Потокорозподіл!E16</f>
+        <v>35</v>
+      </c>
+      <c r="G13" s="29">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
+        <v>73.7</v>
+      </c>
+      <c r="I13" s="206"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="193"/>
+      <c r="D14" s="30" t="str">
+        <f>'мережа зовнішньго електр.'!G4</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E14" s="30">
+        <f>'мережа зовнішньго електр.'!H4</f>
+        <v>14.8</v>
+      </c>
+      <c r="F14" s="28">
+        <f>Потокорозподіл!F25</f>
+        <v>166.15</v>
+      </c>
+      <c r="G14" s="30">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="I14" s="204">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="191"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="30" t="str">
+        <f>'мережа зовнішньго електр.'!G5</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E15" s="30">
+        <f>'мережа зовнішньго електр.'!H5</f>
+        <v>22.6</v>
+      </c>
+      <c r="F15" s="28">
+        <f>Потокорозподіл!F26</f>
+        <v>146.15</v>
+      </c>
+      <c r="G15" s="31">
+        <v>2</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="1"/>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="I15" s="205"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="192"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="30" t="str">
+        <f>'мережа зовнішньго електр.'!G6</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E16" s="30">
+        <f>'мережа зовнішньго електр.'!H6</f>
+        <v>10.8</v>
+      </c>
+      <c r="F16" s="28">
+        <f>Потокорозподіл!F27</f>
+        <v>20</v>
+      </c>
+      <c r="G16" s="32">
+        <v>2</v>
+      </c>
+      <c r="H16" s="32">
+        <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
+        <v>56.7</v>
+      </c>
+      <c r="I16" s="206"/>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
@@ -13683,68 +14893,68 @@
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="153"/>
-      <c r="D5" s="153" t="s">
+      <c r="C5" s="150"/>
+      <c r="D5" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="150" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="153" t="s">
+      <c r="G5" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="153" t="s">
+      <c r="H5" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="148" t="s">
         <v>252</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="K5" s="153" t="s">
+      <c r="K5" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="L5" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="153" t="s">
+      <c r="M5" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="153" t="s">
+      <c r="N5" s="150" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
       <c r="I6" s="187"/>
       <c r="J6" s="187"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -13755,10 +14965,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="150" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="75" t="str">
@@ -13935,7 +15145,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="187"/>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="148" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="75" t="str">
@@ -14028,9 +15238,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="153"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="188"/>
       <c r="G14" s="188"/>
       <c r="H14" s="188"/>
@@ -14056,10 +15266,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="150" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="153" t="s">
+      <c r="D15" s="150" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="75" t="str">
@@ -14109,8 +15319,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
       <c r="E16" s="75" t="str">
         <f>Потокорозподіл!C12</f>
         <v>ВП-Е</v>
@@ -14159,8 +15369,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="75" t="str">
         <f>Потокорозподіл!C13</f>
         <v>Е-Г</v>
@@ -14201,8 +15411,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
       <c r="E18" s="78"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
@@ -14229,8 +15439,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153" t="s">
+      <c r="C19" s="150"/>
+      <c r="D19" s="150" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="75" t="str">
@@ -14280,7 +15490,7 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C20" s="153"/>
+      <c r="C20" s="150"/>
       <c r="D20" s="188"/>
       <c r="E20" s="75" t="str">
         <f>Потокорозподіл!C15</f>
@@ -14329,7 +15539,7 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C21" s="153"/>
+      <c r="C21" s="150"/>
       <c r="D21" s="188"/>
       <c r="E21" s="75" t="str">
         <f>Потокорозподіл!C16</f>
@@ -14370,9 +15580,9 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="153"/>
+      <c r="C22" s="150"/>
       <c r="D22" s="188"/>
-      <c r="E22" s="153"/>
+      <c r="E22" s="150"/>
       <c r="F22" s="188"/>
       <c r="G22" s="188"/>
       <c r="H22" s="188"/>
@@ -14406,6 +15616,15 @@
     <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="D8:D11"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
@@ -14418,15 +15637,6 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14637,560 +15847,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="197" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="199" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="26" t="str">
-        <f>Потокорозподіл!C5</f>
-        <v>ВП-В</v>
-      </c>
-      <c r="E3" s="26">
-        <f>Потокорозподіл!D5</f>
-        <v>11.8</v>
-      </c>
-      <c r="F3" s="28">
-        <f>Потокорозподіл!E5</f>
-        <v>26.968</v>
-      </c>
-      <c r="G3" s="26">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
-        <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
-        <v>91.4</v>
-      </c>
-      <c r="I3" s="195">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="191"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="26" t="str">
-        <f>Потокорозподіл!C6</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="E4" s="26">
-        <f>Потокорозподіл!D6</f>
-        <v>7.8</v>
-      </c>
-      <c r="F4" s="28">
-        <f>Потокорозподіл!E6</f>
-        <v>35.031999999999996</v>
-      </c>
-      <c r="G4" s="27">
-        <v>1</v>
-      </c>
-      <c r="H4" s="26">
-        <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
-        <v>103.5</v>
-      </c>
-      <c r="I4" s="178"/>
-    </row>
-    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="191"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="26" t="str">
-        <f>Потокорозподіл!C7</f>
-        <v>В-Д</v>
-      </c>
-      <c r="E5" s="26">
-        <f>Потокорозподіл!D7</f>
-        <v>5.6</v>
-      </c>
-      <c r="F5" s="28">
-        <f>-Потокорозподіл!E7</f>
-        <v>8.032</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1</v>
-      </c>
-      <c r="H5" s="26">
-        <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
-        <v>50.3</v>
-      </c>
-      <c r="I5" s="196"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="191"/>
-      <c r="C6" s="202" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="26" t="str">
-        <f>Потокорозподіл!C8</f>
-        <v>В-Д</v>
-      </c>
-      <c r="E6" s="26">
-        <f>Потокорозподіл!D8</f>
-        <v>5.6</v>
-      </c>
-      <c r="F6" s="28">
-        <f>Потокорозподіл!E8</f>
-        <v>35</v>
-      </c>
-      <c r="G6" s="27">
-        <v>2</v>
-      </c>
-      <c r="H6" s="26">
-        <f t="shared" si="0"/>
-        <v>73.3</v>
-      </c>
-      <c r="I6" s="193">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="198"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="26" t="str">
-        <f>Потокорозподіл!C9</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="E7" s="26">
-        <f>Потокорозподіл!D9</f>
-        <v>7.8</v>
-      </c>
-      <c r="F7" s="28">
-        <f>Потокорозподіл!E9</f>
-        <v>62</v>
-      </c>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="26">
-        <f t="shared" si="0"/>
-        <v>97.4</v>
-      </c>
-      <c r="I7" s="196"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="203" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="202" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="29" t="str">
-        <f>'Вар2. Длинна'!F5</f>
-        <v>ВП-Г</v>
-      </c>
-      <c r="E8" s="29">
-        <f>'Вар2. Длинна'!G5</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F8" s="28">
-        <f>Потокорозподіл!E11</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="G8" s="29">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26">
-        <f t="shared" si="0"/>
-        <v>103.4</v>
-      </c>
-      <c r="I8" s="204">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="191"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="29" t="str">
-        <f>'Вар2. Длинна'!F6</f>
-        <v>ВП-Е</v>
-      </c>
-      <c r="E9" s="29">
-        <f>'Вар2. Длинна'!G6</f>
-        <v>11.9</v>
-      </c>
-      <c r="F9" s="28">
-        <f>Потокорозподіл!E12</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="0"/>
-        <v>99.6</v>
-      </c>
-      <c r="I9" s="205"/>
-    </row>
-    <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="191"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="29" t="str">
-        <f>'Вар2. Длинна'!F7</f>
-        <v>Е-Г</v>
-      </c>
-      <c r="E10" s="29">
-        <f>'Вар2. Длинна'!G7</f>
-        <v>14.5</v>
-      </c>
-      <c r="F10" s="28">
-        <f>Потокорозподіл!E13</f>
-        <v>2.8430000000000035</v>
-      </c>
-      <c r="G10" s="29">
-        <v>1</v>
-      </c>
-      <c r="H10" s="26">
-        <f t="shared" si="0"/>
-        <v>33.6</v>
-      </c>
-      <c r="I10" s="206"/>
-    </row>
-    <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="191"/>
-      <c r="C11" s="202" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="29" t="str">
-        <f>'Вар2. Длинна'!X23</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="E11" s="29">
-        <f>'Вар2. Длинна'!Y23</f>
-        <v>5.4</v>
-      </c>
-      <c r="F11" s="28">
-        <f>Потокорозподіл!E14</f>
-        <v>67</v>
-      </c>
-      <c r="G11" s="29">
-        <v>2</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="I11" s="204">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="191"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="29" t="str">
-        <f>'Вар2. Длинна'!X24</f>
-        <v>Г-2</v>
-      </c>
-      <c r="E12" s="29">
-        <f>'Вар2. Длинна'!Y24</f>
-        <v>7.2</v>
-      </c>
-      <c r="F12" s="28">
-        <f>Потокорозподіл!E15</f>
-        <v>32</v>
-      </c>
-      <c r="G12" s="29">
-        <v>2</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="I12" s="205"/>
-    </row>
-    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="198"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="29" t="str">
-        <f>'Вар2. Длинна'!X25</f>
-        <v>Е-2</v>
-      </c>
-      <c r="E13" s="29">
-        <f>'Вар2. Длинна'!Y25</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F13" s="28">
-        <f>Потокорозподіл!E16</f>
-        <v>35</v>
-      </c>
-      <c r="G13" s="29">
-        <v>2</v>
-      </c>
-      <c r="H13" s="29">
-        <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
-        <v>73.7</v>
-      </c>
-      <c r="I13" s="206"/>
-    </row>
-    <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="190" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="30" t="str">
-        <f>'мережа зовнішньго електр.'!G4</f>
-        <v>ДЖ-3</v>
-      </c>
-      <c r="E14" s="30">
-        <f>'мережа зовнішньго електр.'!H4</f>
-        <v>14.8</v>
-      </c>
-      <c r="F14" s="28">
-        <f>Потокорозподіл!F25</f>
-        <v>166.15</v>
-      </c>
-      <c r="G14" s="30">
-        <v>2</v>
-      </c>
-      <c r="H14" s="30">
-        <f t="shared" si="1"/>
-        <v>159.1</v>
-      </c>
-      <c r="I14" s="204">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="191"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="30" t="str">
-        <f>'мережа зовнішньго електр.'!G5</f>
-        <v>3-ВП</v>
-      </c>
-      <c r="E15" s="30">
-        <f>'мережа зовнішньго електр.'!H5</f>
-        <v>22.6</v>
-      </c>
-      <c r="F15" s="28">
-        <f>Потокорозподіл!F26</f>
-        <v>146.15</v>
-      </c>
-      <c r="G15" s="31">
-        <v>2</v>
-      </c>
-      <c r="H15" s="31">
-        <f t="shared" si="1"/>
-        <v>149.80000000000001</v>
-      </c>
-      <c r="I15" s="205"/>
-    </row>
-    <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="192"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="30" t="str">
-        <f>'мережа зовнішньго електр.'!G6</f>
-        <v>3-Б</v>
-      </c>
-      <c r="E16" s="30">
-        <f>'мережа зовнішньго електр.'!H6</f>
-        <v>10.8</v>
-      </c>
-      <c r="F16" s="28">
-        <f>Потокорозподіл!F27</f>
-        <v>20</v>
-      </c>
-      <c r="G16" s="32">
-        <v>2</v>
-      </c>
-      <c r="H16" s="32">
-        <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
-        <v>56.7</v>
-      </c>
-      <c r="I16" s="206"/>
-    </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:BA41"/>
@@ -15212,34 +15868,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="150" t="s">
+      <c r="H2" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="150" t="s">
+      <c r="I2" s="148" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="150" t="s">
+      <c r="K2" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="150" t="s">
+      <c r="L2" s="148" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15256,23 +15912,23 @@
       <c r="L3" s="187"/>
     </row>
     <row r="4" spans="3:53" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="158"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="156"/>
       <c r="E4" s="156"/>
-      <c r="F4" s="158"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="156"/>
       <c r="H4" s="156"/>
       <c r="I4" s="156"/>
-      <c r="J4" s="158"/>
+      <c r="J4" s="149"/>
       <c r="K4" s="156"/>
-      <c r="L4" s="158"/>
-      <c r="O4" s="136" t="s">
+      <c r="L4" s="149"/>
+      <c r="O4" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="136" t="s">
+      <c r="P4" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="136" t="s">
+      <c r="Q4" s="132" t="s">
         <v>229</v>
       </c>
       <c r="R4" s="70" t="s">
@@ -15284,7 +15940,7 @@
       <c r="T4" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="136" t="s">
+      <c r="U4" s="132" t="s">
         <v>232</v>
       </c>
       <c r="V4" s="70" t="s">
@@ -15296,37 +15952,37 @@
       <c r="X4" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="AA4" s="150" t="s">
+      <c r="AA4" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="150" t="s">
+      <c r="AB4" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="AC4" s="150" t="s">
+      <c r="AC4" s="148" t="s">
         <v>242</v>
       </c>
-      <c r="AD4" s="150" t="s">
+      <c r="AD4" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="AE4" s="150" t="s">
+      <c r="AE4" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="AF4" s="150" t="s">
+      <c r="AF4" s="148" t="s">
         <v>245</v>
       </c>
-      <c r="AG4" s="150" t="s">
+      <c r="AG4" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="AH4" s="150" t="s">
+      <c r="AH4" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="AI4" s="150" t="s">
+      <c r="AI4" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="AK4" s="150" t="s">
+      <c r="AK4" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" s="150" t="s">
+      <c r="AL4" s="148" t="s">
         <v>106</v>
       </c>
       <c r="AM4" s="80" t="s">
@@ -15376,7 +16032,7 @@
       <c r="C5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="150" t="str">
+      <c r="D5" s="148" t="str">
         <f>'Таблиця 1-4'!C3</f>
         <v>а</v>
       </c>
@@ -15410,9 +16066,9 @@
         <f>J5*F5*K5</f>
         <v>195.88000000000002</v>
       </c>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
       <c r="R5" s="44" t="s">
         <v>234</v>
       </c>
@@ -15422,7 +16078,7 @@
       <c r="T5" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="U5" s="140"/>
+      <c r="U5" s="133"/>
       <c r="V5" s="44" t="s">
         <v>234</v>
       </c>
@@ -15434,11 +16090,11 @@
       </c>
       <c r="AA5" s="155"/>
       <c r="AB5" s="155"/>
-      <c r="AC5" s="207"/>
-      <c r="AD5" s="207"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
       <c r="AE5" s="187"/>
-      <c r="AF5" s="207"/>
-      <c r="AG5" s="207"/>
+      <c r="AF5" s="211"/>
+      <c r="AG5" s="211"/>
       <c r="AH5" s="187"/>
       <c r="AI5" s="187"/>
       <c r="AK5" s="155"/>
@@ -15519,27 +16175,27 @@
         <f>J6*F6*K6</f>
         <v>149.76</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
       <c r="R6" s="73"/>
       <c r="S6" s="33" t="s">
         <v>237</v>
       </c>
       <c r="T6" s="73"/>
-      <c r="U6" s="141"/>
+      <c r="U6" s="134"/>
       <c r="V6" s="73"/>
       <c r="W6" s="73"/>
       <c r="X6" s="73"/>
       <c r="AA6" s="156"/>
       <c r="AB6" s="156"/>
-      <c r="AC6" s="208"/>
-      <c r="AD6" s="208"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="208"/>
-      <c r="AG6" s="208"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
+      <c r="AC6" s="212"/>
+      <c r="AD6" s="212"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="212"/>
+      <c r="AG6" s="212"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="149"/>
       <c r="AK6" s="156"/>
       <c r="AL6" s="156"/>
       <c r="AM6" s="82"/>
@@ -15570,7 +16226,7 @@
       <c r="BA6" s="82"/>
     </row>
     <row r="7" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="148" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="187"/>
@@ -15604,7 +16260,7 @@
         <f>J7*F7*K7</f>
         <v>66.08</v>
       </c>
-      <c r="O7" s="211" t="s">
+      <c r="O7" s="207" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="33" t="s">
@@ -15636,7 +16292,7 @@
         <f>V7*W7</f>
         <v>42</v>
       </c>
-      <c r="AA7" s="150" t="s">
+      <c r="AA7" s="148" t="s">
         <v>19</v>
       </c>
       <c r="AB7" s="80" t="s">
@@ -15646,7 +16302,7 @@
         <f>L10</f>
         <v>153.44</v>
       </c>
-      <c r="AD7" s="150">
+      <c r="AD7" s="148">
         <v>7.2</v>
       </c>
       <c r="AE7" s="80">
@@ -15657,7 +16313,7 @@
         <f>T7+X7</f>
         <v>60.2</v>
       </c>
-      <c r="AG7" s="150">
+      <c r="AG7" s="148">
         <v>14.4</v>
       </c>
       <c r="AH7" s="80">
@@ -15668,7 +16324,7 @@
         <f>AE7+AH7</f>
         <v>19.72</v>
       </c>
-      <c r="AK7" s="150" t="s">
+      <c r="AK7" s="148" t="s">
         <v>19</v>
       </c>
       <c r="AL7" s="80" t="s">
@@ -15691,7 +16347,7 @@
         <f>ROUND(1.68*AM7,1)</f>
         <v>2456.6999999999998</v>
       </c>
-      <c r="AS7" s="150" t="s">
+      <c r="AS7" s="148" t="s">
         <v>19</v>
       </c>
       <c r="AT7" s="80" t="str">
@@ -15754,7 +16410,7 @@
         <f>J8*F8*K8</f>
         <v>43.68</v>
       </c>
-      <c r="O8" s="212"/>
+      <c r="O8" s="208"/>
       <c r="P8" s="33" t="s">
         <v>55</v>
       </c>
@@ -15867,7 +16523,7 @@
     </row>
     <row r="9" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="187"/>
-      <c r="D9" s="158"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="80" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -15898,7 +16554,7 @@
         <f>J9*F9*K9</f>
         <v>43.68</v>
       </c>
-      <c r="O9" s="211" t="s">
+      <c r="O9" s="207" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="33" t="s">
@@ -15930,7 +16586,7 @@
         <f>V9*W9</f>
         <v>42</v>
       </c>
-      <c r="AA9" s="150" t="s">
+      <c r="AA9" s="148" t="s">
         <v>241</v>
       </c>
       <c r="AB9" s="80" t="s">
@@ -15940,7 +16596,7 @@
         <f>L17</f>
         <v>447.90000000000003</v>
       </c>
-      <c r="AD9" s="150">
+      <c r="AD9" s="148">
         <v>7.2</v>
       </c>
       <c r="AE9" s="80">
@@ -15951,7 +16607,7 @@
         <f t="shared" si="0"/>
         <v>60.2</v>
       </c>
-      <c r="AG9" s="150">
+      <c r="AG9" s="148">
         <v>14.4</v>
       </c>
       <c r="AH9" s="80">
@@ -15962,7 +16618,7 @@
         <f t="shared" si="2"/>
         <v>29.57</v>
       </c>
-      <c r="AK9" s="150" t="s">
+      <c r="AK9" s="148" t="s">
         <v>20</v>
       </c>
       <c r="AL9" s="80" t="s">
@@ -15985,7 +16641,7 @@
         <f>ROUND(1.68*AM9,1)</f>
         <v>3060.6</v>
       </c>
-      <c r="AS9" s="150" t="s">
+      <c r="AS9" s="148" t="s">
         <v>20</v>
       </c>
       <c r="AT9" s="80" t="str">
@@ -16017,7 +16673,7 @@
     </row>
     <row r="10" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="187"/>
-      <c r="D10" s="147"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="209"/>
       <c r="F10" s="209"/>
       <c r="G10" s="209"/>
@@ -16029,7 +16685,7 @@
         <f>SUM(L7:L9)</f>
         <v>153.44</v>
       </c>
-      <c r="O10" s="212"/>
+      <c r="O10" s="208"/>
       <c r="P10" s="33" t="s">
         <v>54</v>
       </c>
@@ -16085,7 +16741,7 @@
         <f t="shared" si="2"/>
         <v>26.869999999999997</v>
       </c>
-      <c r="AK10" s="158"/>
+      <c r="AK10" s="149"/>
       <c r="AL10" s="80" t="s">
         <v>54</v>
       </c>
@@ -16106,7 +16762,7 @@
         <f>ROUND(1.68*AM10,1)</f>
         <v>3521.3</v>
       </c>
-      <c r="AS10" s="158"/>
+      <c r="AS10" s="149"/>
       <c r="AT10" s="80" t="str">
         <f>AL10</f>
         <v>г)</v>
@@ -16142,7 +16798,7 @@
     </row>
     <row r="11" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="187"/>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="148" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="80" t="str">
@@ -16178,7 +16834,7 @@
     </row>
     <row r="12" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="187"/>
-      <c r="D12" s="158"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="80" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -16211,8 +16867,8 @@
       </c>
     </row>
     <row r="13" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="158"/>
-      <c r="D13" s="147"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="209"/>
       <c r="F13" s="209"/>
       <c r="G13" s="209"/>
@@ -16226,10 +16882,10 @@
       </c>
     </row>
     <row r="14" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="150" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="80" t="str">
@@ -16333,7 +16989,7 @@
     </row>
     <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="159"/>
-      <c r="D17" s="153"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="159"/>
       <c r="F17" s="159"/>
       <c r="G17" s="159"/>
@@ -16348,7 +17004,7 @@
     </row>
     <row r="18" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="159"/>
-      <c r="D18" s="153" t="s">
+      <c r="D18" s="150" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="80" t="str">
@@ -16449,7 +17105,7 @@
     </row>
     <row r="21" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="159"/>
-      <c r="D21" s="153"/>
+      <c r="D21" s="150"/>
       <c r="E21" s="159"/>
       <c r="F21" s="159"/>
       <c r="G21" s="159"/>
@@ -16466,12 +17122,32 @@
     <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C7:C13"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="J2:J4"/>
@@ -16485,34 +17161,14 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AG4:AG6"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AA7:AA8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16952,8 +17608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="J1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16977,20 +17633,20 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="162"/>
+      <c r="E3" s="160"/>
       <c r="F3" s="70" t="s">
         <v>230</v>
       </c>
       <c r="G3" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="162"/>
+      <c r="H3" s="160"/>
       <c r="I3" s="70" t="s">
         <v>230</v>
       </c>
@@ -17000,13 +17656,13 @@
       <c r="L3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="150" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="154"/>
+      <c r="O3" s="151"/>
       <c r="P3" s="84" t="s">
         <v>230</v>
       </c>
@@ -17027,16 +17683,16 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="163"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="33" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="163"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="33" t="s">
         <v>2</v>
       </c>
@@ -17046,11 +17702,11 @@
       <c r="L4" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="M4" s="153"/>
+      <c r="M4" s="150"/>
       <c r="N4" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="154"/>
+      <c r="O4" s="151"/>
       <c r="P4" s="84" t="s">
         <v>269</v>
       </c>
@@ -17539,7 +18195,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="132" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="70" t="s">
@@ -17606,7 +18262,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="141"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="33" t="s">
         <v>265</v>
       </c>
@@ -17895,16 +18551,16 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="153" t="s">
+      <c r="C26" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="153" t="s">
+      <c r="D26" s="150" t="s">
         <v>267</v>
       </c>
       <c r="E26" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="154"/>
+      <c r="F26" s="151"/>
       <c r="G26" s="84" t="s">
         <v>230</v>
       </c>
@@ -17922,12 +18578,12 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
       <c r="E27" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="154"/>
+      <c r="F27" s="151"/>
       <c r="G27" s="84" t="s">
         <v>2</v>
       </c>
@@ -19246,8 +19902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19411,7 +20067,7 @@
         <v>35.124+10.913i</v>
       </c>
       <c r="K6" s="91" t="str">
-        <f t="shared" ref="K6:K10" si="2">COMPLEX(D6,E6)</f>
+        <f t="shared" ref="K6:K9" si="2">COMPLEX(D6,E6)</f>
         <v>0.05+0.325i</v>
       </c>
       <c r="L6" s="91">
@@ -19469,7 +20125,7 @@
         <v>-0.39</v>
       </c>
       <c r="M7" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f>IMSUM(J7,K7,L7)</f>
         <v>31.765+10.92i</v>
       </c>
     </row>
@@ -19519,7 +20175,7 @@
         <v>-0.215</v>
       </c>
       <c r="M8" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f>IMSUM(J8,K8,L8)</f>
         <v>26.909+8.547i</v>
       </c>
     </row>
@@ -19557,7 +20213,7 @@
         <v>0.069+1.712i</v>
       </c>
       <c r="J9" s="91" t="str">
-        <f t="shared" si="1"/>
+        <f>IMSUM(H9,I9)</f>
         <v>35.069+10.612i</v>
       </c>
       <c r="K9" s="91" t="str">
@@ -19569,7 +20225,7 @@
         <v>-0.435</v>
       </c>
       <c r="M9" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f>IMSUM(J9,K9,L9)</f>
         <v>34.702+11.052i</v>
       </c>
     </row>
@@ -19623,12 +20279,13 @@
       <c r="K11" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="91">
-        <v>0</v>
+      <c r="L11" s="91" t="str">
+        <f>COMPLEX(0,-('РОЗДІЛ 2'!U5+'РОЗДІЛ 2'!U6+'РОЗДІЛ 2'!U8+'РОЗДІЛ 2'!U9)/2)</f>
+        <v>-0.68i</v>
       </c>
       <c r="M11" s="91" t="str">
-        <f>IMSUM(L11)</f>
-        <v>0</v>
+        <f>L11</f>
+        <v>-0.68i</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19862,10 +20519,10 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="132" t="s">
         <v>283</v>
       </c>
       <c r="J3" s="96" t="s">
@@ -19885,8 +20542,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
       <c r="J4" s="33" t="s">
         <v>97</v>
       </c>
@@ -20751,13 +21408,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="132" t="s">
         <v>301</v>
       </c>
       <c r="H3" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="132" t="s">
         <v>221</v>
       </c>
       <c r="J3" s="70" t="s">
@@ -20772,7 +21429,7 @@
       <c r="M3" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="132" t="s">
         <v>299</v>
       </c>
       <c r="O3" s="70" t="s">
@@ -20780,11 +21437,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="141"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="141"/>
+      <c r="I4" s="134"/>
       <c r="J4" s="33" t="s">
         <v>298</v>
       </c>
@@ -20795,7 +21452,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="33"/>
-      <c r="N4" s="141"/>
+      <c r="N4" s="134"/>
       <c r="O4" s="33" t="s">
         <v>9</v>
       </c>
@@ -21389,7 +22046,7 @@
       </c>
     </row>
     <row r="20" spans="5:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G20" s="136" t="s">
+      <c r="G20" s="132" t="s">
         <v>291</v>
       </c>
       <c r="H20" s="70" t="s">
@@ -21404,8 +22061,8 @@
       <c r="K20" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
       <c r="N20" s="70" t="s">
         <v>230</v>
       </c>
@@ -21417,7 +22074,7 @@
       </c>
     </row>
     <row r="21" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="141"/>
+      <c r="G21" s="134"/>
       <c r="H21" s="33" t="s">
         <v>9</v>
       </c>
@@ -21430,8 +22087,8 @@
       <c r="K21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
       <c r="N21" s="33" t="s">
         <v>9</v>
       </c>
@@ -21934,6 +22591,594 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="15" t="e">
+        <f>J5+P5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R2" s="15" t="e">
+        <f>K5+Q5</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="e">
+        <f>K10+N10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R3" t="e">
+        <f>L10+O10</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Вар1. Длинна'!G5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="D5">
+        <f>'Вар1. Длинна'!H5</f>
+        <v>11.8</v>
+      </c>
+      <c r="E5" s="14" t="e">
+        <f>J5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="14" t="e">
+        <f>K5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" s="14" t="e">
+        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="14" t="e">
+        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="14" t="e">
+        <f>J5-K10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" s="14" t="e">
+        <f>K5-L10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="14" t="e">
+        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q5" s="14" t="e">
+        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>'Вар1. Длинна'!G6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D6">
+        <f>'Вар1. Длинна'!H6</f>
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="14" t="e">
+        <f>P5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="14" t="e">
+        <f>Q5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>'Вар1. Длинна'!G7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D7">
+        <f>'Вар1. Длинна'!H7</f>
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="14" t="e">
+        <f>--M5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="14" t="e">
+        <f>--N5</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Вар1. Длинна'!G29</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D8">
+        <f>'Вар1. Длинна'!H29</f>
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <f>35</f>
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <f>'РОЗДІЛ 2'!S5</f>
+        <v>1.42</v>
+      </c>
+      <c r="K8">
+        <f>'РОЗДІЛ 2'!T5</f>
+        <v>4.78</v>
+      </c>
+      <c r="M8">
+        <f>'РОЗДІЛ 2'!S7</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N8">
+        <f>'РОЗДІЛ 2'!T7</f>
+        <v>2.35</v>
+      </c>
+      <c r="O8">
+        <f>'РОЗДІЛ 2'!S6</f>
+        <v>0.94</v>
+      </c>
+      <c r="P8">
+        <f>'РОЗДІЛ 2'!T6</f>
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="str">
+        <f>'Вар1. Длинна'!G30</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D9" s="4">
+        <f>'Вар1. Длинна'!H30</f>
+        <v>7.8</v>
+      </c>
+      <c r="E9" s="4">
+        <f>62</f>
+        <v>62</v>
+      </c>
+      <c r="F9" s="4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J9" t="str">
+        <f>COMPLEX(J8,-K8)</f>
+        <v>1.42-4.78i</v>
+      </c>
+      <c r="M9" t="str">
+        <f>COMPLEX(M8,-N8)</f>
+        <v>1.11-2.35i</v>
+      </c>
+      <c r="O9" t="str">
+        <f>COMPLEX(O8,-P8)</f>
+        <v>0.94-3.16i</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10" t="str">
+        <f>'Table 2-4'!M6</f>
+        <v>34.884+11.238i</v>
+      </c>
+      <c r="O10" t="str">
+        <f>'Table 2-4'!M8</f>
+        <v>26.909+8.547i</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Таблиця 1-3'!I4</f>
+        <v>а)</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="14">
+        <f>J15</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="F11" s="14">
+        <f>K15</f>
+        <v>16.891999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="E12" s="14">
+        <f>P15</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="F12" s="14">
+        <f>Q15</f>
+        <v>15.608000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>J15+P15</f>
+        <v>67</v>
+      </c>
+      <c r="R12">
+        <f>K15+Q15</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="E13" s="14">
+        <f>-M15</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="F13" s="14">
+        <f>-N15</f>
+        <v>1.3919999999999995</v>
+      </c>
+      <c r="Q13">
+        <f>K20+N20</f>
+        <v>67</v>
+      </c>
+      <c r="R13">
+        <f>L20+O20</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>'Таблиця 1-3'!L4</f>
+        <v>г)</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E15+E16</f>
+        <v>67</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F15+F16</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="J15" s="14">
+        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="K15" s="14">
+        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="14">
+        <f>P15-N20</f>
+        <v>-2.8430000000000035</v>
+      </c>
+      <c r="N15" s="14">
+        <f>Q15-O20</f>
+        <v>-1.3919999999999995</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="14">
+        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>15.608000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="4">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>D11</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M17">
+        <f>D13</f>
+        <v>14.5</v>
+      </c>
+      <c r="P17">
+        <f>D12</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>E15</f>
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <f>F15</f>
+        <v>15.5</v>
+      </c>
+      <c r="N20">
+        <f>E16</f>
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <f>F16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="str">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E25">
+        <f>'Таблиця 1-4'!E14</f>
+        <v>14.8</v>
+      </c>
+      <c r="F25">
+        <f>166.15</f>
+        <v>166.15</v>
+      </c>
+      <c r="G25">
+        <f>116.7</f>
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E26">
+        <f>'Таблиця 1-4'!E15</f>
+        <v>22.6</v>
+      </c>
+      <c r="F26">
+        <f>F25-'Табл1-1  1-2'!B5</f>
+        <v>146.15</v>
+      </c>
+      <c r="G26">
+        <f>G25-'Табл1-1  1-2'!C5</f>
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E27">
+        <f>'Таблиця 1-4'!E16</f>
+        <v>10.8</v>
+      </c>
+      <c r="F27">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>165</v>
+      </c>
+      <c r="E29">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31">
+        <f>SQRT(D29^2+E29^2)</f>
+        <v>188.09330131612873</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33">
+        <f>0.05*F31</f>
+        <v>9.4046650658064372</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <f>0.15*F31</f>
+        <v>28.213995197419308</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="10"/>
+      <c r="P35" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="43009" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="43009" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W38"/>
@@ -24037,13 +25282,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="132" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -24055,19 +25300,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="142" t="s">
+      <c r="I2" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="137" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="136" t="s">
+      <c r="L2" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="136" t="s">
+      <c r="M2" s="132" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -24078,9 +25323,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="141"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -24090,13 +25335,13 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="145"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
@@ -24110,10 +25355,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="143" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -24160,8 +25405,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="144"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -24206,8 +25451,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -24252,8 +25497,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="140" t="s">
+      <c r="C7" s="141"/>
+      <c r="D7" s="133" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -24300,8 +25545,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -24346,10 +25591,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="132" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -24396,8 +25641,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -24442,8 +25687,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -24488,8 +25733,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="136" t="s">
+      <c r="C12" s="141"/>
+      <c r="D12" s="132" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -24536,8 +25781,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -24582,8 +25827,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -24628,8 +25873,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -24674,8 +25919,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -24720,8 +25965,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -24759,13 +26004,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -24774,6 +26012,13 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24961,25 +26206,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="150" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="150" t="s">
         <v>168</v>
       </c>
       <c r="J3" s="56" t="s">
@@ -24996,15 +26241,15 @@
       </c>
     </row>
     <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="153"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
       <c r="J4" s="55" t="s">
         <v>147</v>
       </c>
@@ -25019,27 +26264,27 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="150" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="155"/>
-      <c r="D6" s="154"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="55" t="str">
         <f>нагрів!D5</f>
         <v>ВП-Д</v>
@@ -25080,7 +26325,7 @@
     </row>
     <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="155"/>
-      <c r="D7" s="154"/>
+      <c r="D7" s="151"/>
       <c r="E7" s="55" t="str">
         <f>нагрів!D6</f>
         <v>Д-В</v>
@@ -25119,17 +26364,17 @@
     </row>
     <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C8" s="155"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="147" t="s">
+      <c r="D8" s="151"/>
+      <c r="E8" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
       <c r="M8" s="59">
         <f>M6+M7</f>
         <v>1.8504872727272728</v>
@@ -25137,23 +26382,23 @@
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="155"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="147" t="str">
+      <c r="D9" s="151"/>
+      <c r="E9" s="152" t="str">
         <f>нагрів!D7</f>
         <v>відключення ВП-Д</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="154"/>
     </row>
     <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="155"/>
-      <c r="D10" s="154"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="55" t="str">
         <f>нагрів!D8</f>
         <v>ВП-В</v>
@@ -25191,7 +26436,7 @@
     </row>
     <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C11" s="155"/>
-      <c r="D11" s="154"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="55" t="str">
         <f>нагрів!D9</f>
         <v>В-Д</v>
@@ -25229,17 +26474,17 @@
     </row>
     <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C12" s="155"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="147" t="s">
+      <c r="D12" s="151"/>
+      <c r="E12" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
       <c r="M12" s="59">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
@@ -25247,7 +26492,7 @@
     </row>
     <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C13" s="155"/>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="148" t="s">
         <v>155</v>
       </c>
       <c r="E13" s="55" t="str">
@@ -25330,43 +26575,43 @@
     <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C15" s="156"/>
       <c r="D15" s="156"/>
-      <c r="E15" s="147" t="s">
+      <c r="E15" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="149"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
       <c r="M15" s="59">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="150" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="147" t="s">
+      <c r="E16" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="149"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
     </row>
     <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="55" t="str">
         <f>нагрів!D13</f>
         <v>ВП-Е</v>
@@ -25404,8 +26649,8 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="153"/>
-      <c r="D18" s="154"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="55" t="str">
         <f>нагрів!D14</f>
         <v>Е-Г</v>
@@ -25443,41 +26688,41 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="147" t="s">
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="149"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
       <c r="M19" s="59">
         <f>M17+M18</f>
         <v>1.8346254545454546</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="153"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="147" t="s">
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="149"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
     </row>
     <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="55" t="str">
         <f>нагрів!D16</f>
         <v>ВП-Г</v>
@@ -25514,8 +26759,8 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
       <c r="E22" s="55" t="str">
         <f>нагрів!D17</f>
         <v>Г-Е</v>
@@ -25551,26 +26796,26 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="147" t="s">
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="149"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
       <c r="M23" s="59">
         <f>M21+M22</f>
         <v>2.3726354545454549</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="153"/>
-      <c r="D24" s="153" t="s">
+      <c r="C24" s="150"/>
+      <c r="D24" s="150" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="55" t="str">
@@ -25611,8 +26856,8 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
       <c r="E25" s="55" t="str">
         <f>нагрів!D19</f>
         <v>Г-2</v>
@@ -25650,8 +26895,8 @@
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
       <c r="E26" s="55" t="str">
         <f>нагрів!D20</f>
         <v>Е-2</v>
@@ -25690,46 +26935,46 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="147" t="s">
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="149"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
       <c r="M27" s="59">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="147" t="s">
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
       <c r="M28" s="59">
         <f>M24+M25</f>
         <v>1.7127409090909091</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="153" t="s">
+      <c r="C29" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="150"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="55" t="s">
         <v>151</v>
       </c>
@@ -25767,8 +27012,8 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="153"/>
-      <c r="D30" s="151"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="157"/>
       <c r="E30" s="55" t="s">
         <v>152</v>
       </c>
@@ -25805,8 +27050,8 @@
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="153"/>
-      <c r="D31" s="152"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="158"/>
       <c r="E31" s="55" t="s">
         <v>153</v>
       </c>
@@ -25842,36 +27087,36 @@
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="157" t="s">
+      <c r="C32" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
       <c r="M32" s="59">
         <f>M29+M30</f>
         <v>9.2161288181818186</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="157" t="s">
+      <c r="C33" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
       <c r="M33" s="59">
         <f>M29+M31</f>
         <v>4.4329513636363638</v>
@@ -25885,6 +27130,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E23:L23"/>
     <mergeCell ref="C33:L33"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
@@ -25901,17 +27157,6 @@
     <mergeCell ref="E15:L15"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_04_04_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="8850" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -3687,7 +3687,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3708,44 +3729,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3756,10 +3741,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3768,8 +3750,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3777,11 +3783,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3807,59 +3846,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3912,11 +3903,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3924,11 +3924,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12369,46 +12369,46 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="160" t="s">
+      <c r="J3" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="160" t="s">
+      <c r="K3" s="162" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="134"/>
+      <c r="C4" s="141"/>
       <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -12674,46 +12674,46 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="150" t="s">
+      <c r="E15" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="150" t="s">
+      <c r="F15" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="150" t="s">
+      <c r="G15" s="153" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="150" t="s">
+      <c r="H15" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="I15" s="150" t="s">
+      <c r="I15" s="153" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="150" t="s">
+      <c r="J15" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="150" t="s">
+      <c r="K15" s="153" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="150"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="159"/>
       <c r="E16" s="159"/>
-      <c r="F16" s="150"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="159"/>
-      <c r="H16" s="150"/>
+      <c r="H16" s="153"/>
       <c r="I16" s="159"/>
-      <c r="J16" s="150"/>
+      <c r="J16" s="153"/>
       <c r="K16" s="159"/>
     </row>
-    <row r="17" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>'Табл1-1  1-2'!B4</f>
         <v>16</v>
@@ -12983,12 +12983,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="122">
         <f>SUM(G17:G22)</f>
         <v>49.050000000000004</v>
@@ -13016,30 +13016,30 @@
       <c r="C28" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="150" t="s">
+      <c r="D28" s="153" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="150" t="s">
+      <c r="E28" s="153" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="150" t="s">
+      <c r="F28" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="150" t="s">
+      <c r="G28" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="153" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="151" t="str">
+      <c r="I28" s="154" t="str">
         <f>I3</f>
         <v>nт</v>
       </c>
-      <c r="J28" s="151" t="str">
+      <c r="J28" s="154" t="str">
         <f>J3</f>
         <v>Kз</v>
       </c>
-      <c r="K28" s="151" t="str">
+      <c r="K28" s="154" t="str">
         <f>K3</f>
         <v>Kзав</v>
       </c>
@@ -13053,9 +13053,9 @@
       <c r="F29" s="159"/>
       <c r="G29" s="159"/>
       <c r="H29" s="159"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
     </row>
     <row r="30" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -13341,72 +13341,72 @@
       <c r="L38" s="69"/>
     </row>
     <row r="40" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="150" t="s">
+      <c r="C40" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="162" t="s">
+      <c r="D40" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="162" t="s">
+      <c r="E40" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="162" t="s">
+      <c r="F40" s="160" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162" t="s">
+      <c r="G40" s="160"/>
+      <c r="H40" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="150" t="s">
+      <c r="I40" s="153" t="s">
         <v>213</v>
       </c>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
     </row>
     <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="159"/>
       <c r="D41" s="159"/>
       <c r="E41" s="159"/>
-      <c r="F41" s="150" t="s">
+      <c r="F41" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="150" t="s">
+      <c r="G41" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="H41" s="162"/>
-      <c r="I41" s="151" t="str">
+      <c r="H41" s="160"/>
+      <c r="I41" s="154" t="str">
         <f>J28</f>
         <v>Kз</v>
       </c>
-      <c r="J41" s="151" t="str">
+      <c r="J41" s="154" t="str">
         <f>K28</f>
         <v>Kзав</v>
       </c>
-      <c r="K41" s="150" t="s">
+      <c r="K41" s="153" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="159"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="150"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="153"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C43" s="159"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
     </row>
     <row r="44" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="115" t="s">
@@ -13513,6 +13513,32 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="I40:K40"/>
@@ -13524,32 +13550,6 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13605,70 +13605,70 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="185" t="s">
+      <c r="G2" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="185" t="s">
+      <c r="H2" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="181" t="s">
+      <c r="I2" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="185" t="s">
+      <c r="J2" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="183" t="s">
+      <c r="K2" s="173" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="180"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="184"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="171"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="184"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="175"/>
-      <c r="C5" s="177"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="41" t="s">
         <v>68</v>
       </c>
@@ -13698,8 +13698,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="175"/>
-      <c r="C6" s="177"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
@@ -13729,22 +13729,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="178"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="172" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="178"/>
-      <c r="C8" s="177"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="186"/>
       <c r="D8" s="41" t="s">
         <v>73</v>
       </c>
@@ -13774,8 +13774,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="178"/>
-      <c r="C9" s="177"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
@@ -13806,8 +13806,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="178"/>
-      <c r="C10" s="175" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="171" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="53" t="str">
@@ -13840,8 +13840,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="178"/>
-      <c r="C11" s="176"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="185"/>
       <c r="D11" s="53" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -13872,26 +13872,26 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="168" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="174"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="170"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="175"/>
-      <c r="C13" s="177"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="186"/>
       <c r="D13" s="41" t="s">
         <v>80</v>
       </c>
@@ -13921,8 +13921,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="175"/>
-      <c r="C14" s="177"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="41" t="s">
         <v>81</v>
       </c>
@@ -13952,22 +13952,22 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="178"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="172" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="174"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="170"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="178"/>
-      <c r="C16" s="177"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="186"/>
       <c r="D16" s="41" t="s">
         <v>79</v>
       </c>
@@ -13997,8 +13997,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="178"/>
-      <c r="C17" s="177"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="41" t="s">
         <v>142</v>
       </c>
@@ -14028,8 +14028,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="178"/>
-      <c r="C18" s="175" t="s">
+      <c r="B18" s="172"/>
+      <c r="C18" s="171" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="52" t="str">
@@ -14062,8 +14062,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="178"/>
-      <c r="C19" s="176"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="185"/>
       <c r="D19" s="52" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
@@ -14094,8 +14094,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="178"/>
-      <c r="C20" s="176"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="185"/>
       <c r="D20" s="52" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
@@ -14127,10 +14127,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="164"/>
+      <c r="C21" s="177"/>
       <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -14162,8 +14162,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="165"/>
-      <c r="C22" s="167"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="180"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -14195,8 +14195,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="166"/>
-      <c r="C23" s="168"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -14229,6 +14229,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
@@ -14241,16 +14251,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14316,7 +14316,7 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14355,10 +14355,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="196" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -14380,13 +14380,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="195">
+      <c r="I3" s="192">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="191"/>
-      <c r="C4" s="200"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="197"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -14406,11 +14406,11 @@
         <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="165"/>
+      <c r="I4" s="178"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="191"/>
-      <c r="C5" s="201"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="198"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -14430,11 +14430,11 @@
         <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
         <v>50.3</v>
       </c>
-      <c r="I5" s="196"/>
+      <c r="I5" s="193"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="191"/>
-      <c r="C6" s="202" t="s">
+      <c r="B6" s="188"/>
+      <c r="C6" s="199" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -14456,13 +14456,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="193">
+      <c r="I6" s="190">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="198"/>
-      <c r="C7" s="201"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="198"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -14482,13 +14482,13 @@
         <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="196"/>
+      <c r="I7" s="193"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="202" t="s">
+      <c r="C8" s="199" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -14510,13 +14510,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="204">
+      <c r="I8" s="201">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="191"/>
-      <c r="C9" s="200"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -14536,11 +14536,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="205"/>
+      <c r="I9" s="202"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="191"/>
-      <c r="C10" s="201"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="198"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -14560,11 +14560,11 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="206"/>
+      <c r="I10" s="203"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="191"/>
-      <c r="C11" s="202" t="s">
+      <c r="B11" s="188"/>
+      <c r="C11" s="199" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -14586,13 +14586,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="204">
+      <c r="I11" s="201">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="191"/>
-      <c r="C12" s="200"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -14612,11 +14612,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="205"/>
+      <c r="I12" s="202"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="198"/>
-      <c r="C13" s="201"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="198"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -14636,13 +14636,13 @@
         <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="206"/>
+      <c r="I13" s="203"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="193"/>
+      <c r="C14" s="190"/>
       <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -14662,13 +14662,13 @@
         <f t="shared" si="1"/>
         <v>159.1</v>
       </c>
-      <c r="I14" s="204">
+      <c r="I14" s="201">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="191"/>
-      <c r="C15" s="165"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -14688,11 +14688,11 @@
         <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="I15" s="205"/>
+      <c r="I15" s="202"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="192"/>
-      <c r="C16" s="194"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -14712,7 +14712,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="206"/>
+      <c r="I16" s="203"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14893,68 +14893,68 @@
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="150"/>
-      <c r="D5" s="150" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="153" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="150" t="s">
+      <c r="H5" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="148" t="s">
+      <c r="I5" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="J5" s="148" t="s">
+      <c r="J5" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="150" t="s">
+      <c r="L5" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="150" t="s">
+      <c r="N5" s="153" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="153"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -14965,10 +14965,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="153" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="75" t="str">
@@ -15022,8 +15022,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="188"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="205"/>
       <c r="E9" s="75" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -15073,8 +15073,8 @@
         <f>-Потокорозподіл!F7</f>
         <v>4.625</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="188"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="205"/>
       <c r="E10" s="75" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -15116,16 +15116,16 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="187"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
       <c r="M11" s="76">
         <f>SUM(M8:M10)</f>
         <v>0.24</v>
@@ -15144,8 +15144,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C12" s="187"/>
-      <c r="D12" s="148" t="s">
+      <c r="C12" s="204"/>
+      <c r="D12" s="150" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="75" t="str">
@@ -15196,8 +15196,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
       <c r="E13" s="75" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -15238,16 +15238,16 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="205"/>
       <c r="M14" s="76">
         <f>SUM(M12:M13)</f>
         <v>0.26300000000000001</v>
@@ -15266,10 +15266,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="153" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="153" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="75" t="str">
@@ -15319,8 +15319,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="75" t="str">
         <f>Потокорозподіл!C12</f>
         <v>ВП-Е</v>
@@ -15369,8 +15369,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="75" t="str">
         <f>Потокорозподіл!C13</f>
         <v>Е-Г</v>
@@ -15411,8 +15411,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="78"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
@@ -15439,8 +15439,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150" t="s">
+      <c r="C19" s="153"/>
+      <c r="D19" s="153" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="75" t="str">
@@ -15490,8 +15490,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C20" s="150"/>
-      <c r="D20" s="188"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="205"/>
       <c r="E20" s="75" t="str">
         <f>Потокорозподіл!C15</f>
         <v>Г-2</v>
@@ -15539,8 +15539,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C21" s="150"/>
-      <c r="D21" s="188"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="75" t="str">
         <f>Потокорозподіл!C16</f>
         <v>Е-2</v>
@@ -15580,16 +15580,16 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="150"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="205"/>
       <c r="M22" s="76">
         <f>SUM(M19:M21)</f>
         <v>0.34399999999999997</v>
@@ -15616,15 +15616,6 @@
     <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="D8:D11"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
@@ -15637,6 +15628,15 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15868,67 +15868,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="150" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="148" t="s">
+      <c r="I2" s="150" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="148" t="s">
+      <c r="J2" s="150" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="148" t="s">
+      <c r="K2" s="150" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="148" t="s">
+      <c r="L2" s="150" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="187"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="155"/>
       <c r="E3" s="155"/>
-      <c r="F3" s="187"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="155"/>
       <c r="H3" s="155"/>
       <c r="I3" s="155"/>
-      <c r="J3" s="187"/>
+      <c r="J3" s="204"/>
       <c r="K3" s="155"/>
-      <c r="L3" s="187"/>
+      <c r="L3" s="204"/>
     </row>
     <row r="4" spans="3:53" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="149"/>
+      <c r="C4" s="158"/>
       <c r="D4" s="156"/>
       <c r="E4" s="156"/>
-      <c r="F4" s="149"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="156"/>
       <c r="H4" s="156"/>
       <c r="I4" s="156"/>
-      <c r="J4" s="149"/>
+      <c r="J4" s="158"/>
       <c r="K4" s="156"/>
-      <c r="L4" s="149"/>
-      <c r="O4" s="132" t="s">
+      <c r="L4" s="158"/>
+      <c r="O4" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="132" t="s">
+      <c r="P4" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="132" t="s">
+      <c r="Q4" s="136" t="s">
         <v>229</v>
       </c>
       <c r="R4" s="70" t="s">
@@ -15940,7 +15940,7 @@
       <c r="T4" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="132" t="s">
+      <c r="U4" s="136" t="s">
         <v>232</v>
       </c>
       <c r="V4" s="70" t="s">
@@ -15952,37 +15952,37 @@
       <c r="X4" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="AA4" s="148" t="s">
+      <c r="AA4" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="148" t="s">
+      <c r="AB4" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="AC4" s="148" t="s">
+      <c r="AC4" s="150" t="s">
         <v>242</v>
       </c>
-      <c r="AD4" s="148" t="s">
+      <c r="AD4" s="150" t="s">
         <v>243</v>
       </c>
-      <c r="AE4" s="148" t="s">
+      <c r="AE4" s="150" t="s">
         <v>244</v>
       </c>
-      <c r="AF4" s="148" t="s">
+      <c r="AF4" s="150" t="s">
         <v>245</v>
       </c>
-      <c r="AG4" s="148" t="s">
+      <c r="AG4" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="AH4" s="148" t="s">
+      <c r="AH4" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="AI4" s="148" t="s">
+      <c r="AI4" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="AK4" s="148" t="s">
+      <c r="AK4" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" s="148" t="s">
+      <c r="AL4" s="150" t="s">
         <v>106</v>
       </c>
       <c r="AM4" s="80" t="s">
@@ -16032,7 +16032,7 @@
       <c r="C5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="148" t="str">
+      <c r="D5" s="150" t="str">
         <f>'Таблиця 1-4'!C3</f>
         <v>а</v>
       </c>
@@ -16066,9 +16066,9 @@
         <f>J5*F5*K5</f>
         <v>195.88000000000002</v>
       </c>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
       <c r="R5" s="44" t="s">
         <v>234</v>
       </c>
@@ -16078,7 +16078,7 @@
       <c r="T5" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="U5" s="133"/>
+      <c r="U5" s="140"/>
       <c r="V5" s="44" t="s">
         <v>234</v>
       </c>
@@ -16090,13 +16090,13 @@
       </c>
       <c r="AA5" s="155"/>
       <c r="AB5" s="155"/>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="211"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="211"/>
-      <c r="AG5" s="211"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
+      <c r="AC5" s="207"/>
+      <c r="AD5" s="207"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="207"/>
+      <c r="AG5" s="207"/>
+      <c r="AH5" s="204"/>
+      <c r="AI5" s="204"/>
       <c r="AK5" s="155"/>
       <c r="AL5" s="155"/>
       <c r="AM5" s="80" t="s">
@@ -16144,7 +16144,7 @@
     </row>
     <row r="6" spans="3:53" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="81"/>
-      <c r="D6" s="187"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="80" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -16175,27 +16175,27 @@
         <f>J6*F6*K6</f>
         <v>149.76</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
       <c r="R6" s="73"/>
       <c r="S6" s="33" t="s">
         <v>237</v>
       </c>
       <c r="T6" s="73"/>
-      <c r="U6" s="134"/>
+      <c r="U6" s="141"/>
       <c r="V6" s="73"/>
       <c r="W6" s="73"/>
       <c r="X6" s="73"/>
       <c r="AA6" s="156"/>
       <c r="AB6" s="156"/>
-      <c r="AC6" s="212"/>
-      <c r="AD6" s="212"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="212"/>
-      <c r="AG6" s="212"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="149"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="208"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="208"/>
+      <c r="AG6" s="208"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
       <c r="AK6" s="156"/>
       <c r="AL6" s="156"/>
       <c r="AM6" s="82"/>
@@ -16226,10 +16226,10 @@
       <c r="BA6" s="82"/>
     </row>
     <row r="7" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="187"/>
+      <c r="D7" s="204"/>
       <c r="E7" s="80" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -16260,7 +16260,7 @@
         <f>J7*F7*K7</f>
         <v>66.08</v>
       </c>
-      <c r="O7" s="207" t="s">
+      <c r="O7" s="211" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="33" t="s">
@@ -16292,7 +16292,7 @@
         <f>V7*W7</f>
         <v>42</v>
       </c>
-      <c r="AA7" s="148" t="s">
+      <c r="AA7" s="150" t="s">
         <v>19</v>
       </c>
       <c r="AB7" s="80" t="s">
@@ -16302,7 +16302,7 @@
         <f>L10</f>
         <v>153.44</v>
       </c>
-      <c r="AD7" s="148">
+      <c r="AD7" s="150">
         <v>7.2</v>
       </c>
       <c r="AE7" s="80">
@@ -16313,7 +16313,7 @@
         <f>T7+X7</f>
         <v>60.2</v>
       </c>
-      <c r="AG7" s="148">
+      <c r="AG7" s="150">
         <v>14.4</v>
       </c>
       <c r="AH7" s="80">
@@ -16324,7 +16324,7 @@
         <f>AE7+AH7</f>
         <v>19.72</v>
       </c>
-      <c r="AK7" s="148" t="s">
+      <c r="AK7" s="150" t="s">
         <v>19</v>
       </c>
       <c r="AL7" s="80" t="s">
@@ -16347,7 +16347,7 @@
         <f>ROUND(1.68*AM7,1)</f>
         <v>2456.6999999999998</v>
       </c>
-      <c r="AS7" s="148" t="s">
+      <c r="AS7" s="150" t="s">
         <v>19</v>
       </c>
       <c r="AT7" s="80" t="str">
@@ -16378,8 +16378,8 @@
       <c r="BA7" s="58"/>
     </row>
     <row r="8" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
       <c r="E8" s="80" t="str">
         <f>'Таблиця 1-4'!D6</f>
         <v>В-Д</v>
@@ -16410,7 +16410,7 @@
         <f>J8*F8*K8</f>
         <v>43.68</v>
       </c>
-      <c r="O8" s="208"/>
+      <c r="O8" s="212"/>
       <c r="P8" s="33" t="s">
         <v>55</v>
       </c>
@@ -16522,8 +16522,8 @@
       </c>
     </row>
     <row r="9" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="187"/>
-      <c r="D9" s="149"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="80" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -16554,7 +16554,7 @@
         <f>J9*F9*K9</f>
         <v>43.68</v>
       </c>
-      <c r="O9" s="207" t="s">
+      <c r="O9" s="211" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="33" t="s">
@@ -16586,7 +16586,7 @@
         <f>V9*W9</f>
         <v>42</v>
       </c>
-      <c r="AA9" s="148" t="s">
+      <c r="AA9" s="150" t="s">
         <v>241</v>
       </c>
       <c r="AB9" s="80" t="s">
@@ -16596,7 +16596,7 @@
         <f>L17</f>
         <v>447.90000000000003</v>
       </c>
-      <c r="AD9" s="148">
+      <c r="AD9" s="150">
         <v>7.2</v>
       </c>
       <c r="AE9" s="80">
@@ -16607,7 +16607,7 @@
         <f t="shared" si="0"/>
         <v>60.2</v>
       </c>
-      <c r="AG9" s="148">
+      <c r="AG9" s="150">
         <v>14.4</v>
       </c>
       <c r="AH9" s="80">
@@ -16618,7 +16618,7 @@
         <f t="shared" si="2"/>
         <v>29.57</v>
       </c>
-      <c r="AK9" s="148" t="s">
+      <c r="AK9" s="150" t="s">
         <v>20</v>
       </c>
       <c r="AL9" s="80" t="s">
@@ -16641,7 +16641,7 @@
         <f>ROUND(1.68*AM9,1)</f>
         <v>3060.6</v>
       </c>
-      <c r="AS9" s="148" t="s">
+      <c r="AS9" s="150" t="s">
         <v>20</v>
       </c>
       <c r="AT9" s="80" t="str">
@@ -16672,8 +16672,8 @@
       <c r="BA9" s="58"/>
     </row>
     <row r="10" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="187"/>
-      <c r="D10" s="152"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="147"/>
       <c r="E10" s="209"/>
       <c r="F10" s="209"/>
       <c r="G10" s="209"/>
@@ -16685,7 +16685,7 @@
         <f>SUM(L7:L9)</f>
         <v>153.44</v>
       </c>
-      <c r="O10" s="208"/>
+      <c r="O10" s="212"/>
       <c r="P10" s="33" t="s">
         <v>54</v>
       </c>
@@ -16741,7 +16741,7 @@
         <f t="shared" si="2"/>
         <v>26.869999999999997</v>
       </c>
-      <c r="AK10" s="149"/>
+      <c r="AK10" s="158"/>
       <c r="AL10" s="80" t="s">
         <v>54</v>
       </c>
@@ -16762,7 +16762,7 @@
         <f>ROUND(1.68*AM10,1)</f>
         <v>3521.3</v>
       </c>
-      <c r="AS10" s="149"/>
+      <c r="AS10" s="158"/>
       <c r="AT10" s="80" t="str">
         <f>AL10</f>
         <v>г)</v>
@@ -16797,8 +16797,8 @@
       </c>
     </row>
     <row r="11" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="187"/>
-      <c r="D11" s="148" t="s">
+      <c r="C11" s="204"/>
+      <c r="D11" s="150" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="80" t="str">
@@ -16833,8 +16833,8 @@
       </c>
     </row>
     <row r="12" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="187"/>
-      <c r="D12" s="149"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="80" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -16867,8 +16867,8 @@
       </c>
     </row>
     <row r="13" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="149"/>
-      <c r="D13" s="152"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="209"/>
       <c r="F13" s="209"/>
       <c r="G13" s="209"/>
@@ -16882,10 +16882,10 @@
       </c>
     </row>
     <row r="14" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="153" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="80" t="str">
@@ -16989,7 +16989,7 @@
     </row>
     <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="159"/>
-      <c r="D17" s="150"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="159"/>
       <c r="F17" s="159"/>
       <c r="G17" s="159"/>
@@ -17004,7 +17004,7 @@
     </row>
     <row r="18" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="159"/>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="153" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="80" t="str">
@@ -17105,7 +17105,7 @@
     </row>
     <row r="21" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="159"/>
-      <c r="D21" s="150"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="159"/>
       <c r="F21" s="159"/>
       <c r="G21" s="159"/>
@@ -17122,32 +17122,12 @@
     <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="J2:J4"/>
@@ -17163,12 +17143,32 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AK4:AK6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17633,20 +17633,20 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="160"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="70" t="s">
         <v>230</v>
       </c>
       <c r="G3" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="160"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="70" t="s">
         <v>230</v>
       </c>
@@ -17656,13 +17656,13 @@
       <c r="L3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="153" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="151"/>
+      <c r="O3" s="154"/>
       <c r="P3" s="84" t="s">
         <v>230</v>
       </c>
@@ -17683,16 +17683,16 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="161"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="33" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="161"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="33" t="s">
         <v>2</v>
       </c>
@@ -17702,11 +17702,11 @@
       <c r="L4" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="M4" s="150"/>
+      <c r="M4" s="153"/>
       <c r="N4" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="151"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="84" t="s">
         <v>269</v>
       </c>
@@ -18195,7 +18195,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="136" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="70" t="s">
@@ -18262,7 +18262,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="134"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="33" t="s">
         <v>265</v>
       </c>
@@ -18551,16 +18551,16 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="150" t="s">
+      <c r="D26" s="153" t="s">
         <v>267</v>
       </c>
       <c r="E26" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="151"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="84" t="s">
         <v>230</v>
       </c>
@@ -18578,12 +18578,12 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="151"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="84" t="s">
         <v>2</v>
       </c>
@@ -19902,7 +19902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -20063,7 +20063,7 @@
         <v>0.124+2.713i</v>
       </c>
       <c r="J6" s="91" t="str">
-        <f t="shared" ref="J6:J9" si="1">IMSUM(H6,I6)</f>
+        <f t="shared" ref="J6:J8" si="1">IMSUM(H6,I6)</f>
         <v>35.124+10.913i</v>
       </c>
       <c r="K6" s="91" t="str">
@@ -20075,7 +20075,7 @@
         <v>-0.29000000000000004</v>
       </c>
       <c r="M6" s="91" t="str">
-        <f t="shared" ref="M6:M9" si="3">IMSUM(J6,K6,L6)</f>
+        <f t="shared" ref="M6" si="3">IMSUM(J6,K6,L6)</f>
         <v>34.884+11.238i</v>
       </c>
     </row>
@@ -20519,10 +20519,10 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>283</v>
       </c>
       <c r="J3" s="96" t="s">
@@ -20542,8 +20542,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="33" t="s">
         <v>97</v>
       </c>
@@ -21408,13 +21408,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="136" t="s">
         <v>301</v>
       </c>
       <c r="H3" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>221</v>
       </c>
       <c r="J3" s="70" t="s">
@@ -21429,7 +21429,7 @@
       <c r="M3" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="N3" s="132" t="s">
+      <c r="N3" s="136" t="s">
         <v>299</v>
       </c>
       <c r="O3" s="70" t="s">
@@ -21437,11 +21437,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="134"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="134"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="33" t="s">
         <v>298</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="33"/>
-      <c r="N4" s="134"/>
+      <c r="N4" s="141"/>
       <c r="O4" s="33" t="s">
         <v>9</v>
       </c>
@@ -22046,7 +22046,7 @@
       </c>
     </row>
     <row r="20" spans="5:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G20" s="132" t="s">
+      <c r="G20" s="136" t="s">
         <v>291</v>
       </c>
       <c r="H20" s="70" t="s">
@@ -22061,8 +22061,8 @@
       <c r="K20" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
       <c r="N20" s="70" t="s">
         <v>230</v>
       </c>
@@ -22074,7 +22074,7 @@
       </c>
     </row>
     <row r="21" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="134"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="33" t="s">
         <v>9</v>
       </c>
@@ -22087,8 +22087,8 @@
       <c r="K21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
       <c r="N21" s="33" t="s">
         <v>9</v>
       </c>
@@ -22595,7 +22595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -25268,7 +25268,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25282,13 +25282,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="136" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -25300,19 +25300,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="137" t="s">
+      <c r="J2" s="144" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="132" t="s">
+      <c r="L2" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="136" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -25323,9 +25323,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="134"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -25335,13 +25335,13 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="138"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="145"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
@@ -25355,10 +25355,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="137" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -25405,8 +25405,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="144"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -25451,8 +25451,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="145"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -25497,8 +25497,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="133" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="140" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -25545,8 +25545,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -25591,10 +25591,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="136" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -25641,8 +25641,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -25687,8 +25687,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -25733,8 +25733,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="132" t="s">
+      <c r="C12" s="134"/>
+      <c r="D12" s="136" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -25781,8 +25781,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -25827,8 +25827,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -25873,8 +25873,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -25919,8 +25919,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -25965,8 +25965,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -26004,6 +26004,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -26012,13 +26019,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26206,25 +26206,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="153" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="150" t="s">
+      <c r="E3" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="153" t="s">
         <v>168</v>
       </c>
       <c r="J3" s="56" t="s">
@@ -26241,15 +26241,15 @@
       </c>
     </row>
     <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="150"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="55" t="s">
         <v>147</v>
       </c>
@@ -26264,27 +26264,27 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="155"/>
-      <c r="D6" s="151"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="55" t="str">
         <f>нагрів!D5</f>
         <v>ВП-Д</v>
@@ -26325,7 +26325,7 @@
     </row>
     <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="155"/>
-      <c r="D7" s="151"/>
+      <c r="D7" s="154"/>
       <c r="E7" s="55" t="str">
         <f>нагрів!D6</f>
         <v>Д-В</v>
@@ -26364,17 +26364,17 @@
     </row>
     <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C8" s="155"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152" t="s">
+      <c r="D8" s="154"/>
+      <c r="E8" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
       <c r="M8" s="59">
         <f>M6+M7</f>
         <v>1.8504872727272728</v>
@@ -26382,23 +26382,23 @@
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="155"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152" t="str">
+      <c r="D9" s="154"/>
+      <c r="E9" s="147" t="str">
         <f>нагрів!D7</f>
         <v>відключення ВП-Д</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="154"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="149"/>
     </row>
     <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="155"/>
-      <c r="D10" s="151"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="55" t="str">
         <f>нагрів!D8</f>
         <v>ВП-В</v>
@@ -26436,7 +26436,7 @@
     </row>
     <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C11" s="155"/>
-      <c r="D11" s="151"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="55" t="str">
         <f>нагрів!D9</f>
         <v>В-Д</v>
@@ -26474,17 +26474,17 @@
     </row>
     <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C12" s="155"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="149"/>
       <c r="M12" s="59">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
@@ -26492,7 +26492,7 @@
     </row>
     <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C13" s="155"/>
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="150" t="s">
         <v>155</v>
       </c>
       <c r="E13" s="55" t="str">
@@ -26575,43 +26575,43 @@
     <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C15" s="156"/>
       <c r="D15" s="156"/>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="149"/>
       <c r="M15" s="59">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="152" t="s">
+      <c r="E16" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="154"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="149"/>
     </row>
     <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="55" t="str">
         <f>нагрів!D13</f>
         <v>ВП-Е</v>
@@ -26649,8 +26649,8 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="154"/>
       <c r="E18" s="55" t="str">
         <f>нагрів!D14</f>
         <v>Е-Г</v>
@@ -26688,41 +26688,41 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152" t="s">
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="149"/>
       <c r="M19" s="59">
         <f>M17+M18</f>
         <v>1.8346254545454546</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="150"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152" t="s">
+      <c r="C20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="154"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="149"/>
     </row>
     <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="55" t="str">
         <f>нагрів!D16</f>
         <v>ВП-Г</v>
@@ -26759,8 +26759,8 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
       <c r="E22" s="55" t="str">
         <f>нагрів!D17</f>
         <v>Г-Е</v>
@@ -26796,26 +26796,26 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152" t="s">
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="149"/>
       <c r="M23" s="59">
         <f>M21+M22</f>
         <v>2.3726354545454549</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="150"/>
-      <c r="D24" s="150" t="s">
+      <c r="C24" s="153"/>
+      <c r="D24" s="153" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="55" t="str">
@@ -26856,8 +26856,8 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="55" t="str">
         <f>нагрів!D19</f>
         <v>Г-2</v>
@@ -26895,8 +26895,8 @@
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="55" t="str">
         <f>нагрів!D20</f>
         <v>Е-2</v>
@@ -26935,46 +26935,46 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="152" t="s">
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
       <c r="M27" s="59">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="152" t="s">
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
       <c r="M28" s="59">
         <f>M24+M25</f>
         <v>1.7127409090909091</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="148"/>
+      <c r="D29" s="150"/>
       <c r="E29" s="55" t="s">
         <v>151</v>
       </c>
@@ -27012,8 +27012,8 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="150"/>
-      <c r="D30" s="157"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="151"/>
       <c r="E30" s="55" t="s">
         <v>152</v>
       </c>
@@ -27050,8 +27050,8 @@
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="150"/>
-      <c r="D31" s="158"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="152"/>
       <c r="E31" s="55" t="s">
         <v>153</v>
       </c>
@@ -27087,36 +27087,36 @@
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
       <c r="M32" s="59">
         <f>M29+M30</f>
         <v>9.2161288181818186</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
       <c r="M33" s="59">
         <f>M29+M31</f>
         <v>4.4329513636363638</v>
@@ -27130,17 +27130,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E23:L23"/>
     <mergeCell ref="C33:L33"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
@@ -27157,6 +27146,17 @@
     <mergeCell ref="E15:L15"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
